--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -580,11 +580,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -603,13 +603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -618,38 +611,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,17 +643,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,6 +665,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -710,9 +688,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,6 +698,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,14 +719,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +809,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +905,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,157 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,32 +1008,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,6 +1037,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1079,24 +1092,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,13 +1105,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,130 +1123,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1314,7 +1314,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1660,11 +1660,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1805,22 +1805,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>349000</v>
+        <v>410000</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>239200</v>
+        <v>302640</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>349000</v>
+        <v>410000</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>239200</v>
+        <v>302640</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="M2" s="2">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>69680</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9360</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:E34" si="2">F3/1.04+G3</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="G3" s="15">
         <v>3000</v>
@@ -1977,7 +1977,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>3120</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2134,11 +2136,11 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="G6" s="15">
         <v>3000</v>
@@ -2148,7 +2150,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>5200</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2424,11 +2428,11 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G11" s="15">
         <v>2000</v>
@@ -2438,7 +2442,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>2080</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2477,11 +2483,11 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
@@ -2495,8 +2501,9 @@
       <c r="L12" s="4">
         <v>1040</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>1040</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -3254,11 +3261,11 @@
       </c>
       <c r="E26" s="14">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G26" s="15">
         <v>500</v>
@@ -3271,7 +3278,9 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>2080</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="E29" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="G29" s="15">
         <v>0</v>
@@ -3433,7 +3442,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4">
+        <v>5200</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3472,11 +3483,11 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G30" s="15">
         <v>5000</v>
@@ -3490,7 +3501,9 @@
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4">
+        <v>5200</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3584,11 +3597,11 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="G32" s="15">
         <v>1000</v>
@@ -3598,8 +3611,9 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4">
+        <v>3120</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -3637,11 +3651,11 @@
       </c>
       <c r="E33" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -3653,7 +3667,9 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4">
+        <v>1040</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -4076,11 +4092,11 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G41" s="15">
         <v>3000</v>
@@ -4094,7 +4110,9 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="4">
+        <v>3120</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4241,11 +4259,11 @@
       </c>
       <c r="E44" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G44" s="15">
         <v>3000</v>
@@ -4257,7 +4275,9 @@
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>3120</v>
+      </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -4353,11 +4373,11 @@
       </c>
       <c r="E46" s="14">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -4369,7 +4389,9 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4">
+        <v>3120</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4408,11 +4430,11 @@
       </c>
       <c r="E47" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -4422,7 +4444,9 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="4">
+        <v>2080</v>
+      </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -4461,11 +4485,11 @@
       </c>
       <c r="E48" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G48" s="15">
         <v>3000</v>
@@ -4477,7 +4501,9 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4">
+        <v>3120</v>
+      </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4677,11 +4703,11 @@
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="G52" s="15">
         <v>3000</v>
@@ -4695,7 +4721,9 @@
       <c r="L52" s="4">
         <v>1040</v>
       </c>
-      <c r="M52" s="4"/>
+      <c r="M52" s="4">
+        <v>1040</v>
+      </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4960,11 +4988,11 @@
       </c>
       <c r="E57" s="14">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G57" s="15">
         <v>5000</v>
@@ -4976,7 +5004,9 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="M57" s="4">
+        <v>5200</v>
+      </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -5239,11 +5269,11 @@
       </c>
       <c r="E62" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -5255,7 +5285,9 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4">
+        <v>2080</v>
+      </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -5461,11 +5493,11 @@
       </c>
       <c r="E66" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G66" s="15">
         <v>3000</v>
@@ -5477,8 +5509,9 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4">
+        <v>3120</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
@@ -5517,11 +5550,11 @@
       </c>
       <c r="E67" s="14">
         <f t="shared" ref="E67:E95" si="6">F67/1.04+G67</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G67" s="15">
         <v>2000</v>
@@ -5533,7 +5566,9 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4">
+        <v>2080</v>
+      </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5740,11 +5775,11 @@
       </c>
       <c r="E71" s="14">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G71" s="15">
         <v>2000</v>
@@ -5756,7 +5791,9 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4">
+        <v>2080</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5794,11 +5831,11 @@
       </c>
       <c r="E72" s="14">
         <f t="shared" si="6"/>
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G72" s="15">
         <v>27000</v>
@@ -5812,7 +5849,9 @@
       <c r="L72" s="23">
         <v>4160</v>
       </c>
-      <c r="M72" s="20"/>
+      <c r="M72" s="20">
+        <v>2080</v>
+      </c>
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
@@ -5958,11 +5997,11 @@
       </c>
       <c r="E75" s="14">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F75" s="14">
         <f t="shared" si="7"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="G75" s="15">
         <v>0</v>
@@ -5974,7 +6013,9 @@
       <c r="L75" s="18">
         <v>1040</v>
       </c>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4">
+        <v>1040</v>
+      </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -6064,11 +6105,11 @@
       </c>
       <c r="E77" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F77" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G77" s="15">
         <v>0</v>
@@ -6078,7 +6119,9 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="M77" s="4">
+        <v>2080</v>
+      </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -23,6 +23,29 @@
   </authors>
   <commentList>
     <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,11 +603,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -611,9 +634,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,17 +657,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,58 +679,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -717,9 +686,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +710,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,25 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +886,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +934,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,49 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,8 +1038,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,45 +1095,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1090,13 +1109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,13 +1128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,124 +1146,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1314,7 +1337,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1660,11 +1683,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1805,22 +1828,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>410000</v>
+        <v>531000</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>302640</v>
+        <v>428480</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>410000</v>
+        <v>531000</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>302640</v>
+        <v>428480</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1852,19 +1875,19 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>43680</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
@@ -2074,11 +2097,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2095,7 +2118,9 @@
         <v>1040</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>1040</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2194,11 +2219,11 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>18720</v>
       </c>
       <c r="G7" s="15">
         <v>10000</v>
@@ -2219,8 +2244,12 @@
       <c r="M7" s="4">
         <v>2080</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4160</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2373,11 +2402,11 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
@@ -2391,7 +2420,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4">
+        <v>5200</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2541,11 +2572,11 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
@@ -2558,7 +2589,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>5200</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2596,11 +2629,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="15">
         <v>5000</v>
@@ -2616,7 +2649,9 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>5200</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2766,11 +2801,11 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" ref="F17:F35" si="3">SUM(H17:AL17)</f>
-        <v>3120</v>
+        <v>9360</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
@@ -2783,10 +2818,14 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>3120</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4">
+        <v>3120</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -2876,11 +2915,11 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
@@ -2895,7 +2934,9 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -3041,11 +3082,11 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -3061,7 +3102,9 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>1040</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -3098,11 +3141,11 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3114,7 +3157,9 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4">
+        <v>3120</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -3151,11 +3196,11 @@
       </c>
       <c r="E24" s="14">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G24" s="15">
         <v>5000</v>
@@ -3169,7 +3214,9 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4">
+        <v>5200</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -3206,11 +3253,11 @@
       </c>
       <c r="E25" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>9360</v>
       </c>
       <c r="G25" s="15">
         <v>3000</v>
@@ -3223,9 +3270,13 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>3120</v>
+      </c>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -3373,11 +3424,11 @@
       </c>
       <c r="E28" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -3390,7 +3441,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4">
+        <v>2080</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -3483,11 +3536,11 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G30" s="15">
         <v>5000</v>
@@ -3506,7 +3559,9 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -3763,11 +3818,11 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" ref="E35:E66" si="4">F35/1.04+G35</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -3783,7 +3838,9 @@
         <v>3120</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="O35" s="4">
+        <v>3120</v>
+      </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -3820,11 +3877,11 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" ref="F36:F73" si="5">SUM(H36:AL36)</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="G36" s="15">
         <v>0</v>
@@ -3837,7 +3894,9 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -3873,11 +3932,11 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G37" s="15">
         <v>3000</v>
@@ -3890,7 +3949,9 @@
         <v>3120</v>
       </c>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4">
+        <v>3120</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -3981,11 +4042,11 @@
       </c>
       <c r="E39" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -4001,7 +4062,9 @@
         <v>2080</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="4">
+        <v>2080</v>
+      </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -4092,11 +4155,11 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G41" s="15">
         <v>3000</v>
@@ -4114,7 +4177,9 @@
         <v>3120</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="O41" s="4">
+        <v>3120</v>
+      </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -4259,11 +4324,11 @@
       </c>
       <c r="E44" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G44" s="15">
         <v>3000</v>
@@ -4281,7 +4346,9 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="4">
+        <v>3120</v>
+      </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -4316,11 +4383,11 @@
       </c>
       <c r="E45" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G45" s="15">
         <v>3000</v>
@@ -4335,7 +4402,9 @@
         <v>3120</v>
       </c>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4">
+        <v>3120</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -4542,11 +4611,11 @@
       </c>
       <c r="E49" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G49" s="15">
         <v>3000</v>
@@ -4561,7 +4630,9 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
+      <c r="P49" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
@@ -4597,11 +4668,11 @@
       </c>
       <c r="E50" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G50" s="15">
         <v>2000</v>
@@ -4613,7 +4684,9 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+      <c r="O50" s="4">
+        <v>2080</v>
+      </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -4650,11 +4723,11 @@
       </c>
       <c r="E51" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
@@ -4668,7 +4741,9 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="4">
+        <v>2080</v>
+      </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
@@ -4703,11 +4778,11 @@
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="G52" s="15">
         <v>3000</v>
@@ -4725,9 +4800,13 @@
         <v>1040</v>
       </c>
       <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
+      <c r="O52" s="4">
+        <v>1040</v>
+      </c>
       <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4">
+        <v>1040</v>
+      </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -4763,11 +4842,11 @@
       </c>
       <c r="E53" s="14">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G53" s="15">
         <v>1000</v>
@@ -4782,10 +4861,14 @@
         <v>1040</v>
       </c>
       <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="N53" s="4">
+        <v>1040</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="4">
+        <v>1040</v>
+      </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -4875,11 +4958,11 @@
       </c>
       <c r="E55" s="14">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -4897,7 +4980,9 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4">
+        <v>5200</v>
+      </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
@@ -5101,11 +5186,11 @@
       </c>
       <c r="E59" s="14">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G59" s="15">
         <v>1000</v>
@@ -5123,7 +5208,9 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
+      <c r="O59" s="4">
+        <v>2080</v>
+      </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -5161,11 +5248,11 @@
       </c>
       <c r="E60" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G60" s="15">
         <v>2000</v>
@@ -5176,7 +5263,9 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="4">
+        <v>2080</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -5214,11 +5303,11 @@
       </c>
       <c r="E61" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -5231,7 +5320,9 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="N61" s="4">
+        <v>2080</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
@@ -5381,11 +5472,11 @@
       </c>
       <c r="E64" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -5396,7 +5487,9 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="N64" s="4">
+        <v>1040</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -5434,11 +5527,11 @@
       </c>
       <c r="E65" s="14">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -5456,7 +5549,9 @@
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="O65" s="4">
+        <v>5200</v>
+      </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -5718,11 +5813,11 @@
       </c>
       <c r="E70" s="14">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G70" s="15">
         <v>0</v>
@@ -5738,7 +5833,9 @@
         <v>3120</v>
       </c>
       <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
+      <c r="O70" s="4">
+        <v>3120</v>
+      </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -5775,11 +5872,11 @@
       </c>
       <c r="E71" s="14">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G71" s="15">
         <v>2000</v>
@@ -5795,7 +5892,9 @@
         <v>2080</v>
       </c>
       <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
+      <c r="O71" s="4">
+        <v>2080</v>
+      </c>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -5831,11 +5930,11 @@
       </c>
       <c r="E72" s="14">
         <f t="shared" si="6"/>
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="G72" s="15">
         <v>27000</v>
@@ -5854,7 +5953,9 @@
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
+      <c r="P72" s="20">
+        <v>2080</v>
+      </c>
       <c r="Q72" s="20"/>
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
@@ -5891,11 +5992,11 @@
       </c>
       <c r="E73" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F73" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="G73" s="15">
         <v>0</v>
@@ -5906,7 +6007,9 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
+      <c r="N73" s="18">
+        <v>3120</v>
+      </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -5997,11 +6100,11 @@
       </c>
       <c r="E75" s="14">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F75" s="14">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G75" s="15">
         <v>0</v>
@@ -6017,7 +6120,9 @@
         <v>1040</v>
       </c>
       <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
+      <c r="O75" s="4">
+        <v>2080</v>
+      </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -6159,11 +6264,11 @@
       </c>
       <c r="E78" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F78" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G78" s="15">
         <v>0</v>
@@ -6175,7 +6280,9 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
+      <c r="O78" s="18">
+        <v>2080</v>
+      </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
@@ -6315,11 +6422,11 @@
       </c>
       <c r="E81" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F81" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G81" s="15">
         <v>0</v>
@@ -6330,7 +6437,9 @@
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
+      <c r="N81" s="20">
+        <v>2080</v>
+      </c>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="21"/>
@@ -6369,11 +6478,11 @@
       </c>
       <c r="E82" s="14">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" si="7"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G82" s="15">
         <v>0</v>
@@ -6389,7 +6498,9 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+      <c r="O82" s="4">
+        <v>5200</v>
+      </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -7043,11 +7154,11 @@
       </c>
       <c r="E95" s="14">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F95" s="14">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
@@ -7062,7 +7173,9 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
+      <c r="P95" s="18">
+        <v>2080</v>
+      </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -603,11 +603,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -626,46 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,9 +641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,38 +657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,6 +671,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -747,9 +724,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,8 +747,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,13 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,19 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +934,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,91 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +1026,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1035,11 +1050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,47 +1089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1123,18 +1103,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,130 +1146,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1337,7 +1337,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1683,11 +1683,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1828,22 +1828,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>531000</v>
+        <v>577000</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>428480</v>
+        <v>476320</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>531000</v>
+        <v>577000</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>428480</v>
+        <v>476320</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>38480</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24960</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="1"/>
@@ -2097,11 +2097,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2123,7 +2123,9 @@
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4">
+        <v>1040</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -2219,11 +2221,11 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>18720</v>
+        <v>22880</v>
       </c>
       <c r="G7" s="15">
         <v>10000</v>
@@ -2251,8 +2253,12 @@
         <v>4160</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2080</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G11" s="15">
         <v>2000</v>
@@ -2480,7 +2486,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="4">
+        <v>2080</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -2629,11 +2637,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="15">
         <v>5000</v>
@@ -2653,7 +2661,9 @@
         <v>5200</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <v>5200</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -3027,11 +3037,11 @@
       </c>
       <c r="E21" s="14">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G21" s="15">
         <v>5000</v>
@@ -3048,7 +3058,9 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4">
+        <v>5200</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -3597,11 +3609,11 @@
       </c>
       <c r="E31" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -3617,7 +3629,9 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="4">
+        <v>2080</v>
+      </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3818,11 +3832,11 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" ref="E35:E66" si="4">F35/1.04+G35</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -3843,7 +3857,9 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="R35" s="4">
+        <v>3120</v>
+      </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
@@ -4442,11 +4458,11 @@
       </c>
       <c r="E46" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -4465,7 +4481,9 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="R46" s="4">
+        <v>3120</v>
+      </c>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -5073,11 +5091,11 @@
       </c>
       <c r="E57" s="14">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G57" s="15">
         <v>5000</v>
@@ -5096,7 +5114,9 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
+      <c r="R57" s="4">
+        <v>5200</v>
+      </c>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
@@ -5186,11 +5206,11 @@
       </c>
       <c r="E59" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="G59" s="15">
         <v>1000</v>
@@ -5213,7 +5233,9 @@
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="R59" s="4">
+        <v>2080</v>
+      </c>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
@@ -5303,11 +5325,11 @@
       </c>
       <c r="E61" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -5325,8 +5347,9 @@
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="Q61" s="4">
+        <v>2080</v>
+      </c>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
@@ -5360,11 +5383,11 @@
       </c>
       <c r="E62" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -5383,7 +5406,9 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
+      <c r="R62" s="4">
+        <v>2080</v>
+      </c>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -5527,11 +5552,11 @@
       </c>
       <c r="E65" s="14">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" si="5"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -5553,7 +5578,9 @@
         <v>5200</v>
       </c>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="Q65" s="4">
+        <v>5200</v>
+      </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -5588,11 +5615,11 @@
       </c>
       <c r="E66" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G66" s="15">
         <v>3000</v>
@@ -5609,7 +5636,9 @@
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4">
+        <v>3120</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -5645,11 +5674,11 @@
       </c>
       <c r="E67" s="14">
         <f t="shared" ref="E67:E95" si="6">F67/1.04+G67</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G67" s="15">
         <v>2000</v>
@@ -5667,7 +5696,9 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
+      <c r="Q67" s="4">
+        <v>2080</v>
+      </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -626,9 +626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,13 +635,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +648,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,23 +672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +681,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -709,9 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,21 +720,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,6 +751,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +844,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,108 +1013,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,15 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,6 +1052,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,10 +1131,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,40 +1146,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1188,88 +1188,88 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,11 +1683,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1828,22 +1828,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>577000</v>
+        <v>619500</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>476320</v>
+        <v>520520</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>577000</v>
+        <v>619500</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>476320</v>
+        <v>520520</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1891,11 +1891,11 @@
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
-        <v>24960</v>
+        <v>47320</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21840</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
@@ -2060,7 +2060,9 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="18">
+        <v>1560</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -2097,11 +2099,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2126,7 +2128,9 @@
       <c r="Q5" s="4">
         <v>1040</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4">
+        <v>1040</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -2163,11 +2167,11 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G6" s="15">
         <v>3000</v>
@@ -2185,7 +2189,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4">
+        <v>5200</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
@@ -2547,7 +2553,9 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4">
+        <v>1040</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -3153,11 +3161,11 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3174,7 +3182,9 @@
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="R23" s="4">
+        <v>3120</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -3265,11 +3275,11 @@
       </c>
       <c r="E25" s="14">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G25" s="15">
         <v>3000</v>
@@ -3291,7 +3301,9 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="S25" s="4">
+        <v>3120</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -3493,11 +3505,11 @@
       </c>
       <c r="E29" s="14">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G29" s="15">
         <v>0</v>
@@ -3515,7 +3527,9 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4">
+        <v>5200</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -4117,11 +4131,11 @@
       </c>
       <c r="E40" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F40" s="14">
         <f>SUM(I40:AL40)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
@@ -4137,7 +4151,9 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+      <c r="R40" s="4">
+        <v>2080</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -4171,11 +4187,11 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="G41" s="15">
         <v>3000</v>
@@ -4198,7 +4214,9 @@
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="R41" s="4">
+        <v>3120</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -4572,11 +4590,11 @@
       </c>
       <c r="E48" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G48" s="15">
         <v>3000</v>
@@ -4595,7 +4613,9 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+      <c r="R48" s="4">
+        <v>3120</v>
+      </c>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
@@ -4796,11 +4816,11 @@
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="G52" s="15">
         <v>3000</v>
@@ -4825,7 +4845,9 @@
       <c r="Q52" s="4">
         <v>1040</v>
       </c>
-      <c r="R52" s="4"/>
+      <c r="R52" s="4">
+        <v>1040</v>
+      </c>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -4921,11 +4943,11 @@
       </c>
       <c r="E54" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G54" s="15">
         <v>2000</v>
@@ -4942,7 +4964,9 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="4">
+        <v>2080</v>
+      </c>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -5844,11 +5868,11 @@
       </c>
       <c r="E70" s="14">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G70" s="15">
         <v>0</v>
@@ -5869,7 +5893,9 @@
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+      <c r="R70" s="4">
+        <v>3120</v>
+      </c>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
@@ -5903,11 +5929,11 @@
       </c>
       <c r="E71" s="14">
         <f t="shared" si="6"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G71" s="15">
         <v>2000</v>
@@ -5929,7 +5955,9 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
+      <c r="S71" s="4">
+        <v>2080</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -5961,11 +5989,11 @@
       </c>
       <c r="E72" s="14">
         <f t="shared" si="6"/>
-        <v>37000</v>
+        <v>39000</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="G72" s="15">
         <v>27000</v>
@@ -5988,7 +6016,9 @@
         <v>2080</v>
       </c>
       <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
+      <c r="R72" s="20">
+        <v>2080</v>
+      </c>
       <c r="S72" s="20"/>
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
@@ -6509,11 +6539,11 @@
       </c>
       <c r="E82" s="14">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" si="7"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G82" s="15">
         <v>0</v>
@@ -6535,7 +6565,9 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
+      <c r="S82" s="4">
+        <v>5200</v>
+      </c>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -626,8 +626,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +670,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -664,11 +694,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,23 +732,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,21 +757,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -758,13 +765,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,67 +838,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +874,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,49 +964,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,13 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,45 +1023,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1089,6 +1050,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,15 +1109,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,130 +1146,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,11 +1683,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1828,22 +1828,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>619500</v>
+        <v>670500</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>520520</v>
+        <v>573560</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>619500</v>
+        <v>670500</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>520520</v>
+        <v>573560</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1895,11 +1895,11 @@
       </c>
       <c r="S2" s="2">
         <f t="shared" si="1"/>
-        <v>21840</v>
+        <v>61360</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2132,7 +2132,9 @@
         <v>1040</v>
       </c>
       <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4">
+        <v>1040</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -2227,11 +2229,11 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>22880</v>
+        <v>24960</v>
       </c>
       <c r="G7" s="15">
         <v>10000</v>
@@ -2265,7 +2267,9 @@
       <c r="R7" s="4">
         <v>2080</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4">
+        <v>2080</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -2414,11 +2418,11 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
@@ -2438,7 +2442,9 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4">
+        <v>5200</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
@@ -2556,7 +2562,9 @@
       <c r="S12" s="4">
         <v>1040</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4">
+        <v>1040</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -2645,11 +2653,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="G14" s="15">
         <v>5000</v>
@@ -2673,7 +2681,9 @@
         <v>5200</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4">
+        <v>5200</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -2709,11 +2719,11 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
@@ -2731,7 +2741,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="S15" s="4">
+        <v>2080</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" ref="F17:F35" si="3">SUM(H17:AL17)</f>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
@@ -2845,7 +2857,9 @@
         <v>3120</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4">
+        <v>3120</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -2878,11 +2892,11 @@
       </c>
       <c r="E18" s="14">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="G18" s="15">
         <v>5000</v>
@@ -2901,7 +2915,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4">
+        <v>5200</v>
+      </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -3102,11 +3118,11 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -3128,7 +3144,9 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="S22" s="4">
+        <v>1040</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -3336,11 +3354,11 @@
       </c>
       <c r="E26" s="14">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G26" s="15">
         <v>500</v>
@@ -3360,7 +3378,9 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="S26" s="4">
+        <v>2080</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -3562,11 +3582,11 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="3"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="G30" s="15">
         <v>5000</v>
@@ -3590,7 +3610,9 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4">
+        <v>5200</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -3680,11 +3702,11 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="G32" s="15">
         <v>1000</v>
@@ -3701,7 +3723,9 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="S32" s="4">
+        <v>3120</v>
+      </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="E34" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G34" s="15">
         <v>1000</v>
@@ -3813,7 +3837,9 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="S34" s="4">
+        <v>2080</v>
+      </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -3846,11 +3872,11 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" ref="E35:E66" si="4">F35/1.04+G35</f>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -3875,7 +3901,9 @@
         <v>3120</v>
       </c>
       <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="T35" s="4">
+        <v>3120</v>
+      </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -3907,11 +3935,11 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" ref="F36:F73" si="5">SUM(H36:AL36)</f>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="G36" s="15">
         <v>0</v>
@@ -3929,7 +3957,9 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
+      <c r="S36" s="4">
+        <v>1040</v>
+      </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -4358,11 +4388,11 @@
       </c>
       <c r="E44" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G44" s="15">
         <v>3000</v>
@@ -4385,7 +4415,9 @@
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
+      <c r="T44" s="4">
+        <v>3120</v>
+      </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -4649,11 +4681,11 @@
       </c>
       <c r="E49" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G49" s="15">
         <v>3000</v>
@@ -4673,7 +4705,9 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
+      <c r="S49" s="4">
+        <v>3120</v>
+      </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -5466,11 +5500,11 @@
       </c>
       <c r="E63" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F63" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G63" s="15">
         <v>0</v>
@@ -5488,7 +5522,9 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
+      <c r="S63" s="4">
+        <v>2080</v>
+      </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -5989,11 +6025,11 @@
       </c>
       <c r="E72" s="14">
         <f t="shared" si="6"/>
-        <v>39000</v>
+        <v>41000</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="G72" s="15">
         <v>27000</v>
@@ -6019,7 +6055,9 @@
       <c r="R72" s="20">
         <v>2080</v>
       </c>
-      <c r="S72" s="20"/>
+      <c r="S72" s="20">
+        <v>2080</v>
+      </c>
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
@@ -7692,6 +7730,7 @@
       <c r="AL108" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -22,6 +22,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="T5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J7" authorId="0">
       <text>
         <r>
@@ -233,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>S.No.</t>
   </si>
@@ -548,6 +571,9 @@
   </si>
   <si>
     <t>SANGAM GENERAL STORE(661644708)</t>
+  </si>
+  <si>
+    <t>Rupsagar</t>
   </si>
   <si>
     <t>sugam phone bathe(661711006)</t>
@@ -603,9 +629,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -626,14 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -641,8 +659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +674,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -662,9 +689,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,9 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,33 +765,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,15 +782,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,21 +791,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +858,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,31 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,109 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,15 +1049,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1046,30 +1063,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1091,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1112,29 +1149,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,130 +1172,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,11 +1709,11 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q52" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1828,22 +1854,22 @@
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <f>SUM(E3:E120)</f>
-        <v>670500</v>
+        <v>805500</v>
       </c>
       <c r="C2" s="11">
         <f>SUM(F3:F120)</f>
-        <v>573560</v>
+        <v>713960</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
         <f>F2/1.04+G2</f>
-        <v>670500</v>
+        <v>805500</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>573560</v>
+        <v>713960</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(G3:G120)</f>
@@ -1899,19 +1925,19 @@
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>13520</v>
+        <v>60320</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47840</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="1"/>
@@ -2099,11 +2125,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -2133,7 +2159,7 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -2229,11 +2255,11 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>24960</v>
+        <v>31200</v>
       </c>
       <c r="G7" s="15">
         <v>10000</v>
@@ -2270,9 +2296,15 @@
       <c r="S7" s="4">
         <v>2080</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="T7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2080</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -2305,11 +2337,11 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -2328,7 +2360,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>2080</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -2360,11 +2394,11 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
@@ -2383,7 +2417,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4">
+        <v>2080</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -2477,11 +2513,11 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G11" s="15">
         <v>2000</v>
@@ -2502,7 +2538,9 @@
         <v>2080</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>2080</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2596,11 +2634,11 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
@@ -2621,7 +2659,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4">
+        <v>5200</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -2653,11 +2693,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="G14" s="15">
         <v>5000</v>
@@ -2686,7 +2726,9 @@
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="V14" s="4">
+        <v>5200</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -2768,7 +2810,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2776,11 +2818,11 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="G16" s="15">
         <v>500</v>
@@ -2802,7 +2844,9 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="W16" s="4">
+        <v>1040</v>
+      </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -3006,11 +3050,11 @@
       </c>
       <c r="E20" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -3032,7 +3076,9 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="W20" s="4">
+        <v>1040</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -3118,11 +3164,11 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -3150,7 +3196,9 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="W22" s="4">
+        <v>1040</v>
+      </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -3179,11 +3227,11 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -3206,7 +3254,9 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4">
+        <v>3120</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -3236,11 +3286,11 @@
       </c>
       <c r="E24" s="14">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="G24" s="15">
         <v>5000</v>
@@ -3261,7 +3311,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="T24" s="4">
+        <v>5200</v>
+      </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
@@ -3293,11 +3345,11 @@
       </c>
       <c r="E25" s="14">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="G25" s="15">
         <v>3000</v>
@@ -3323,7 +3375,9 @@
         <v>3120</v>
       </c>
       <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="U25" s="4">
+        <v>3120</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -3413,11 +3467,11 @@
       </c>
       <c r="E27" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
@@ -3438,7 +3492,9 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4">
+        <v>2080</v>
+      </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -3582,11 +3638,11 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="3"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="G30" s="15">
         <v>5000</v>
@@ -3614,7 +3670,9 @@
         <v>5200</v>
       </c>
       <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="U30" s="4">
+        <v>5200</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -3645,11 +3703,11 @@
       </c>
       <c r="E31" s="14">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -3670,7 +3728,9 @@
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="T31" s="4">
+        <v>2080</v>
+      </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3758,11 +3818,11 @@
       </c>
       <c r="E33" s="14">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -3784,8 +3844,12 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="U33" s="4">
+        <v>1040</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1040</v>
+      </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3872,11 +3936,11 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" ref="E35:E66" si="4">F35/1.04+G35</f>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="G35" s="15">
         <v>0</v>
@@ -3905,7 +3969,9 @@
         <v>3120</v>
       </c>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="V35" s="4">
+        <v>3120</v>
+      </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -3992,11 +4058,11 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G37" s="15">
         <v>3000</v>
@@ -4017,7 +4083,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
+      <c r="T37" s="4">
+        <v>3120</v>
+      </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -4049,11 +4117,11 @@
       </c>
       <c r="E38" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G38" s="15">
         <v>0</v>
@@ -4071,7 +4139,9 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="U38" s="18">
+        <v>2080</v>
+      </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -4102,11 +4172,11 @@
       </c>
       <c r="E39" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -4130,9 +4200,13 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
+      <c r="U39" s="4">
+        <v>2080</v>
+      </c>
       <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
+      <c r="W39" s="4">
+        <v>2080</v>
+      </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -4217,11 +4291,11 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="G41" s="15">
         <v>3000</v>
@@ -4248,7 +4322,9 @@
         <v>3120</v>
       </c>
       <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
+      <c r="T41" s="4">
+        <v>3120</v>
+      </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -4449,11 +4525,11 @@
       </c>
       <c r="E45" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G45" s="15">
         <v>3000</v>
@@ -4476,7 +4552,9 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="T45" s="4">
+        <v>3120</v>
+      </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -4508,11 +4586,11 @@
       </c>
       <c r="E46" s="14">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G46" s="15">
         <v>0</v>
@@ -4538,7 +4616,9 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
+      <c r="W46" s="4">
+        <v>3120</v>
+      </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -4622,11 +4702,11 @@
       </c>
       <c r="E48" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G48" s="15">
         <v>3000</v>
@@ -4649,7 +4729,9 @@
         <v>3120</v>
       </c>
       <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
+      <c r="T48" s="4">
+        <v>3120</v>
+      </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -4681,11 +4763,11 @@
       </c>
       <c r="E49" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G49" s="15">
         <v>3000</v>
@@ -4709,7 +4791,9 @@
         <v>3120</v>
       </c>
       <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
+      <c r="U49" s="4">
+        <v>3120</v>
+      </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
@@ -4850,11 +4934,11 @@
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>11440</v>
       </c>
       <c r="G52" s="15">
         <v>3000</v>
@@ -4883,10 +4967,16 @@
         <v>1040</v>
       </c>
       <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
+      <c r="T52" s="4">
+        <v>1040</v>
+      </c>
+      <c r="U52" s="4">
+        <v>1040</v>
+      </c>
       <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
+      <c r="W52" s="4">
+        <v>1040</v>
+      </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -4908,7 +4998,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -4916,11 +5006,11 @@
       </c>
       <c r="E53" s="14">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G53" s="15">
         <v>1000</v>
@@ -4945,8 +5035,12 @@
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
+      <c r="T53" s="4">
+        <v>1040</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1040</v>
+      </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -5034,11 +5128,11 @@
       </c>
       <c r="E55" s="14">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -5062,7 +5156,9 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
+      <c r="U55" s="4">
+        <v>5200</v>
+      </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
@@ -5093,11 +5189,11 @@
       </c>
       <c r="E56" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G56" s="15">
         <v>0</v>
@@ -5117,7 +5213,9 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
+      <c r="U56" s="4">
+        <v>2080</v>
+      </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
@@ -5141,7 +5239,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -5149,11 +5247,11 @@
       </c>
       <c r="E57" s="14">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="G57" s="15">
         <v>5000</v>
@@ -5177,7 +5275,9 @@
       </c>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
+      <c r="U57" s="4">
+        <v>5200</v>
+      </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -5264,11 +5364,11 @@
       </c>
       <c r="E59" s="14">
         <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="G59" s="15">
         <v>1000</v>
@@ -5297,7 +5397,9 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
+      <c r="V59" s="4">
+        <v>2080</v>
+      </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
@@ -5328,11 +5430,11 @@
       </c>
       <c r="E60" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G60" s="15">
         <v>2000</v>
@@ -5353,7 +5455,9 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="V60" s="4">
+        <v>2080</v>
+      </c>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
@@ -5383,11 +5487,11 @@
       </c>
       <c r="E61" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -5411,7 +5515,9 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
+      <c r="V61" s="4">
+        <v>2080</v>
+      </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
@@ -5441,11 +5547,11 @@
       </c>
       <c r="E62" s="14">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -5469,7 +5575,9 @@
       </c>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
+      <c r="U62" s="4">
+        <v>2080</v>
+      </c>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
@@ -5557,11 +5665,11 @@
       </c>
       <c r="E64" s="14">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -5582,7 +5690,9 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="V64" s="4">
+        <v>1040</v>
+      </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
@@ -5612,11 +5722,11 @@
       </c>
       <c r="E65" s="14">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" si="5"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="G65" s="15">
         <v>0</v>
@@ -5644,7 +5754,9 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
+      <c r="U65" s="4">
+        <v>5200</v>
+      </c>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -5675,11 +5787,11 @@
       </c>
       <c r="E66" s="14">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G66" s="15">
         <v>3000</v>
@@ -5702,7 +5814,9 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
+      <c r="U66" s="4">
+        <v>3120</v>
+      </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -5726,7 +5840,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="16"/>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -5734,11 +5848,11 @@
       </c>
       <c r="E67" s="14">
         <f t="shared" ref="E67:E95" si="6">F67/1.04+G67</f>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="G67" s="15">
         <v>2000</v>
@@ -5762,7 +5876,9 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
+      <c r="U67" s="4">
+        <v>2080</v>
+      </c>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -5786,7 +5902,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="16"/>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -5847,11 +5963,11 @@
       </c>
       <c r="E69" s="14">
         <f t="shared" si="6"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="F69" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="G69" s="15">
         <v>1500</v>
@@ -5872,9 +5988,15 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="T69" s="4">
+        <v>1040</v>
+      </c>
+      <c r="U69" s="4">
+        <v>1040</v>
+      </c>
+      <c r="V69" s="4">
+        <v>1040</v>
+      </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
@@ -5904,11 +6026,11 @@
       </c>
       <c r="E70" s="14">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="G70" s="15">
         <v>0</v>
@@ -5933,7 +6055,9 @@
         <v>3120</v>
       </c>
       <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
+      <c r="T70" s="4">
+        <v>3120</v>
+      </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -5965,11 +6089,11 @@
       </c>
       <c r="E71" s="14">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="G71" s="15">
         <v>2000</v>
@@ -5994,9 +6118,13 @@
       <c r="S71" s="4">
         <v>2080</v>
       </c>
-      <c r="T71" s="4"/>
+      <c r="T71" s="4">
+        <v>2080</v>
+      </c>
       <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="V71" s="4">
+        <v>2080</v>
+      </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
@@ -6019,17 +6147,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="6"/>
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="G72" s="15">
         <v>27000</v>
@@ -6058,7 +6185,9 @@
       <c r="S72" s="20">
         <v>2080</v>
       </c>
-      <c r="T72" s="21"/>
+      <c r="T72" s="4">
+        <v>2080</v>
+      </c>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
       <c r="W72" s="21"/>
@@ -6083,7 +6212,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -6139,7 +6268,6 @@
         <v>72</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="4"/>
       <c r="D74" s="17" t="s">
         <v>97</v>
       </c>
@@ -6191,7 +6319,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="16"/>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -6251,7 +6379,6 @@
         <v>74</v>
       </c>
       <c r="B76" s="16"/>
-      <c r="C76" s="4"/>
       <c r="D76" s="17" t="s">
         <v>100</v>
       </c>
@@ -6303,7 +6430,6 @@
         <v>75</v>
       </c>
       <c r="B77" s="16"/>
-      <c r="C77" s="4"/>
       <c r="D77" s="17" t="s">
         <v>101</v>
       </c>
@@ -6357,7 +6483,9 @@
         <v>76</v>
       </c>
       <c r="B78" s="16"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D78" s="17" t="s">
         <v>102</v>
       </c>
@@ -6411,17 +6539,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="C79" s="4"/>
       <c r="D79" s="17" t="s">
         <v>103</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
@@ -6439,7 +6566,9 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
+      <c r="U79" s="4">
+        <v>1040</v>
+      </c>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
@@ -6463,17 +6592,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="16"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D80" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F80" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="G80" s="15">
         <v>0</v>
@@ -6490,10 +6621,16 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
+      <c r="T80" s="18">
+        <v>2080</v>
+      </c>
       <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
+      <c r="V80" s="4">
+        <v>1040</v>
+      </c>
+      <c r="W80" s="4">
+        <v>1040</v>
+      </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -6515,17 +6652,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="16"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D81" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F81" s="14">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="G81" s="15">
         <v>0</v>
@@ -6546,7 +6685,9 @@
       <c r="S81" s="21"/>
       <c r="T81" s="21"/>
       <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
+      <c r="V81" s="20">
+        <v>2080</v>
+      </c>
       <c r="W81" s="21"/>
       <c r="X81" s="21"/>
       <c r="Y81" s="21"/>
@@ -6569,19 +6710,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="16"/>
-      <c r="C82" s="4" t="s">
-        <v>106</v>
+      <c r="C82" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" si="7"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="G82" s="15">
         <v>0</v>
@@ -6609,7 +6750,9 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
+      <c r="W82" s="4">
+        <v>5200</v>
+      </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -6631,9 +6774,8 @@
         <v>81</v>
       </c>
       <c r="B83" s="16"/>
-      <c r="C83" s="4"/>
       <c r="D83" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" si="6"/>
@@ -6683,9 +6825,8 @@
         <v>82</v>
       </c>
       <c r="B84" s="16"/>
-      <c r="C84" s="4"/>
       <c r="D84" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" s="14">
         <f t="shared" si="6"/>
@@ -6735,11 +6876,11 @@
         <v>83</v>
       </c>
       <c r="B85" s="16"/>
-      <c r="C85" s="4" t="s">
-        <v>106</v>
+      <c r="C85" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E85" s="14">
         <f t="shared" si="6"/>
@@ -6789,9 +6930,8 @@
         <v>84</v>
       </c>
       <c r="B86" s="16"/>
-      <c r="C86" s="4"/>
       <c r="D86" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" si="6"/>
@@ -6840,9 +6980,8 @@
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="4"/>
       <c r="D87" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" si="6"/>
@@ -6893,9 +7032,8 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="4"/>
       <c r="D88" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E88" s="14">
         <f t="shared" si="6"/>
@@ -6944,9 +7082,8 @@
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="4"/>
       <c r="D89" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="14">
         <f t="shared" si="6"/>
@@ -6995,9 +7132,8 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="4"/>
       <c r="D90" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="14">
         <f t="shared" si="6"/>
@@ -7046,9 +7182,8 @@
       <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="4"/>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="14">
         <f t="shared" si="6"/>
@@ -7097,9 +7232,8 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="4"/>
       <c r="D92" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" si="6"/>
@@ -7148,9 +7282,8 @@
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="4"/>
       <c r="D93" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E93" s="14">
         <f t="shared" si="6"/>
@@ -7199,9 +7332,8 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="4"/>
       <c r="D94" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E94" s="14">
         <f t="shared" si="6"/>
@@ -7250,8 +7382,11 @@
       <c r="A95" s="3">
         <v>93</v>
       </c>
+      <c r="C95" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D95" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E95" s="14">
         <f t="shared" si="6"/>
@@ -7730,7 +7865,6 @@
       <c r="AL108" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -10,7 +10,7 @@
     <sheet name="January-2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'January-2021'!$A$1:$AL$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'January-2021'!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Vijay</author>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0">
+    <comment ref="U5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="K7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AE7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI7" authorId="0">
+    <comment ref="AJ7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE19" authorId="0">
+    <comment ref="AF19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI56" authorId="0">
+    <comment ref="AJ56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L72" authorId="0">
+    <comment ref="M72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD72" authorId="0">
+    <comment ref="AE72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF72" authorId="0">
+    <comment ref="AG72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
   <si>
     <t>S.No.</t>
   </si>
@@ -264,6 +264,9 @@
     <t>Alias Name</t>
   </si>
   <si>
+    <t>Retailer Id</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
@@ -484,6 +487,9 @@
   </si>
   <si>
     <t>ANJALI MOBILE RAMPURCHAE(661735620)</t>
+  </si>
+  <si>
+    <t>0681066927/0681961014</t>
   </si>
   <si>
     <t>MAA VINDHYAVASINI MOBILE CENTE(660064218)</t>
@@ -629,11 +635,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -659,6 +665,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -674,14 +772,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -690,99 +781,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,12 +795,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -858,13 +864,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,19 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,31 +948,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,67 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,13 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,21 +1055,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1085,8 +1076,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,35 +1132,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,13 +1160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,138 +1178,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1321,14 +1327,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,6 +1349,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,26 +1365,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1706,29 +1719,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR108"/>
+  <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="R72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S56" sqref="S56"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.71428571428571" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5714285714286" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.1428571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="3"/>
+    <col min="2" max="3" width="11.5714285714286" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.8571428571429" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:44">
+    <row r="1" s="1" customFormat="1" spans="1:45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1747,205 +1760,205 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19">
         <v>43831</v>
       </c>
-      <c r="I1" s="8">
+      <c r="J1" s="19">
         <v>43832</v>
       </c>
-      <c r="J1" s="8">
+      <c r="K1" s="19">
         <v>43833</v>
       </c>
-      <c r="K1" s="8">
+      <c r="L1" s="19">
         <v>43834</v>
       </c>
-      <c r="L1" s="8">
+      <c r="M1" s="19">
         <v>43835</v>
       </c>
-      <c r="M1" s="8">
+      <c r="N1" s="19">
         <v>43836</v>
       </c>
-      <c r="N1" s="8">
+      <c r="O1" s="19">
         <v>43837</v>
       </c>
-      <c r="O1" s="8">
+      <c r="P1" s="19">
         <v>43838</v>
       </c>
-      <c r="P1" s="8">
+      <c r="Q1" s="19">
         <v>43839</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="R1" s="19">
         <v>43840</v>
       </c>
-      <c r="R1" s="8">
+      <c r="S1" s="19">
         <v>43841</v>
       </c>
-      <c r="S1" s="8">
+      <c r="T1" s="19">
         <v>43842</v>
       </c>
-      <c r="T1" s="8">
+      <c r="U1" s="19">
         <v>43843</v>
       </c>
-      <c r="U1" s="8">
+      <c r="V1" s="19">
         <v>43844</v>
       </c>
-      <c r="V1" s="8">
+      <c r="W1" s="19">
         <v>43845</v>
       </c>
-      <c r="W1" s="8">
+      <c r="X1" s="19">
         <v>43846</v>
       </c>
-      <c r="X1" s="8">
+      <c r="Y1" s="19">
         <v>43847</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Z1" s="19">
         <v>43848</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="AA1" s="19">
         <v>43849</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AB1" s="19">
         <v>43850</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AC1" s="19">
         <v>43851</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AD1" s="19">
         <v>43852</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AE1" s="19">
         <v>43853</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AF1" s="19">
         <v>43854</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AG1" s="19">
         <v>43855</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AH1" s="19">
         <v>43856</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AI1" s="19">
         <v>43857</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AJ1" s="19">
         <v>43858</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AK1" s="19">
         <v>43859</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AL1" s="19">
         <v>43860</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AM1" s="19">
         <v>43861</v>
       </c>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:38">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10">
-        <f>SUM(E3:E120)</f>
-        <v>805500</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:39">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>713960</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10">
-        <f>F2/1.04+G2</f>
-        <v>805500</v>
-      </c>
-      <c r="F2" s="11">
-        <f t="shared" ref="F2:F16" si="0">SUM(H2:AL2)</f>
-        <v>713960</v>
-      </c>
-      <c r="G2" s="13">
+        <v>848500</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
+        <v>758680</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9">
+        <f>G2/1.04+H2</f>
+        <v>848500</v>
+      </c>
+      <c r="G2" s="10">
+        <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
+        <v>758680</v>
+      </c>
+      <c r="H2" s="12">
+        <f>SUM(H3:H120)</f>
         <v>119000</v>
-      </c>
-      <c r="H2" s="2">
-        <f>SUM(H3:H120)</f>
-        <v>48880</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(I3:I120)</f>
-        <v>52000</v>
+        <v>48880</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(J3:J120)</f>
+        <v>52000</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(K3:K120)</f>
         <v>29120</v>
       </c>
-      <c r="K2" s="2">
-        <f t="shared" ref="K2:AL2" si="1">SUM(K3:K120)</f>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:AM2" si="1">SUM(L3:L120)</f>
         <v>46800</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <f t="shared" si="1"/>
         <v>46800</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <f t="shared" si="1"/>
         <v>69680</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <f t="shared" si="1"/>
         <v>43680</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <f t="shared" si="1"/>
         <v>57200</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <f t="shared" si="1"/>
         <v>18720</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <f t="shared" si="1"/>
         <v>38480</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <f t="shared" si="1"/>
         <v>47320</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <f t="shared" si="1"/>
         <v>61360</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <f t="shared" si="1"/>
         <v>60320</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <f t="shared" si="1"/>
         <v>47840</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
         <f t="shared" si="1"/>
         <v>30160</v>
       </c>
-      <c r="W2" s="2">
-        <f t="shared" si="1"/>
-        <v>15600</v>
-      </c>
       <c r="X2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="1"/>
@@ -1999,37 +2012,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:38">
+      <c r="AM2" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:39">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
-        <f t="shared" ref="E3:E34" si="2">F3/1.04+G3</f>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F34" si="2">G3/1.04+H3</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="14">
         <f t="shared" si="0"/>
         <v>3120</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>3000</v>
       </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>3120</v>
       </c>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2054,29 +2070,29 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:38">
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:39">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2086,10 +2102,10 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="18">
+      <c r="R4" s="4"/>
+      <c r="S4" s="20">
         <v>1560</v>
       </c>
-      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -2109,59 +2125,59 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:38">
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:39">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>8320</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>1040</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>1040</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>1040</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
         <v>1040</v>
       </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>1040</v>
-      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4">
         <v>1040</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U5" s="4"/>
+      <c r="S5" s="4">
+        <v>1040</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
+        <v>2080</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -2179,48 +2195,48 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:38">
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:39">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>3000</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>5200</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <v>5200</v>
       </c>
-      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -2239,57 +2255,55 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:38">
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:39">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="F7" s="14">
+        <v>42000</v>
+      </c>
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
-        <v>31200</v>
-      </c>
-      <c r="G7" s="15">
+        <v>33280</v>
+      </c>
+      <c r="H7" s="15">
         <v>10000</v>
       </c>
-      <c r="H7" s="4">
-        <v>2080</v>
-      </c>
       <c r="I7" s="4">
         <v>2080</v>
       </c>
       <c r="J7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="K7" s="4">
         <v>4160</v>
       </c>
-      <c r="K7" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>2080</v>
-      </c>
+      <c r="L7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4">
         <v>2080</v>
       </c>
       <c r="O7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="P7" s="4">
         <v>4160</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <v>2080</v>
-      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4">
         <v>2080</v>
       </c>
@@ -2305,8 +2319,12 @@
       <c r="V7" s="4">
         <v>2080</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="W7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="X7" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -2321,49 +2339,49 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:38">
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:39">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4">
-        <v>2080</v>
-      </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>2080</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
+        <v>2080</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -2381,35 +2399,35 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:38">
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:39">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>2080</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2417,10 +2435,10 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>2080</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -2438,50 +2456,50 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:38">
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:39">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14">
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>15600</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>5200</v>
       </c>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
         <v>5200</v>
       </c>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
         <v>5200</v>
       </c>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -2500,48 +2518,48 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:38">
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:39">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="15">
         <v>2000</v>
       </c>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>2080</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>2080</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
+        <v>2080</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -2559,51 +2577,51 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:38">
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:39">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>1040</v>
       </c>
-      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>1040</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>1040</v>
       </c>
-      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4">
-        <v>1040</v>
-      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="4">
         <v>1040</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4">
+        <v>1040</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -2621,48 +2639,48 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:38">
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:39">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="14">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>15600</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>5200</v>
       </c>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
         <v>5200</v>
       </c>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4">
         <v>5200</v>
       </c>
-      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -2680,56 +2698,56 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:38">
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:39">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="G14" s="15">
+      <c r="H14" s="15">
         <v>5000</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>5200</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>5200</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
         <v>5200</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
         <v>5200</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
         <v>5200</v>
       </c>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <v>5200</v>
       </c>
-      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -2745,48 +2763,48 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:38">
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:39">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14">
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>2080</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4">
-        <v>2080</v>
-      </c>
-      <c r="T15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4">
+        <v>2080</v>
+      </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2805,34 +2823,34 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="G16" s="15">
+      <c r="H16" s="15">
         <v>500</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="18">
+      <c r="J16" s="4"/>
+      <c r="K16" s="20">
         <v>1040</v>
       </c>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2844,10 +2862,10 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4">
         <v>1040</v>
       </c>
-      <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2862,49 +2880,49 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:38">
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:39">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="14">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="F17" s="14">
-        <f t="shared" ref="F17:F35" si="3">SUM(H17:AL17)</f>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
         <v>12480</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>3120</v>
       </c>
-      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4">
         <v>3120</v>
       </c>
-      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
         <v>3120</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4">
         <v>3120</v>
       </c>
-      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -2923,46 +2941,46 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:38">
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:39">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="14">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="F18" s="14">
+      <c r="G18" s="14">
         <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="G18" s="15">
+      <c r="H18" s="15">
         <v>5000</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
         <v>5200</v>
       </c>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="4">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
         <v>5200</v>
       </c>
-      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2980,42 +2998,42 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:38">
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:39">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F19" s="14">
+      <c r="G19" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <v>2080</v>
-      </c>
-      <c r="M19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>2080</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4">
-        <v>2080</v>
-      </c>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4">
+        <v>2080</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3037,32 +3055,32 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:38">
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:39">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>3120</v>
       </c>
-      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -3076,10 +3094,10 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
         <v>1040</v>
       </c>
-      <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
@@ -3094,49 +3112,51 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:38">
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:39">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="14">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="F21" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="14">
         <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="G21" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H21" s="15">
         <v>5000</v>
       </c>
-      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>5200</v>
       </c>
-      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
         <v>5200</v>
       </c>
-      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="4">
+        <v>5200</v>
+      </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -3151,55 +3171,55 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:38">
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:39">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="14">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="F22" s="14">
+      <c r="G22" s="14">
         <f t="shared" si="3"/>
         <v>5200</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>1040</v>
       </c>
-      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1040</v>
       </c>
-      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
         <v>1040</v>
       </c>
-      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
         <v>1040</v>
       </c>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
         <v>1040</v>
       </c>
-      <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -3214,52 +3234,54 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:38">
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:39">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="14">
         <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="F23" s="14">
+        <v>12000</v>
+      </c>
+      <c r="G23" s="14">
         <f t="shared" si="3"/>
-        <v>9360</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>12480</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4">
         <v>3120</v>
       </c>
-      <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
         <v>3120</v>
       </c>
-      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4">
         <v>3120</v>
       </c>
-      <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="Y23" s="4">
+        <v>3120</v>
+      </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
@@ -3273,48 +3295,48 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:38">
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:39">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="14">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="F24" s="14">
+      <c r="G24" s="14">
         <f t="shared" si="3"/>
         <v>15600</v>
       </c>
-      <c r="G24" s="15">
+      <c r="H24" s="15">
         <v>5000</v>
       </c>
-      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>5200</v>
       </c>
-      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4">
         <v>5200</v>
       </c>
-      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="4">
+      <c r="T24" s="4"/>
+      <c r="U24" s="4">
         <v>5200</v>
       </c>
-      <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
@@ -3332,53 +3354,53 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:38">
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:39">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="14">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="F25" s="14">
+      <c r="G25" s="14">
         <f t="shared" si="3"/>
         <v>15600</v>
       </c>
-      <c r="G25" s="15">
+      <c r="H25" s="15">
         <v>3000</v>
       </c>
-      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>3120</v>
       </c>
-      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
         <v>3120</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
         <v>3120</v>
       </c>
-      <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4">
         <v>3120</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
         <v>3120</v>
       </c>
-      <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -3395,51 +3417,53 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:38">
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:39">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="14">
         <f t="shared" si="2"/>
-        <v>6500</v>
-      </c>
-      <c r="F26" s="14">
+        <v>8500</v>
+      </c>
+      <c r="G26" s="14">
         <f t="shared" si="3"/>
-        <v>6240</v>
-      </c>
-      <c r="G26" s="15">
+        <v>8320</v>
+      </c>
+      <c r="H26" s="15">
         <v>500</v>
       </c>
-      <c r="H26" s="4">
-        <v>2080</v>
-      </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>2080</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4">
+        <v>2080</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4">
-        <v>2080</v>
-      </c>
-      <c r="T26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4">
+        <v>2080</v>
+      </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="X26" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
@@ -3454,32 +3478,32 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:38">
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:39">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F27" s="14">
+      <c r="G27" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2080</v>
-      </c>
-      <c r="I27" s="4"/>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2080</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -3492,10 +3516,10 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4">
+        <v>2080</v>
+      </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -3511,40 +3535,40 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:38">
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:39">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F28" s="14">
+      <c r="G28" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J28" s="4"/>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <v>2080</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4">
+        <v>2080</v>
+      </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -3568,45 +3592,45 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:38">
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:39">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="14">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="F29" s="14">
+      <c r="G29" s="14">
         <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>5200</v>
       </c>
-      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4">
         <v>5200</v>
       </c>
-      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -3625,55 +3649,55 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:38">
+      <c r="AM29" s="4"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:39">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="14">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
-      <c r="F30" s="14">
+      <c r="G30" s="14">
         <f t="shared" si="3"/>
         <v>31200</v>
       </c>
-      <c r="G30" s="15">
+      <c r="H30" s="15">
         <v>5000</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>5200</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
         <v>5200</v>
       </c>
-      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>5200</v>
       </c>
-      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4">
         <v>5200</v>
       </c>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4">
         <v>5200</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
         <v>5200</v>
       </c>
-      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -3690,48 +3714,48 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:38">
+      <c r="AM30" s="4"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:39">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="14">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="F31" s="14">
+      <c r="G31" s="14">
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4">
-        <v>2080</v>
-      </c>
-      <c r="M31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>2080</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4">
-        <v>2080</v>
-      </c>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
+        <v>2080</v>
+      </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4">
+        <v>2080</v>
+      </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3749,44 +3773,44 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:38">
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:39">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="14">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="F32" s="14">
+      <c r="G32" s="14">
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="G32" s="15">
+      <c r="H32" s="15">
         <v>1000</v>
       </c>
-      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="N32" s="4">
+      <c r="M32" s="4"/>
+      <c r="O32" s="4">
         <v>3120</v>
       </c>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4">
         <v>3120</v>
       </c>
-      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
@@ -3805,52 +3829,52 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:38">
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:39">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="14">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F33" s="14">
+      <c r="G33" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
         <v>1040</v>
       </c>
-      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>1040</v>
       </c>
-      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4">
-        <v>1040</v>
-      </c>
+      <c r="U33" s="4"/>
       <c r="V33" s="4">
         <v>1040</v>
       </c>
-      <c r="W33" s="4"/>
+      <c r="W33" s="4">
+        <v>1040</v>
+      </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -3866,33 +3890,33 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:38">
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:39">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="14">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="F34" s="14">
+      <c r="G34" s="14">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="G34" s="15">
+      <c r="H34" s="15">
         <v>1000</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>2080</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -3901,10 +3925,10 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4">
-        <v>2080</v>
-      </c>
-      <c r="T34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4">
+        <v>2080</v>
+      </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
@@ -3923,56 +3947,56 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:38">
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:39">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" ref="E35:E66" si="4">F35/1.04+G35</f>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
         <v>18000</v>
       </c>
-      <c r="F35" s="14">
+      <c r="G35" s="14">
         <f t="shared" si="3"/>
         <v>18720</v>
       </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>3120</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>3120</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
         <v>3120</v>
       </c>
-      <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4">
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
         <v>3120</v>
       </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4">
         <v>3120</v>
       </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4">
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
         <v>3120</v>
       </c>
-      <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -3988,29 +4012,29 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:38">
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:39">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F36" s="14">
-        <f t="shared" ref="F36:F73" si="5">SUM(H36:AL36)</f>
-        <v>2080</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4"/>
+      <c r="G36" s="14">
+        <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
+        <v>2080</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -4018,15 +4042,15 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
         <v>1040</v>
       </c>
-      <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4">
         <v>1040</v>
       </c>
-      <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -4045,48 +4069,48 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:38">
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:39">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="14">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="F37" s="14">
+      <c r="G37" s="14">
         <f t="shared" si="5"/>
         <v>9360</v>
       </c>
-      <c r="G37" s="15">
+      <c r="H37" s="15">
         <v>3000</v>
       </c>
-      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18">
+      <c r="L37" s="4"/>
+      <c r="M37" s="20">
         <v>3120</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4">
         <v>3120</v>
       </c>
-      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="4">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4">
         <v>3120</v>
       </c>
-      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -4104,29 +4128,32 @@
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:38">
+      <c r="AM37" s="4"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:39">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="C38" s="3">
+        <v>684087396</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F38" s="14">
+      <c r="G38" s="14">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -4139,10 +4166,10 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="18">
-        <v>2080</v>
-      </c>
-      <c r="V38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="20">
+        <v>2080</v>
+      </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -4159,55 +4186,55 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:38">
+      <c r="AM38" s="4"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:39">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="14">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="F39" s="14">
+      <c r="G39" s="14">
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J39" s="4"/>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
+        <v>2080</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
+        <v>2080</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4">
-        <v>2080</v>
-      </c>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4">
-        <v>2080</v>
-      </c>
-      <c r="X39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4">
+        <v>2080</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
@@ -4222,32 +4249,32 @@
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:38">
+      <c r="AM39" s="4"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:39">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
-      </c>
-      <c r="F40" s="14">
-        <f>SUM(I40:AL40)</f>
-        <v>4160</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>6000</v>
+      </c>
+      <c r="G40" s="14">
+        <f>SUM(J40:AM40)</f>
+        <v>6240</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2080</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -4255,16 +4282,18 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4">
+        <v>2080</v>
+      </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
+      <c r="Y40" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
@@ -4278,57 +4307,59 @@
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:38">
+      <c r="AM40" s="4"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:39">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="14">
         <f t="shared" si="4"/>
-        <v>21000</v>
-      </c>
-      <c r="F41" s="14">
+        <v>24000</v>
+      </c>
+      <c r="G41" s="14">
         <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="G41" s="15">
+        <v>21840</v>
+      </c>
+      <c r="H41" s="15">
         <v>3000</v>
-      </c>
-      <c r="H41" s="4">
-        <v>3120</v>
       </c>
       <c r="I41" s="4">
         <v>3120</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>3120</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>3120</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <v>3120</v>
       </c>
-      <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
         <v>3120</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4">
         <v>3120</v>
       </c>
-      <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
+      <c r="X41" s="4">
+        <v>3120</v>
+      </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
@@ -4343,32 +4374,32 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:38">
+      <c r="AM41" s="4"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:39">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F42" s="14">
+      <c r="G42" s="14">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2080</v>
-      </c>
-      <c r="I42" s="4"/>
+      <c r="H42" s="15">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2080</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4398,29 +4429,29 @@
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:38">
+      <c r="AM42" s="4"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:39">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F43" s="14">
+      <c r="G43" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4451,50 +4482,50 @@
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:38">
+      <c r="AM43" s="4"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:39">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="D44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="14">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G44" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G44" s="15">
+      <c r="H44" s="15">
         <v>3000</v>
       </c>
-      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
         <v>3120</v>
       </c>
-      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
         <v>3120</v>
       </c>
-      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="4">
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4">
         <v>3120</v>
       </c>
-      <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="4">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4">
         <v>3120</v>
       </c>
-      <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4512,53 +4543,55 @@
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:38">
+      <c r="AM44" s="4"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:39">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="14">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="F45" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G45" s="14">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="G45" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H45" s="15">
         <v>3000</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
         <v>3120</v>
       </c>
-      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4">
         <v>3120</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4">
         <v>3120</v>
       </c>
-      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="4">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4">
         <v>3120</v>
       </c>
-      <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="X45" s="4">
+        <v>3120</v>
+      </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
@@ -4573,53 +4606,53 @@
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:38">
+      <c r="AM45" s="4"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:39">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="D46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="14">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="F46" s="14">
+      <c r="G46" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>3120</v>
       </c>
-      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
         <v>3120</v>
       </c>
-      <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="4">
+      <c r="R46" s="4"/>
+      <c r="S46" s="4">
         <v>3120</v>
       </c>
-      <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4">
+      <c r="W46" s="4"/>
+      <c r="X46" s="4">
         <v>3120</v>
       </c>
-      <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
@@ -4634,37 +4667,37 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:38">
+      <c r="AM46" s="4"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:39">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="14">
         <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="F47" s="14">
+        <v>4000</v>
+      </c>
+      <c r="G47" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4"/>
+        <v>4160</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
+        <v>2080</v>
+      </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -4674,7 +4707,9 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="X47" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
@@ -4689,50 +4724,50 @@
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:38">
+      <c r="AM47" s="4"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:39">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="14">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F48" s="14">
+      <c r="G48" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G48" s="15">
+      <c r="H48" s="15">
         <v>3000</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>3120</v>
       </c>
-      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>3120</v>
       </c>
-      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="4">
+      <c r="R48" s="4"/>
+      <c r="S48" s="4">
         <v>3120</v>
       </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4">
         <v>3120</v>
       </c>
-      <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
@@ -4750,51 +4785,51 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:38">
+      <c r="AM48" s="4"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:39">
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="D49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="14">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F49" s="14">
+      <c r="G49" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G49" s="15">
+      <c r="H49" s="15">
         <v>3000</v>
       </c>
-      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>3120</v>
       </c>
-      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
         <v>3120</v>
       </c>
-      <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="4">
+      <c r="S49" s="4"/>
+      <c r="T49" s="4">
         <v>3120</v>
       </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4">
         <v>3120</v>
       </c>
-      <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
@@ -4811,39 +4846,39 @@
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:38">
+      <c r="AM49" s="4"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:39">
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="D50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="14">
         <f t="shared" si="4"/>
-        <v>4000</v>
-      </c>
-      <c r="F50" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G50" s="14">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="G50" s="15">
+        <v>4160</v>
+      </c>
+      <c r="H50" s="15">
         <v>2000</v>
       </c>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
@@ -4852,7 +4887,9 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
+      <c r="Y50" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
@@ -4866,29 +4903,29 @@
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:38">
+      <c r="AM50" s="4"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:39">
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F51" s="14">
+      <c r="G51" s="14">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="G51" s="15">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4897,10 +4934,10 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="4">
-        <v>2080</v>
-      </c>
-      <c r="R51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4">
+        <v>2080</v>
+      </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
@@ -4921,64 +4958,66 @@
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
       <c r="AL51" s="4"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:38">
+      <c r="AM51" s="4"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:39">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="D52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="14">
         <f t="shared" si="4"/>
-        <v>14000</v>
-      </c>
-      <c r="F52" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="14">
         <f t="shared" si="5"/>
-        <v>11440</v>
-      </c>
-      <c r="G52" s="15">
+        <v>12480</v>
+      </c>
+      <c r="H52" s="15">
         <v>3000</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>3120</v>
       </c>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4">
-        <v>1040</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="4">
         <v>1040</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4">
+      <c r="N52" s="4">
         <v>1040</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4">
+      <c r="O52" s="4"/>
+      <c r="P52" s="4">
         <v>1040</v>
       </c>
+      <c r="Q52" s="4"/>
       <c r="R52" s="4">
         <v>1040</v>
       </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4">
+      <c r="S52" s="4">
         <v>1040</v>
       </c>
+      <c r="T52" s="4"/>
       <c r="U52" s="4">
         <v>1040</v>
       </c>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4">
+      <c r="V52" s="4">
         <v>1040</v>
       </c>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4">
+        <v>1040</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>1040</v>
+      </c>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
@@ -4992,58 +5031,60 @@
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:38">
+      <c r="AM52" s="4"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:39">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="16"/>
-      <c r="C53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="14">
+      <c r="D53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="14">
         <f t="shared" si="4"/>
-        <v>7000</v>
-      </c>
-      <c r="F53" s="14">
+        <v>8000</v>
+      </c>
+      <c r="G53" s="14">
         <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="G53" s="15">
+        <v>7280</v>
+      </c>
+      <c r="H53" s="15">
         <v>1000</v>
       </c>
-      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
         <v>1040</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4">
         <v>1040</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4">
         <v>1040</v>
       </c>
-      <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4">
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4">
         <v>1040</v>
       </c>
-      <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="4">
-        <v>1040</v>
-      </c>
+      <c r="T53" s="4"/>
       <c r="U53" s="4">
         <v>1040</v>
       </c>
-      <c r="V53" s="4"/>
+      <c r="V53" s="4">
+        <v>1040</v>
+      </c>
       <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
+      <c r="X53" s="4">
+        <v>1040</v>
+      </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
@@ -5058,44 +5099,44 @@
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:38">
+      <c r="AM53" s="4"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:39">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="14">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="F54" s="14">
+      <c r="G54" s="14">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="G54" s="15">
+      <c r="H54" s="15">
         <v>2000</v>
       </c>
-      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
+        <v>2080</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
+        <v>2080</v>
+      </c>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -5115,51 +5156,51 @@
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
       <c r="AL54" s="4"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:38">
+      <c r="AM54" s="4"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:39">
       <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="D55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="14">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="F55" s="14">
+      <c r="G55" s="14">
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4">
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>5200</v>
       </c>
-      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
         <v>5200</v>
       </c>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4">
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4">
         <v>5200</v>
       </c>
-      <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
-      <c r="U55" s="4">
+      <c r="U55" s="4"/>
+      <c r="V55" s="4">
         <v>5200</v>
       </c>
-      <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
@@ -5176,47 +5217,47 @@
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:38">
+      <c r="AM55" s="4"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:39">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="14">
+      <c r="D56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="14">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F56" s="14">
+      <c r="G56" s="14">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="G56" s="15">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
+        <v>2080</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="4">
-        <v>2080</v>
-      </c>
-      <c r="V56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4">
+        <v>2080</v>
+      </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -5233,52 +5274,52 @@
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:38">
+      <c r="AM56" s="4"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:39">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="16"/>
-      <c r="C57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="14">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="F57" s="14">
+      <c r="G57" s="14">
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="G57" s="15">
+      <c r="H57" s="15">
         <v>5000</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>5200</v>
       </c>
-      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
         <v>5200</v>
       </c>
-      <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4">
+      <c r="R57" s="4"/>
+      <c r="S57" s="4">
         <v>5200</v>
       </c>
-      <c r="S57" s="4"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="4">
+      <c r="U57" s="4"/>
+      <c r="V57" s="4">
         <v>5200</v>
       </c>
-      <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
@@ -5295,35 +5336,38 @@
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:38">
+      <c r="AM57" s="4"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:39">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="14">
+      <c r="C58" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="14">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F58" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="14">
         <f t="shared" si="5"/>
-        <v>5200</v>
-      </c>
-      <c r="G58" s="15">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4"/>
+        <v>10400</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="18">
+      <c r="K58" s="4"/>
+      <c r="L58" s="20">
         <v>5200</v>
       </c>
-      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -5335,7 +5379,9 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+      <c r="X58" s="4">
+        <v>5200</v>
+      </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
@@ -5350,57 +5396,57 @@
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:38">
+      <c r="AM58" s="4"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:39">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="14">
+      <c r="D59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="14">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="F59" s="14">
+      <c r="G59" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G59" s="15">
+      <c r="H59" s="15">
         <v>1000</v>
       </c>
-      <c r="H59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="M59" s="4"/>
+      <c r="I59" s="4">
+        <v>2080</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4">
+        <v>2080</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4">
+        <v>2080</v>
+      </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4">
+        <v>2080</v>
+      </c>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4">
+        <v>2080</v>
+      </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -5416,49 +5462,49 @@
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:38">
+      <c r="AM59" s="4"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:39">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="16"/>
-      <c r="C60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="D60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="14">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="F60" s="14">
+      <c r="G60" s="14">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="G60" s="15">
+      <c r="H60" s="15">
         <v>2000</v>
       </c>
-      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4">
+        <v>2080</v>
+      </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4">
+        <v>2080</v>
+      </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -5474,51 +5520,51 @@
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
       <c r="AL60" s="4"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:38">
+      <c r="AM60" s="4"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:39">
       <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="14">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="F61" s="14">
+      <c r="G61" s="14">
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="G61" s="15">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4">
-        <v>2080</v>
-      </c>
-      <c r="K61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4">
+        <v>2080</v>
+      </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4">
+        <v>2080</v>
+      </c>
       <c r="P61" s="4"/>
-      <c r="Q61" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4">
+        <v>2080</v>
+      </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4">
+        <v>2080</v>
+      </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -5534,51 +5580,51 @@
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:38">
+      <c r="AM61" s="4"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:39">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="14">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="F62" s="14">
+      <c r="G62" s="14">
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="G62" s="15">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J62" s="4"/>
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
+        <v>2080</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
+        <v>2080</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="S62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4">
+        <v>2080</v>
+      </c>
       <c r="T62" s="4"/>
-      <c r="U62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="V62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4">
+        <v>2080</v>
+      </c>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
@@ -5595,45 +5641,45 @@
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:38">
+      <c r="AM62" s="4"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:39">
       <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="14">
+      <c r="D63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="14">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F63" s="14">
+      <c r="G63" s="14">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="15">
+        <v>0</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
+        <v>2080</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="4">
-        <v>2080</v>
-      </c>
-      <c r="T63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4">
+        <v>2080</v>
+      </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
@@ -5652,48 +5698,48 @@
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:38">
+      <c r="AM63" s="4"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:39">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="14">
+      <c r="D64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="14">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F64" s="14">
+      <c r="G64" s="14">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="G64" s="15">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4">
+      <c r="N64" s="4"/>
+      <c r="O64" s="4">
         <v>1040</v>
       </c>
-      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="4">
+      <c r="V64" s="4"/>
+      <c r="W64" s="4">
         <v>1040</v>
       </c>
-      <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -5709,55 +5755,55 @@
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:38">
+      <c r="AM64" s="4"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:39">
       <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="14">
+      <c r="D65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="14">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="F65" s="14">
+      <c r="G65" s="14">
         <f t="shared" si="5"/>
         <v>31200</v>
       </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>5200</v>
+      <c r="H65" s="15">
+        <v>0</v>
       </c>
       <c r="I65" s="4">
         <v>5200</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4">
+        <v>5200</v>
+      </c>
       <c r="K65" s="4"/>
-      <c r="L65" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4">
         <v>5200</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4">
         <v>5200</v>
       </c>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4">
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4">
         <v>5200</v>
       </c>
-      <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="4">
+      <c r="U65" s="4"/>
+      <c r="V65" s="4">
         <v>5200</v>
       </c>
-      <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
@@ -5774,50 +5820,50 @@
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:38">
+      <c r="AM65" s="4"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:39">
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="14">
+      <c r="D66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="14">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F66" s="14">
+      <c r="G66" s="14">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="G66" s="15">
+      <c r="H66" s="15">
         <v>3000</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4">
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>3120</v>
       </c>
-      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="N66" s="4">
+      <c r="M66" s="4"/>
+      <c r="O66" s="4">
         <v>3120</v>
       </c>
-      <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4">
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4">
         <v>3120</v>
       </c>
-      <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
-      <c r="U66" s="4">
+      <c r="U66" s="4"/>
+      <c r="V66" s="4">
         <v>3120</v>
       </c>
-      <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
@@ -5834,55 +5880,57 @@
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:38">
+      <c r="AM66" s="4"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:39">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="16"/>
-      <c r="C67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="14">
-        <f t="shared" ref="E67:E95" si="6">F67/1.04+G67</f>
-        <v>10000</v>
+      <c r="D67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="F67" s="14">
+        <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
+        <v>12000</v>
+      </c>
+      <c r="G67" s="14">
         <f t="shared" si="5"/>
-        <v>8320</v>
-      </c>
-      <c r="G67" s="15">
+        <v>10400</v>
+      </c>
+      <c r="H67" s="15">
         <v>2000</v>
       </c>
-      <c r="H67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="I67" s="4"/>
+      <c r="I67" s="4">
+        <v>2080</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
+        <v>2080</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-      <c r="Q67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="R67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4">
+        <v>2080</v>
+      </c>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
-      <c r="U67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="V67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4">
+        <v>2080</v>
+      </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
+      <c r="Y67" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
@@ -5896,30 +5944,30 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:38">
+      <c r="AM67" s="4"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:39">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="16"/>
-      <c r="C68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="14">
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="14">
         <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="5"/>
+        <v>2080</v>
+      </c>
+      <c r="H68" s="15">
         <v>500</v>
       </c>
-      <c r="F68" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="15">
-        <v>500</v>
-      </c>
-      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -5936,7 +5984,9 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
+      <c r="Y68" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
@@ -5950,56 +6000,58 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:38">
+      <c r="AM68" s="4"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:39">
       <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="14">
+      <c r="D69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="14">
         <f t="shared" si="6"/>
-        <v>10500</v>
-      </c>
-      <c r="F69" s="14">
+        <v>11500</v>
+      </c>
+      <c r="G69" s="14">
         <f t="shared" si="5"/>
-        <v>9360</v>
-      </c>
-      <c r="G69" s="15">
+        <v>10400</v>
+      </c>
+      <c r="H69" s="15">
         <v>1500</v>
       </c>
-      <c r="H69" s="4">
+      <c r="I69" s="4">
         <v>3120</v>
       </c>
-      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>3120</v>
       </c>
-      <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="4">
-        <v>1040</v>
-      </c>
+      <c r="T69" s="4"/>
       <c r="U69" s="4">
         <v>1040</v>
       </c>
       <c r="V69" s="4">
         <v>1040</v>
       </c>
-      <c r="W69" s="4"/>
+      <c r="W69" s="4">
+        <v>1040</v>
+      </c>
       <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
+      <c r="Y69" s="4">
+        <v>1040</v>
+      </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
@@ -6013,55 +6065,57 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:38">
+      <c r="AM69" s="4"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:39">
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="14">
         <f t="shared" si="6"/>
-        <v>15000</v>
-      </c>
-      <c r="F70" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G70" s="14">
         <f t="shared" si="5"/>
-        <v>15600</v>
-      </c>
-      <c r="G70" s="15">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4">
+        <v>18720</v>
+      </c>
+      <c r="H70" s="15">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>3120</v>
       </c>
-      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>3120</v>
       </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4">
+      <c r="O70" s="4"/>
+      <c r="P70" s="4">
         <v>3120</v>
       </c>
-      <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="4">
+      <c r="R70" s="4"/>
+      <c r="S70" s="4">
         <v>3120</v>
       </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4">
         <v>3120</v>
       </c>
-      <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="X70" s="4">
+        <v>3120</v>
+      </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
@@ -6076,57 +6130,59 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:38">
+      <c r="AM70" s="4"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:39">
       <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="14">
+      <c r="D71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="14">
         <f t="shared" si="6"/>
-        <v>14000</v>
-      </c>
-      <c r="F71" s="14">
+        <v>16000</v>
+      </c>
+      <c r="G71" s="14">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="G71" s="15">
+        <v>14560</v>
+      </c>
+      <c r="H71" s="15">
         <v>2000</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
+        <v>2080</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
+        <v>2080</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="4">
-        <v>2080</v>
-      </c>
+      <c r="S71" s="4"/>
       <c r="T71" s="4">
         <v>2080</v>
       </c>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
+      <c r="U71" s="4">
+        <v>2080</v>
+      </c>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4">
+        <v>2080</v>
+      </c>
+      <c r="X71" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
@@ -6141,58 +6197,58 @@
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
       <c r="AL71" s="4"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:38">
+      <c r="AM71" s="4"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:39">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="D72" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="14">
+      <c r="E72" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="14">
         <f t="shared" si="6"/>
         <v>43000</v>
       </c>
-      <c r="F72" s="14">
+      <c r="G72" s="14">
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="G72" s="15">
+      <c r="H72" s="15">
         <v>27000</v>
       </c>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20">
-        <v>2080</v>
-      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="M72" s="24">
         <v>4160</v>
       </c>
-      <c r="M72" s="20">
-        <v>2080</v>
-      </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20">
-        <v>2080</v>
-      </c>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20">
-        <v>2080</v>
-      </c>
-      <c r="S72" s="20">
-        <v>2080</v>
-      </c>
-      <c r="T72" s="4">
-        <v>2080</v>
-      </c>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="4"/>
+      <c r="N72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="T72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="U72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -6206,39 +6262,39 @@
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:38">
+      <c r="AM72" s="4"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:39">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="14">
+      <c r="D73" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="14">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="F73" s="14">
+      <c r="G73" s="14">
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="G73" s="15">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="18">
+      <c r="N73" s="4"/>
+      <c r="O73" s="20">
         <v>3120</v>
       </c>
-      <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -6262,27 +6318,27 @@
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:38">
+      <c r="AM73" s="4"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:39">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="D74" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="14">
+      <c r="E74" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F74" s="14">
-        <f t="shared" ref="F69:F95" si="7">SUM(H74:AL74)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="15">
-        <v>0</v>
-      </c>
-      <c r="H74" s="4"/>
+      <c r="G74" s="14">
+        <f t="shared" ref="G69:G95" si="7">SUM(I74:AM74)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6313,44 +6369,44 @@
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:38">
+      <c r="AM74" s="4"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:39">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="16"/>
-      <c r="C75" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="14">
+      <c r="D75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="14">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="F75" s="14">
+      <c r="G75" s="14">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="18">
+      <c r="L75" s="4"/>
+      <c r="M75" s="20">
         <v>1040</v>
       </c>
-      <c r="M75" s="4">
+      <c r="N75" s="4">
         <v>1040</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
@@ -6373,39 +6429,39 @@
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:38">
+      <c r="AM75" s="4"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:39">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="16"/>
-      <c r="D76" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="14">
+      <c r="E76" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F76" s="14">
+      <c r="G76" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G76" s="15">
-        <v>0</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="4"/>
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -6424,35 +6480,38 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:38">
+      <c r="AM76" s="4"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:39">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="16"/>
-      <c r="D77" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="14">
+      <c r="C77" s="3">
+        <v>683879115</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="14">
         <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="F77" s="14">
+        <v>4000</v>
+      </c>
+      <c r="G77" s="14">
         <f t="shared" si="7"/>
-        <v>2080</v>
-      </c>
-      <c r="G77" s="15">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4"/>
+        <v>4160</v>
+      </c>
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4">
-        <v>2080</v>
-      </c>
-      <c r="N77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
+        <v>2080</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -6462,7 +6521,9 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="X77" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
@@ -6477,40 +6538,40 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:38">
+      <c r="AM77" s="4"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:39">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="16"/>
-      <c r="C78" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="14">
+      <c r="D78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="14">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="F78" s="14">
+      <c r="G78" s="14">
         <f t="shared" si="7"/>
         <v>2080</v>
       </c>
-      <c r="G78" s="15">
-        <v>0</v>
-      </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
-      <c r="O78" s="18">
-        <v>2080</v>
-      </c>
-      <c r="P78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="20">
+        <v>2080</v>
+      </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
@@ -6533,27 +6594,27 @@
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:38">
+      <c r="AM78" s="4"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:39">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="D79" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="14">
+      <c r="E79" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="14">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="F79" s="14">
+      <c r="G79" s="14">
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="G79" s="15">
-        <v>0</v>
-      </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -6566,10 +6627,10 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-      <c r="U79" s="4">
+      <c r="U79" s="4"/>
+      <c r="V79" s="4">
         <v>1040</v>
       </c>
-      <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
@@ -6586,30 +6647,30 @@
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:38">
+      <c r="AM79" s="4"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:39">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="16"/>
-      <c r="C80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="14">
+      <c r="D80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="14">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="F80" s="14">
+      <c r="G80" s="14">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="G80" s="15">
-        <v>0</v>
-      </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -6621,17 +6682,17 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="18">
-        <v>2080</v>
-      </c>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4">
-        <v>1040</v>
-      </c>
+      <c r="T80" s="4"/>
+      <c r="U80" s="20">
+        <v>2080</v>
+      </c>
+      <c r="V80" s="4"/>
       <c r="W80" s="4">
         <v>1040</v>
       </c>
-      <c r="X80" s="4"/>
+      <c r="X80" s="4">
+        <v>1040</v>
+      </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
@@ -6646,52 +6707,52 @@
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:38">
+      <c r="AM80" s="4"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:39">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="16"/>
-      <c r="C81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="14">
+      <c r="D81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="14">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="F81" s="14">
+      <c r="G81" s="14">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="20">
-        <v>2080</v>
-      </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="20">
-        <v>2080</v>
-      </c>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="4"/>
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="23">
+        <v>2080</v>
+      </c>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="23">
+        <v>2080</v>
+      </c>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -6704,56 +6765,56 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:38">
+      <c r="AM81" s="4"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:39">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="16"/>
-      <c r="C82" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="14">
+      <c r="D82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="14">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="F82" s="14">
+      <c r="G82" s="14">
         <f t="shared" si="7"/>
         <v>26000</v>
       </c>
-      <c r="G82" s="15">
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
         <v>5200</v>
       </c>
-      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>5200</v>
       </c>
-      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
-      <c r="O82" s="4">
+      <c r="O82" s="4"/>
+      <c r="P82" s="4">
         <v>5200</v>
       </c>
-      <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="4">
+      <c r="S82" s="4"/>
+      <c r="T82" s="4">
         <v>5200</v>
       </c>
-      <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="4">
+      <c r="W82" s="4"/>
+      <c r="X82" s="4">
         <v>5200</v>
       </c>
-      <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
@@ -6768,27 +6829,27 @@
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:38">
+      <c r="AM82" s="4"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:39">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="16"/>
-      <c r="D83" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="14">
+      <c r="E83" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F83" s="14">
+      <c r="G83" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G83" s="15">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -6819,38 +6880,38 @@
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
       <c r="AL83" s="4"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:38">
+      <c r="AM83" s="4"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:39">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="16"/>
-      <c r="D84" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="14">
+      <c r="E84" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F84" s="14">
+      <c r="G84" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G84" s="15">
-        <v>0</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="4"/>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -6870,49 +6931,52 @@
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4"/>
       <c r="AL84" s="4"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:38">
+      <c r="AM84" s="4"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:39">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="16"/>
-      <c r="C85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="14">
+      <c r="C85" s="3">
+        <v>683909556</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F85" s="14">
+      <c r="G85" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="15">
-        <v>0</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="4"/>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -6924,43 +6988,43 @@
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4"/>
       <c r="AL85" s="4"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:38">
+      <c r="AM85" s="4"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:39">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="16"/>
-      <c r="D86" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="14">
+      <c r="E86" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F86" s="14">
+      <c r="G86" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G86" s="15">
-        <v>0</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="4"/>
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
@@ -6975,32 +7039,32 @@
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4"/>
       <c r="AL86" s="4"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:38">
+      <c r="AM86" s="4"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:39">
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="14">
+      <c r="E87" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="14">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="F87" s="14">
+      <c r="G87" s="14">
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="G87" s="15">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>1040</v>
       </c>
-      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -7027,26 +7091,26 @@
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4"/>
       <c r="AL87" s="4"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:38">
+      <c r="AM87" s="4"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:39">
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" s="14">
+      <c r="E88" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F88" s="14">
+      <c r="G88" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G88" s="15">
-        <v>0</v>
-      </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="15">
+        <v>0</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -7077,26 +7141,26 @@
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4"/>
       <c r="AL88" s="4"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:38">
+      <c r="AM88" s="4"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:39">
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" s="14">
+      <c r="E89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F89" s="14">
+      <c r="G89" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G89" s="15">
-        <v>0</v>
-      </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="15">
+        <v>0</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -7127,26 +7191,26 @@
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4"/>
       <c r="AL89" s="4"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:38">
+      <c r="AM89" s="4"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:39">
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="14">
+      <c r="E90" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F90" s="14">
+      <c r="G90" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G90" s="15">
-        <v>0</v>
-      </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7177,26 +7241,26 @@
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4"/>
       <c r="AL90" s="4"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:38">
+      <c r="AM90" s="4"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:39">
       <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F91" s="14">
+      <c r="G91" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G91" s="15">
-        <v>0</v>
-      </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="15">
+        <v>0</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -7227,26 +7291,29 @@
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4"/>
       <c r="AL91" s="4"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:38">
+      <c r="AM91" s="4"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:39">
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="14">
+      <c r="C92" s="3">
+        <v>683909558</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F92" s="14">
+      <c r="G92" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G92" s="15">
-        <v>0</v>
-      </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="15">
+        <v>0</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -7277,26 +7344,26 @@
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4"/>
       <c r="AL92" s="4"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:38">
+      <c r="AM92" s="4"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:39">
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E93" s="14">
+      <c r="E93" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F93" s="14">
+      <c r="G93" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G93" s="15">
-        <v>0</v>
-      </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -7327,26 +7394,26 @@
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4"/>
       <c r="AL93" s="4"/>
-    </row>
-    <row r="94" spans="1:38">
+      <c r="AM93" s="4"/>
+    </row>
+    <row r="94" spans="1:39">
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="14">
+      <c r="E94" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F94" s="14">
+      <c r="G94" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G94" s="15">
-        <v>0</v>
-      </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -7377,42 +7444,45 @@
       <c r="AJ94" s="4"/>
       <c r="AK94" s="4"/>
       <c r="AL94" s="4"/>
-    </row>
-    <row r="95" spans="1:38">
+      <c r="AM94" s="4"/>
+    </row>
+    <row r="95" spans="1:39">
       <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>77</v>
+      <c r="C95" s="3">
+        <v>685671039</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="14">
+        <v>79</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="14">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="F95" s="14">
+      <c r="G95" s="14">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="G95" s="5">
-        <v>0</v>
-      </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="5">
+        <v>0</v>
+      </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="18">
-        <v>2080</v>
-      </c>
-      <c r="M95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="20">
+        <v>2080</v>
+      </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="18">
-        <v>2080</v>
-      </c>
-      <c r="Q95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="20">
+        <v>2080</v>
+      </c>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
@@ -7434,9 +7504,9 @@
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
       <c r="AL95" s="4"/>
-    </row>
-    <row r="96" spans="8:38">
-      <c r="H96" s="4"/>
+      <c r="AM95" s="4"/>
+    </row>
+    <row r="96" spans="9:39">
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -7467,9 +7537,9 @@
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
       <c r="AL96" s="4"/>
-    </row>
-    <row r="97" spans="8:38">
-      <c r="H97" s="4"/>
+      <c r="AM96" s="4"/>
+    </row>
+    <row r="97" spans="9:39">
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -7500,9 +7570,9 @@
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4"/>
       <c r="AL97" s="4"/>
-    </row>
-    <row r="98" spans="8:38">
-      <c r="H98" s="4"/>
+      <c r="AM97" s="4"/>
+    </row>
+    <row r="98" spans="9:39">
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -7533,9 +7603,9 @@
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4"/>
       <c r="AL98" s="4"/>
-    </row>
-    <row r="99" spans="8:38">
-      <c r="H99" s="4"/>
+      <c r="AM98" s="4"/>
+    </row>
+    <row r="99" spans="9:39">
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -7566,9 +7636,9 @@
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4"/>
       <c r="AL99" s="4"/>
-    </row>
-    <row r="100" spans="8:38">
-      <c r="H100" s="4"/>
+      <c r="AM99" s="4"/>
+    </row>
+    <row r="100" spans="9:39">
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7599,9 +7669,9 @@
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4"/>
       <c r="AL100" s="4"/>
-    </row>
-    <row r="101" spans="8:38">
-      <c r="H101" s="4"/>
+      <c r="AM100" s="4"/>
+    </row>
+    <row r="101" spans="9:39">
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7632,9 +7702,9 @@
       <c r="AJ101" s="4"/>
       <c r="AK101" s="4"/>
       <c r="AL101" s="4"/>
-    </row>
-    <row r="102" spans="8:38">
-      <c r="H102" s="4"/>
+      <c r="AM101" s="4"/>
+    </row>
+    <row r="102" spans="9:39">
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7665,9 +7735,9 @@
       <c r="AJ102" s="4"/>
       <c r="AK102" s="4"/>
       <c r="AL102" s="4"/>
-    </row>
-    <row r="103" spans="8:38">
-      <c r="H103" s="4"/>
+      <c r="AM102" s="4"/>
+    </row>
+    <row r="103" spans="9:39">
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7698,9 +7768,9 @@
       <c r="AJ103" s="4"/>
       <c r="AK103" s="4"/>
       <c r="AL103" s="4"/>
-    </row>
-    <row r="104" spans="8:38">
-      <c r="H104" s="4"/>
+      <c r="AM103" s="4"/>
+    </row>
+    <row r="104" spans="9:39">
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7731,9 +7801,9 @@
       <c r="AJ104" s="4"/>
       <c r="AK104" s="4"/>
       <c r="AL104" s="4"/>
-    </row>
-    <row r="105" spans="8:38">
-      <c r="H105" s="4"/>
+      <c r="AM104" s="4"/>
+    </row>
+    <row r="105" spans="9:39">
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -7764,9 +7834,9 @@
       <c r="AJ105" s="4"/>
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
-    </row>
-    <row r="106" spans="8:38">
-      <c r="H106" s="4"/>
+      <c r="AM105" s="4"/>
+    </row>
+    <row r="106" spans="9:39">
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7797,9 +7867,9 @@
       <c r="AJ106" s="4"/>
       <c r="AK106" s="4"/>
       <c r="AL106" s="4"/>
-    </row>
-    <row r="107" spans="8:38">
-      <c r="H107" s="4"/>
+      <c r="AM106" s="4"/>
+    </row>
+    <row r="107" spans="9:39">
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -7830,9 +7900,9 @@
       <c r="AJ107" s="4"/>
       <c r="AK107" s="4"/>
       <c r="AL107" s="4"/>
-    </row>
-    <row r="108" spans="8:38">
-      <c r="H108" s="4"/>
+      <c r="AM107" s="4"/>
+    </row>
+    <row r="108" spans="9:39">
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -7863,6 +7933,7 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
       <c r="AL108" s="4"/>
+      <c r="AM108" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -22,6 +22,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="Z4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U5" authorId="0">
       <text>
         <r>
@@ -69,6 +92,29 @@
       </text>
     </comment>
     <comment ref="P7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,6 +228,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M72" authorId="0">
       <text>
         <r>
@@ -637,9 +706,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -653,105 +722,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,7 +744,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +843,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,60 +933,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -930,7 +945,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +993,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,25 +1065,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,67 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,6 +1124,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1076,82 +1219,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,13 +1229,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,134 +1247,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,9 +1421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,14 +1435,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1722,11 +1788,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="R72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="X33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1766,127 +1832,127 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <v>43831</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <v>43832</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>43833</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>43834</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>43835</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>43836</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="18">
         <v>43837</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="18">
         <v>43838</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="18">
         <v>43839</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="18">
         <v>43840</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="18">
         <v>43841</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="18">
         <v>43842</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="18">
         <v>43843</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="18">
         <v>43844</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="18">
         <v>43845</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="18">
         <v>43846</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="18">
         <v>43847</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="18">
         <v>43848</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="18">
         <v>43849</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="18">
         <v>43850</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="18">
         <v>43851</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="18">
         <v>43852</v>
       </c>
-      <c r="AE1" s="19">
+      <c r="AE1" s="18">
         <v>43853</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="18">
         <v>43854</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="18">
         <v>43855</v>
       </c>
-      <c r="AH1" s="19">
+      <c r="AH1" s="18">
         <v>43856</v>
       </c>
-      <c r="AI1" s="19">
+      <c r="AI1" s="18">
         <v>43857</v>
       </c>
-      <c r="AJ1" s="19">
+      <c r="AJ1" s="18">
         <v>43858</v>
       </c>
-      <c r="AK1" s="19">
+      <c r="AK1" s="18">
         <v>43859</v>
       </c>
-      <c r="AL1" s="19">
+      <c r="AL1" s="18">
         <v>43860</v>
       </c>
-      <c r="AM1" s="19">
+      <c r="AM1" s="18">
         <v>43861</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:39">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>848500</v>
+        <v>973500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>758680</v>
+        <v>888680</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>848500</v>
+        <v>973500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>758680</v>
+        <v>888680</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -1958,15 +2024,15 @@
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="1"/>
-        <v>13520</v>
+        <v>58240</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
@@ -2027,15 +2093,15 @@
       <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="2">G3/1.04+H3</f>
-        <v>6000</v>
-      </c>
-      <c r="G3" s="14">
+        <v>9000</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>3120</v>
-      </c>
-      <c r="H3" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H3" s="14">
         <v>3000</v>
       </c>
       <c r="I3" s="4"/>
@@ -2056,7 +2122,9 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="Y3" s="19">
+        <v>3120</v>
+      </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
@@ -2082,15 +2150,15 @@
       <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="G4" s="14">
+        <v>3500</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>1560</v>
-      </c>
-      <c r="H4" s="15">
+        <v>3640</v>
+      </c>
+      <c r="H4" s="14">
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
@@ -2103,7 +2171,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="20">
+      <c r="S4" s="19">
         <v>1560</v>
       </c>
       <c r="T4" s="4"/>
@@ -2112,7 +2180,9 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="4">
+        <v>2080</v>
+      </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -2140,15 +2210,15 @@
       <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="G5" s="14">
+        <v>9000</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>8320</v>
-      </c>
-      <c r="H5" s="15">
+        <v>9360</v>
+      </c>
+      <c r="H5" s="14">
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -2182,7 +2252,9 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -2210,15 +2282,15 @@
       <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>13000</v>
-      </c>
-      <c r="G6" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-      <c r="H6" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H6" s="14">
         <v>3000</v>
       </c>
       <c r="I6" s="4"/>
@@ -2241,7 +2313,9 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="4">
+        <v>5200</v>
+      </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -2270,15 +2344,15 @@
       <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>42000</v>
-      </c>
-      <c r="G7" s="14">
+        <v>48000</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>33280</v>
-      </c>
-      <c r="H7" s="15">
+        <v>39520</v>
+      </c>
+      <c r="H7" s="14">
         <v>10000</v>
       </c>
       <c r="I7" s="4">
@@ -2325,8 +2399,12 @@
       <c r="X7" s="4">
         <v>2080</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Y7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>4160</v>
+      </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -2354,15 +2432,15 @@
       <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
@@ -2411,15 +2489,15 @@
       <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G9" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
-      </c>
-      <c r="H9" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
@@ -2444,7 +2522,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2471,15 +2551,15 @@
       <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="G10" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="H10" s="15">
+        <v>20800</v>
+      </c>
+      <c r="H10" s="14">
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
@@ -2505,7 +2585,9 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -2530,15 +2612,15 @@
       <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="G11" s="14">
+        <v>12000</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
-      </c>
-      <c r="H11" s="15">
+        <v>10400</v>
+      </c>
+      <c r="H11" s="14">
         <v>2000</v>
       </c>
       <c r="I11" s="4"/>
@@ -2563,9 +2645,13 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2589,15 +2675,15 @@
       <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="G12" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>5200</v>
-      </c>
-      <c r="H12" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H12" s="14">
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
@@ -2627,7 +2713,9 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2651,15 +2739,15 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="G13" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="H13" s="15">
+        <v>20800</v>
+      </c>
+      <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
@@ -2684,7 +2772,9 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="4">
+        <v>5200</v>
+      </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -2710,15 +2800,15 @@
       <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
-      </c>
-      <c r="G14" s="14">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>31200</v>
-      </c>
-      <c r="H14" s="15">
+        <v>36400</v>
+      </c>
+      <c r="H14" s="14">
         <v>5000</v>
       </c>
       <c r="I14" s="4"/>
@@ -2750,7 +2840,9 @@
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2778,15 +2870,15 @@
       <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G15" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
-      </c>
-      <c r="H15" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H15" s="14">
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
@@ -2809,7 +2901,9 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
@@ -2835,20 +2929,20 @@
       <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>500</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>1040</v>
       </c>
       <c r="L16" s="4"/>
@@ -2892,15 +2986,15 @@
       <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="G17" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
-        <v>12480</v>
-      </c>
-      <c r="H17" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H17" s="14">
         <v>0</v>
       </c>
       <c r="I17" s="4">
@@ -2928,7 +3022,9 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="Z17" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2953,15 +3049,15 @@
       <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="G18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="H18" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H18" s="14">
         <v>5000</v>
       </c>
       <c r="I18" s="4"/>
@@ -2985,7 +3081,9 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -3010,15 +3108,15 @@
       <c r="E19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G19" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
-      </c>
-      <c r="H19" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H19" s="14">
         <v>0</v>
       </c>
       <c r="I19" s="4"/>
@@ -3043,7 +3141,9 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
+      <c r="AA19" s="19">
+        <v>2080</v>
+      </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3067,15 +3167,15 @@
       <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G20" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
-      </c>
-      <c r="H20" s="15">
+        <v>5200</v>
+      </c>
+      <c r="H20" s="14">
         <v>0</v>
       </c>
       <c r="I20" s="4">
@@ -3099,7 +3199,9 @@
         <v>1040</v>
       </c>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="Z20" s="4">
+        <v>1040</v>
+      </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -3124,15 +3226,15 @@
       <c r="E21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>15600</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>5000</v>
       </c>
       <c r="I21" s="4"/>
@@ -3183,15 +3285,15 @@
       <c r="E22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="G22" s="14">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
-      </c>
-      <c r="H22" s="15">
+        <v>7280</v>
+      </c>
+      <c r="H22" s="14">
         <v>0</v>
       </c>
       <c r="I22" s="4">
@@ -3220,9 +3322,13 @@
       <c r="X22" s="4">
         <v>1040</v>
       </c>
-      <c r="Y22" s="4"/>
+      <c r="Y22" s="4">
+        <v>1040</v>
+      </c>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="AA22" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3246,15 +3352,15 @@
       <c r="E23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
         <v>12480</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
@@ -3307,15 +3413,15 @@
       <c r="E24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="G24" s="14">
+        <v>25000</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
-      </c>
-      <c r="H24" s="15">
+        <v>20800</v>
+      </c>
+      <c r="H24" s="14">
         <v>5000</v>
       </c>
       <c r="I24" s="4"/>
@@ -3342,7 +3448,9 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
+      <c r="AA24" s="4">
+        <v>5200</v>
+      </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3366,15 +3474,15 @@
       <c r="E25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>18000</v>
-      </c>
-      <c r="G25" s="14">
+        <v>21000</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
-      </c>
-      <c r="H25" s="15">
+        <v>18720</v>
+      </c>
+      <c r="H25" s="14">
         <v>3000</v>
       </c>
       <c r="I25" s="4"/>
@@ -3404,7 +3512,9 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
+      <c r="Z25" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -3429,15 +3539,15 @@
       <c r="E26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="1">
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>500</v>
       </c>
       <c r="I26" s="4">
@@ -3490,15 +3600,15 @@
       <c r="E27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="1">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>0</v>
       </c>
       <c r="I27" s="4">
@@ -3547,15 +3657,15 @@
       <c r="E28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="1">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
@@ -3604,15 +3714,15 @@
       <c r="E29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="G29" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="H29" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H29" s="14">
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
@@ -3637,7 +3747,9 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
+      <c r="AA29" s="4">
+        <v>5200</v>
+      </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3661,15 +3773,15 @@
       <c r="E30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
-      </c>
-      <c r="G30" s="14">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>31200</v>
-      </c>
-      <c r="H30" s="15">
+        <v>36400</v>
+      </c>
+      <c r="H30" s="14">
         <v>5000</v>
       </c>
       <c r="I30" s="4">
@@ -3700,7 +3812,9 @@
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="Y30" s="4">
+        <v>5200</v>
+      </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -3726,15 +3840,15 @@
       <c r="E31" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="1">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="1">
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>0</v>
       </c>
       <c r="I31" s="4"/>
@@ -3785,15 +3899,15 @@
       <c r="E32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="1">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="1">
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>1000</v>
       </c>
       <c r="I32" s="4"/>
@@ -3841,15 +3955,15 @@
       <c r="E33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="1">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="1">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>0</v>
       </c>
       <c r="I33" s="4"/>
@@ -3902,15 +4016,15 @@
       <c r="E34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="G34" s="14">
+        <v>7000</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
-      </c>
-      <c r="H34" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H34" s="14">
         <v>1000</v>
       </c>
       <c r="I34" s="4"/>
@@ -3933,7 +4047,9 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="Y34" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
@@ -3959,15 +4075,15 @@
       <c r="E35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="1">
         <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
         <v>18000</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="1">
         <f t="shared" si="3"/>
         <v>18720</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>0</v>
       </c>
       <c r="I35" s="4"/>
@@ -4024,15 +4140,15 @@
       <c r="E36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="1">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="1">
         <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
         <v>2080</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="4"/>
@@ -4081,22 +4197,22 @@
       <c r="E37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="G37" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>9360</v>
-      </c>
-      <c r="H37" s="15">
+        <v>12480</v>
+      </c>
+      <c r="H37" s="14">
         <v>3000</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>3120</v>
       </c>
       <c r="N37" s="4"/>
@@ -4115,7 +4231,9 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="Z37" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -4143,15 +4261,15 @@
       <c r="E38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="1">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="1">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
@@ -4167,7 +4285,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="20">
+      <c r="V38" s="19">
         <v>2080</v>
       </c>
       <c r="W38" s="4"/>
@@ -4198,15 +4316,15 @@
       <c r="E39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="G39" s="14">
+        <v>12000</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="5"/>
-        <v>10400</v>
-      </c>
-      <c r="H39" s="15">
+        <v>12480</v>
+      </c>
+      <c r="H39" s="14">
         <v>0</v>
       </c>
       <c r="I39" s="4"/>
@@ -4235,7 +4353,9 @@
       <c r="X39" s="4">
         <v>2080</v>
       </c>
-      <c r="Y39" s="4"/>
+      <c r="Y39" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
@@ -4261,15 +4381,15 @@
       <c r="E40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="1">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="1">
         <f>SUM(J40:AM40)</f>
         <v>6240</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="J40" s="4">
@@ -4319,15 +4439,15 @@
       <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
-      </c>
-      <c r="G41" s="14">
+        <v>27000</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H41" s="15">
+        <v>24960</v>
+      </c>
+      <c r="H41" s="14">
         <v>3000</v>
       </c>
       <c r="I41" s="4">
@@ -4362,7 +4482,9 @@
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
+      <c r="AA41" s="4">
+        <v>3120</v>
+      </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4386,15 +4508,15 @@
       <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="G42" s="14">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H42" s="15">
+        <v>4160</v>
+      </c>
+      <c r="H42" s="14">
         <v>0</v>
       </c>
       <c r="I42" s="4">
@@ -4417,7 +4539,9 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
+      <c r="AA42" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4441,15 +4565,15 @@
       <c r="E43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>0</v>
       </c>
       <c r="I43" s="4"/>
@@ -4494,15 +4618,15 @@
       <c r="E44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G44" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H44" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H44" s="14">
         <v>3000</v>
       </c>
       <c r="I44" s="4"/>
@@ -4529,7 +4653,9 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
+      <c r="Y44" s="4">
+        <v>3120</v>
+      </c>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
@@ -4555,15 +4681,15 @@
       <c r="E45" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="1">
         <f t="shared" si="4"/>
         <v>18000</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="1">
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>3000</v>
       </c>
       <c r="I45" s="4"/>
@@ -4618,15 +4744,15 @@
       <c r="E46" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="1">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="1">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>0</v>
       </c>
       <c r="I46" s="4"/>
@@ -4679,15 +4805,15 @@
       <c r="E47" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="1">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="1">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
@@ -4736,15 +4862,15 @@
       <c r="E48" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="1">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="1">
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>3000</v>
       </c>
       <c r="I48" s="4">
@@ -4797,15 +4923,15 @@
       <c r="E49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G49" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H49" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H49" s="14">
         <v>3000</v>
       </c>
       <c r="I49" s="4"/>
@@ -4833,7 +4959,9 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+      <c r="Z49" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -4858,15 +4986,15 @@
       <c r="E50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="1">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="1">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>2000</v>
       </c>
       <c r="I50" s="4"/>
@@ -4915,15 +5043,15 @@
       <c r="E51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="1">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="1">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
@@ -4970,15 +5098,15 @@
       <c r="E52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G52" s="14">
+        <v>16000</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H52" s="15">
+        <v>13520</v>
+      </c>
+      <c r="H52" s="14">
         <v>3000</v>
       </c>
       <c r="I52" s="4">
@@ -5019,7 +5147,9 @@
         <v>1040</v>
       </c>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
+      <c r="AA52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -5037,22 +5167,22 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="D53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
-      </c>
-      <c r="G53" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>7280</v>
-      </c>
-      <c r="H53" s="15">
+        <v>9360</v>
+      </c>
+      <c r="H53" s="14">
         <v>1000</v>
       </c>
       <c r="I53" s="4"/>
@@ -5086,8 +5216,12 @@
         <v>1040</v>
       </c>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
+      <c r="Z53" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5111,15 +5245,15 @@
       <c r="E54" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="G54" s="14">
+        <v>8000</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="H54" s="15">
+        <v>6240</v>
+      </c>
+      <c r="H54" s="14">
         <v>2000</v>
       </c>
       <c r="I54" s="4"/>
@@ -5142,7 +5276,9 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
+      <c r="Y54" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
@@ -5168,15 +5304,15 @@
       <c r="E55" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="G55" s="14">
+        <v>25000</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="5"/>
-        <v>20800</v>
-      </c>
-      <c r="H55" s="15">
+        <v>26000</v>
+      </c>
+      <c r="H55" s="14">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
@@ -5204,7 +5340,9 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
+      <c r="Z55" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -5229,15 +5367,15 @@
       <c r="E56" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="1">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="1">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>0</v>
       </c>
       <c r="I56" s="4"/>
@@ -5280,22 +5418,22 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
       <c r="D57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-      <c r="G57" s="14">
+        <v>30000</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="5"/>
-        <v>20800</v>
-      </c>
-      <c r="H57" s="15">
+        <v>26000</v>
+      </c>
+      <c r="H57" s="14">
         <v>5000</v>
       </c>
       <c r="I57" s="4"/>
@@ -5323,7 +5461,9 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
+      <c r="Z57" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -5342,7 +5482,7 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -5351,21 +5491,21 @@
       <c r="E58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="1">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="1">
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>0</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>5200</v>
       </c>
       <c r="M58" s="4"/>
@@ -5402,22 +5542,22 @@
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
       <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>13000</v>
-      </c>
-      <c r="G59" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H59" s="15">
+        <v>14560</v>
+      </c>
+      <c r="H59" s="14">
         <v>1000</v>
       </c>
       <c r="I59" s="4">
@@ -5450,7 +5590,9 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
+      <c r="AA59" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5468,22 +5610,22 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
       <c r="D60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="1">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="1">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="14">
         <v>2000</v>
       </c>
       <c r="I60" s="4"/>
@@ -5532,15 +5674,15 @@
       <c r="E61" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
-      </c>
-      <c r="G61" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="5"/>
-        <v>8320</v>
-      </c>
-      <c r="H61" s="15">
+        <v>10400</v>
+      </c>
+      <c r="H61" s="14">
         <v>0</v>
       </c>
       <c r="I61" s="4"/>
@@ -5566,7 +5708,9 @@
         <v>2080</v>
       </c>
       <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
+      <c r="Y61" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
@@ -5592,15 +5736,15 @@
       <c r="E62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="1">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="1">
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="4"/>
@@ -5653,15 +5797,15 @@
       <c r="E63" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="1">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="1">
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="4"/>
@@ -5710,15 +5854,15 @@
       <c r="E64" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="1">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="1">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="14">
         <v>0</v>
       </c>
       <c r="I64" s="4"/>
@@ -5767,15 +5911,15 @@
       <c r="E65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="G65" s="14">
+        <v>35000</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="5"/>
-        <v>31200</v>
-      </c>
-      <c r="H65" s="15">
+        <v>36400</v>
+      </c>
+      <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="4">
@@ -5806,7 +5950,9 @@
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
+      <c r="Y65" s="4">
+        <v>5200</v>
+      </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
@@ -5832,15 +5978,15 @@
       <c r="E66" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G66" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G66" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H66" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H66" s="14">
         <v>3000</v>
       </c>
       <c r="I66" s="4"/>
@@ -5867,7 +6013,9 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
+      <c r="Z66" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -5886,22 +6034,22 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
       <c r="D67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="1">
         <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
         <v>12000</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="1">
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>2000</v>
       </c>
       <c r="I67" s="4">
@@ -5950,22 +6098,22 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
       <c r="D68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="1">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="1">
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>500</v>
       </c>
       <c r="I68" s="4"/>
@@ -6012,15 +6160,15 @@
       <c r="E69" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>11500</v>
-      </c>
-      <c r="G69" s="14">
+        <v>12500</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="5"/>
-        <v>10400</v>
-      </c>
-      <c r="H69" s="15">
+        <v>11440</v>
+      </c>
+      <c r="H69" s="14">
         <v>1500</v>
       </c>
       <c r="I69" s="4">
@@ -6050,7 +6198,7 @@
       </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="4">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -6077,15 +6225,15 @@
       <c r="E70" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="1">
         <f t="shared" si="6"/>
-        <v>18000</v>
-      </c>
-      <c r="G70" s="14">
+        <v>21000</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H70" s="15">
+        <v>21840</v>
+      </c>
+      <c r="H70" s="14">
         <v>0</v>
       </c>
       <c r="I70" s="4"/>
@@ -6118,7 +6266,9 @@
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
+      <c r="AA70" s="4">
+        <v>3120</v>
+      </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6142,15 +6292,15 @@
       <c r="E71" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="1">
         <f t="shared" si="6"/>
-        <v>16000</v>
-      </c>
-      <c r="G71" s="14">
+        <v>18000</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
-      </c>
-      <c r="H71" s="15">
+        <v>16640</v>
+      </c>
+      <c r="H71" s="14">
         <v>2000</v>
       </c>
       <c r="I71" s="4"/>
@@ -6185,7 +6335,9 @@
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
+      <c r="AA71" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6203,52 +6355,52 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="E72" s="17" t="s">
+      <c r="B72" s="15"/>
+      <c r="E72" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="1">
         <f t="shared" si="6"/>
         <v>43000</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="1">
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="14">
         <v>27000</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="M72" s="24">
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="M72" s="23">
         <v>4160</v>
       </c>
-      <c r="N72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="R72" s="23"/>
-      <c r="S72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="T72" s="23">
+      <c r="N72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="T72" s="22">
         <v>2080</v>
       </c>
       <c r="U72" s="4">
         <v>2080</v>
       </c>
-      <c r="V72" s="25"/>
-      <c r="W72" s="25"/>
-      <c r="X72" s="25"/>
-      <c r="Y72" s="25"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -6268,22 +6420,22 @@
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
       <c r="D73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="1">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="1">
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <v>0</v>
       </c>
       <c r="I73" s="4"/>
@@ -6292,7 +6444,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="20">
+      <c r="O73" s="19">
         <v>3120</v>
       </c>
       <c r="P73" s="4"/>
@@ -6324,19 +6476,19 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="E74" s="17" t="s">
+      <c r="B74" s="15"/>
+      <c r="E74" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="1">
         <f t="shared" ref="G69:G95" si="7">SUM(I74:AM74)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="14">
         <v>0</v>
       </c>
       <c r="I74" s="4"/>
@@ -6375,29 +6527,29 @@
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
       <c r="D75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="1">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="1">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="14">
         <v>0</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>1040</v>
       </c>
       <c r="N75" s="4">
@@ -6435,33 +6587,33 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="E76" s="17" t="s">
+      <c r="B76" s="15"/>
+      <c r="E76" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
+      <c r="H76" s="14">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -6486,22 +6638,22 @@
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="3">
         <v>683879115</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="1">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="1">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="14">
         <v>0</v>
       </c>
       <c r="I77" s="4"/>
@@ -6544,22 +6696,22 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
       <c r="D78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="1">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="1">
         <f t="shared" si="7"/>
         <v>2080</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="14">
         <v>0</v>
       </c>
       <c r="I78" s="4"/>
@@ -6569,7 +6721,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="20">
+      <c r="P78" s="19">
         <v>2080</v>
       </c>
       <c r="Q78" s="4"/>
@@ -6600,19 +6752,19 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="E79" s="17" t="s">
+      <c r="B79" s="15"/>
+      <c r="E79" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="1">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="1">
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="14">
         <v>0</v>
       </c>
       <c r="I79" s="4"/>
@@ -6653,22 +6805,22 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
       <c r="D80" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="1">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="1">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="14">
         <v>0</v>
       </c>
       <c r="I80" s="4"/>
@@ -6683,7 +6835,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-      <c r="U80" s="20">
+      <c r="U80" s="19">
         <v>2080</v>
       </c>
       <c r="V80" s="4"/>
@@ -6713,46 +6865,46 @@
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
       <c r="D81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="1">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="1">
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="23">
-        <v>2080</v>
-      </c>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="25"/>
-      <c r="V81" s="25"/>
-      <c r="W81" s="23">
-        <v>2080</v>
-      </c>
-      <c r="X81" s="25"/>
-      <c r="Y81" s="25"/>
-      <c r="Z81" s="25"/>
+      <c r="H81" s="14">
+        <v>0</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="22">
+        <v>2080</v>
+      </c>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="22">
+        <v>2080</v>
+      </c>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -6771,22 +6923,22 @@
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
       <c r="D82" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="1">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="1">
         <f t="shared" si="7"/>
         <v>26000</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="14">
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -6835,19 +6987,19 @@
       <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="E83" s="17" t="s">
+      <c r="B83" s="15"/>
+      <c r="E83" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="14">
         <v>0</v>
       </c>
       <c r="I83" s="4"/>
@@ -6886,32 +7038,32 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="E84" s="17" t="s">
+      <c r="B84" s="15"/>
+      <c r="E84" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -6937,46 +7089,46 @@
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="3">
         <v>683909556</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="25"/>
-      <c r="V85" s="25"/>
-      <c r="W85" s="25"/>
-      <c r="X85" s="25"/>
-      <c r="Y85" s="25"/>
-      <c r="Z85" s="25"/>
-      <c r="AA85" s="25"/>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="24"/>
+      <c r="U85" s="24"/>
+      <c r="V85" s="24"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="24"/>
+      <c r="AA85" s="24"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -6994,37 +7146,37 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="E86" s="17" t="s">
+      <c r="B86" s="15"/>
+      <c r="E86" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="25"/>
-      <c r="V86" s="25"/>
-      <c r="W86" s="25"/>
-      <c r="X86" s="25"/>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
@@ -7048,15 +7200,15 @@
       <c r="E87" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="1">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="1">
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="14">
         <v>0</v>
       </c>
       <c r="I87" s="4"/>
@@ -7100,15 +7252,15 @@
       <c r="E88" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>0</v>
       </c>
       <c r="I88" s="4"/>
@@ -7150,15 +7302,15 @@
       <c r="E89" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="14">
         <v>0</v>
       </c>
       <c r="I89" s="4"/>
@@ -7200,15 +7352,15 @@
       <c r="E90" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="15">
+        <v>1040</v>
+      </c>
+      <c r="H90" s="14">
         <v>0</v>
       </c>
       <c r="I90" s="4"/>
@@ -7229,7 +7381,9 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
+      <c r="AA90" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
@@ -7250,15 +7404,15 @@
       <c r="E91" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="14">
         <v>0</v>
       </c>
       <c r="I91" s="4"/>
@@ -7303,15 +7457,15 @@
       <c r="E92" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="14">
         <v>0</v>
       </c>
       <c r="I92" s="4"/>
@@ -7353,15 +7507,15 @@
       <c r="E93" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="14">
         <v>0</v>
       </c>
       <c r="I93" s="4"/>
@@ -7400,18 +7554,18 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="14">
         <v>0</v>
       </c>
       <c r="I94" s="4"/>
@@ -7459,13 +7613,13 @@
       <c r="E95" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
-      </c>
-      <c r="G95" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H95" s="5">
         <v>0</v>
@@ -7474,13 +7628,13 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="20">
+      <c r="M95" s="19">
         <v>2080</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="20">
+      <c r="Q95" s="19">
         <v>2080</v>
       </c>
       <c r="R95" s="4"/>
@@ -7490,7 +7644,9 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
+      <c r="Y95" s="19">
+        <v>1040</v>
+      </c>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -704,10 +704,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -729,6 +729,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -736,15 +758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,9 +774,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,35 +809,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,17 +827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,22 +851,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,12 +871,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -933,37 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,31 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +981,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,13 +1023,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,13 +1083,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,37 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,6 +1124,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1158,50 +1185,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1218,9 +1201,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,13 +1229,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,130 +1247,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,11 +1788,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="X33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1936,23 +1936,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>973500</v>
+        <v>1043500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>888680</v>
+        <v>961480</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>973500</v>
+        <v>1043500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>888680</v>
+        <v>961480</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32240</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="1"/>
@@ -2095,11 +2095,11 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="2">G3/1.04+H3</f>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H3" s="14">
         <v>3000</v>
@@ -2128,7 +2128,9 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AC3" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -2553,11 +2555,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -2589,7 +2591,9 @@
         <v>5200</v>
       </c>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="4">
+        <v>5200</v>
+      </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -2802,11 +2806,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H14" s="14">
         <v>5000</v>
@@ -2845,7 +2849,9 @@
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="AC14" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -3110,11 +3116,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -3144,7 +3150,9 @@
       <c r="AA19" s="19">
         <v>2080</v>
       </c>
-      <c r="AB19" s="4"/>
+      <c r="AB19" s="19">
+        <v>2080</v>
+      </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
@@ -3287,11 +3295,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H22" s="14">
         <v>0</v>
@@ -3330,7 +3338,9 @@
         <v>1040</v>
       </c>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="4">
+        <v>1040</v>
+      </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -3541,11 +3551,11 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="14">
         <v>500</v>
@@ -3577,7 +3587,9 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
+      <c r="AB26" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H28" s="14">
         <v>0</v>
@@ -3692,7 +3704,9 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -3842,11 +3856,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H31" s="14">
         <v>0</v>
@@ -3876,7 +3890,9 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="AB31" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
@@ -4077,11 +4093,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -4117,7 +4133,9 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
+      <c r="AB35" s="4">
+        <v>3120</v>
+      </c>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H37" s="14">
         <v>3000</v>
@@ -4236,7 +4254,9 @@
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AC37" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
@@ -4318,11 +4338,11 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H39" s="14">
         <v>0</v>
@@ -4358,7 +4378,9 @@
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
+      <c r="AB39" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
@@ -4620,11 +4642,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H44" s="14">
         <v>3000</v>
@@ -4659,7 +4681,9 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
+      <c r="AC44" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -4864,11 +4888,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4901,7 +4925,9 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
+      <c r="AC48" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
@@ -4925,11 +4951,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
@@ -4963,7 +4989,9 @@
         <v>3120</v>
       </c>
       <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
+      <c r="AB49" s="4">
+        <v>3120</v>
+      </c>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
@@ -5100,11 +5128,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>13520</v>
+        <v>14560</v>
       </c>
       <c r="H52" s="14">
         <v>3000</v>
@@ -5151,7 +5179,9 @@
         <v>1040</v>
       </c>
       <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
+      <c r="AC52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
@@ -5176,11 +5206,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5222,8 +5252,12 @@
       <c r="AA53" s="4">
         <v>1040</v>
       </c>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
+      <c r="AB53" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>1040</v>
+      </c>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
@@ -5369,11 +5403,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
@@ -5401,7 +5435,9 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
+      <c r="AB56" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
@@ -5427,11 +5463,11 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="5"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H57" s="14">
         <v>5000</v>
@@ -5466,7 +5502,9 @@
       </c>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
+      <c r="AC57" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
@@ -5551,11 +5589,11 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H59" s="14">
         <v>1000</v>
@@ -5594,7 +5632,9 @@
         <v>2080</v>
       </c>
       <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
+      <c r="AC59" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
@@ -5738,11 +5778,11 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
@@ -5774,7 +5814,9 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
+      <c r="AB62" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
@@ -5980,11 +6022,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H66" s="14">
         <v>3000</v>
@@ -6017,7 +6059,9 @@
         <v>3120</v>
       </c>
       <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
+      <c r="AB66" s="4">
+        <v>3120</v>
+      </c>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
@@ -6043,11 +6087,11 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H67" s="14">
         <v>2000</v>
@@ -6082,7 +6126,9 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
+      <c r="AC67" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
@@ -6294,11 +6340,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="6"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>18720</v>
       </c>
       <c r="H71" s="14">
         <v>2000</v>
@@ -6338,7 +6384,9 @@
       <c r="AA71" s="4">
         <v>2080</v>
       </c>
-      <c r="AB71" s="4"/>
+      <c r="AB71" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
@@ -6361,11 +6409,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="6"/>
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>18720</v>
       </c>
       <c r="H72" s="14">
         <v>27000</v>
@@ -6403,7 +6451,9 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
+      <c r="AB72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
@@ -6758,11 +6808,11 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="7"/>
-        <v>1040</v>
+        <v>4160</v>
       </c>
       <c r="H79" s="14">
         <v>0</v>
@@ -6788,7 +6838,9 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
+      <c r="AB79" s="4">
+        <v>3120</v>
+      </c>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
@@ -6814,11 +6866,11 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -6848,7 +6900,9 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
+      <c r="AB80" s="4">
+        <v>1040</v>
+      </c>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
@@ -6874,11 +6928,11 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -6906,7 +6960,9 @@
       <c r="Y81" s="24"/>
       <c r="Z81" s="24"/>
       <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
+      <c r="AB81" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
@@ -7615,11 +7671,11 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="7"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H95" s="5">
         <v>0</v>
@@ -7649,7 +7705,9 @@
       </c>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
+      <c r="AB95" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE7" authorId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,8 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-2080+2080</t>
+4160-Auto
+2080-Auto</t>
         </r>
       </text>
     </comment>
@@ -202,6 +203,29 @@
           <t xml:space="preserve">
 1040- Auto
 2080- Manual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
         </r>
       </text>
     </comment>
@@ -274,29 +298,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE72" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Vijay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-3120- Manual
-1040-Auto</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AG72" authorId="0">
       <text>
         <r>
@@ -325,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
   <si>
     <t>S.No.</t>
   </si>
@@ -704,9 +705,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -727,19 +728,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,15 +742,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +760,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,10 +782,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,24 +813,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,16 +835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,12 +872,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -933,43 +934,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,18 +1006,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1035,7 +1018,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,25 +1078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,43 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,33 +1125,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1184,6 +1158,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1195,6 +1178,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,13 +1230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,130 +1248,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,11 +1789,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AB82" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1936,23 +1937,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1043500</v>
+        <v>1143500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>961480</v>
+        <v>1065480</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1043500</v>
+        <v>1143500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>961480</v>
+        <v>1065480</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2040,15 +2041,15 @@
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="1"/>
-        <v>32240</v>
+        <v>66560</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58240</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="1"/>
@@ -2154,11 +2155,11 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>3640</v>
+        <v>4680</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -2188,7 +2189,9 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="4">
+        <v>1040</v>
+      </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -2214,11 +2217,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>10400</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -2259,7 +2262,9 @@
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="AC5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -2348,11 +2353,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>57000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>39520</v>
+        <v>48880</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2409,8 +2414,12 @@
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="AC7" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>6240</v>
+      </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -2436,11 +2445,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
@@ -2470,7 +2479,9 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -2745,11 +2756,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -2783,7 +2794,9 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="4">
+        <v>5200</v>
+      </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -2878,11 +2891,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -2913,7 +2926,9 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="AC15" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -2994,11 +3009,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H17" s="14">
         <v>0</v>
@@ -3034,7 +3049,9 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
+      <c r="AD17" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -3116,11 +3133,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -3154,7 +3171,9 @@
         <v>2080</v>
       </c>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -3364,11 +3383,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -3403,7 +3422,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
+      <c r="AE23" s="4">
+        <v>3120</v>
+      </c>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
@@ -3486,11 +3507,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H25" s="14">
         <v>3000</v>
@@ -3527,7 +3548,9 @@
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="AC25" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -3614,11 +3637,11 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H27" s="14">
         <v>0</v>
@@ -3647,7 +3670,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
+      <c r="AC27" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -3789,11 +3814,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H30" s="14">
         <v>5000</v>
@@ -3833,7 +3858,9 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
+      <c r="AD30" s="4">
+        <v>5200</v>
+      </c>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
@@ -4093,11 +4120,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -4137,7 +4164,9 @@
         <v>3120</v>
       </c>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
+      <c r="AD35" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
@@ -4405,11 +4434,11 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G40" s="1">
         <f>SUM(J40:AM40)</f>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H40" s="14">
         <v>0</v>
@@ -4441,7 +4470,9 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
+      <c r="AE40" s="4">
+        <v>2080</v>
+      </c>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
@@ -4463,11 +4494,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H41" s="14">
         <v>3000</v>
@@ -4509,7 +4540,9 @@
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
+      <c r="AD41" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
@@ -4770,11 +4803,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4807,7 +4840,9 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
+      <c r="AC46" s="4">
+        <v>3120</v>
+      </c>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
@@ -4888,11 +4923,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4928,7 +4963,9 @@
       <c r="AC48" s="4">
         <v>3120</v>
       </c>
-      <c r="AD48" s="4"/>
+      <c r="AD48" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
@@ -5128,11 +5165,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>15600</v>
       </c>
       <c r="H52" s="14">
         <v>3000</v>
@@ -5182,7 +5219,9 @@
       <c r="AC52" s="4">
         <v>1040</v>
       </c>
-      <c r="AD52" s="4"/>
+      <c r="AD52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
@@ -5206,11 +5245,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5256,9 +5295,11 @@
         <v>1040</v>
       </c>
       <c r="AC53" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AD53" s="4">
         <v>1040</v>
       </c>
-      <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
@@ -5340,11 +5381,11 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="5"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H55" s="14">
         <v>0</v>
@@ -5379,7 +5420,9 @@
       </c>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
+      <c r="AC55" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
@@ -5589,11 +5632,11 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>18720</v>
       </c>
       <c r="H59" s="14">
         <v>1000</v>
@@ -5635,7 +5678,9 @@
       <c r="AC59" s="4">
         <v>2080</v>
       </c>
-      <c r="AD59" s="4"/>
+      <c r="AD59" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
@@ -5659,11 +5704,11 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H60" s="14">
         <v>2000</v>
@@ -5694,7 +5739,9 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
+      <c r="AE60" s="4">
+        <v>2080</v>
+      </c>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
       <c r="AH60" s="4"/>
@@ -5841,11 +5888,11 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H63" s="14">
         <v>0</v>
@@ -5875,7 +5922,9 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
+      <c r="AD63" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
@@ -5898,11 +5947,11 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H64" s="14">
         <v>0</v>
@@ -5931,7 +5980,9 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
+      <c r="AC64" s="4">
+        <v>1040</v>
+      </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
@@ -5955,11 +6006,11 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
@@ -5998,7 +6049,9 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
+      <c r="AC65" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
@@ -6022,11 +6075,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H66" s="14">
         <v>3000</v>
@@ -6064,7 +6117,9 @@
       </c>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
+      <c r="AE66" s="4">
+        <v>3120</v>
+      </c>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
@@ -6208,11 +6263,11 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="5"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H69" s="14">
         <v>1500</v>
@@ -6250,8 +6305,12 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
+      <c r="AD69" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>1040</v>
+      </c>
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
@@ -6273,11 +6332,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="6"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H70" s="14">
         <v>0</v>
@@ -6317,7 +6376,9 @@
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
+      <c r="AD70" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
@@ -6409,11 +6470,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H72" s="14">
         <v>27000</v>
@@ -6455,7 +6516,9 @@
         <v>2080</v>
       </c>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
+      <c r="AD72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
@@ -6586,11 +6649,11 @@
       </c>
       <c r="F75" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H75" s="14">
         <v>0</v>
@@ -6621,7 +6684,9 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
+      <c r="AC75" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
@@ -6866,11 +6931,11 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="7"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -6904,7 +6969,9 @@
         <v>1040</v>
       </c>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
+      <c r="AD80" s="4">
+        <v>1040</v>
+      </c>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
@@ -6988,11 +7055,11 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="7"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
@@ -7027,7 +7094,9 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
+      <c r="AC82" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
@@ -7405,16 +7474,19 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
+      <c r="D90" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E90" s="13" t="s">
         <v>118</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="7"/>
-        <v>1040</v>
+        <v>6240</v>
       </c>
       <c r="H90" s="14">
         <v>0</v>
@@ -7442,7 +7514,9 @@
       </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
+      <c r="AD90" s="4">
+        <v>5200</v>
+      </c>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
@@ -7462,11 +7536,11 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H91" s="14">
         <v>0</v>
@@ -7492,7 +7566,9 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
+      <c r="AD91" s="4">
+        <v>5200</v>
+      </c>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -183,29 +183,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Vijay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-1040- Auto
-2080- Manual</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AC53" authorId="0">
       <text>
         <r>
@@ -298,35 +275,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG72" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Vijay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-2080 - Manual
-1560 - Manual</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>S.No.</t>
   </si>
@@ -637,6 +591,9 @@
     <t>Rounk Mobile and Electronics(660584652)</t>
   </si>
   <si>
+    <t>Arwal</t>
+  </si>
+  <si>
     <t>SANGAM ENTERPRISES(661591706)</t>
   </si>
   <si>
@@ -653,9 +610,6 @@
   </si>
   <si>
     <t>sugam phone bathe(661711006)</t>
-  </si>
-  <si>
-    <t>Arwal</t>
   </si>
   <si>
     <t>RAJ PHONE HIRDYACHAK(661712682)</t>
@@ -706,9 +660,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -728,6 +682,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -742,17 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,9 +728,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,11 +750,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,14 +762,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,14 +782,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,7 +812,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,21 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,25 +894,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,79 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,13 +1050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,60 +1079,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1200,13 +1100,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,12 +1168,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,130 +1202,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1789,11 +1743,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AB82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AB71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomRight" activeCell="AB74" sqref="AB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1937,23 +1891,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1143500</v>
+        <v>1200500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1065480</v>
+        <v>1124760</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1143500</v>
+        <v>1200500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1065480</v>
+        <v>1124760</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2049,11 +2003,11 @@
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="1"/>
-        <v>11440</v>
+        <v>53040</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17680</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="1"/>
@@ -2217,11 +2171,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>11440</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -2267,7 +2221,9 @@
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -2291,11 +2247,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H6" s="14">
         <v>3000</v>
@@ -2328,7 +2284,9 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -2353,11 +2311,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>57000</v>
+        <v>61000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>48880</v>
+        <v>53040</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2420,8 +2378,12 @@
       <c r="AD7" s="4">
         <v>6240</v>
       </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
+      <c r="AE7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -2629,11 +2591,11 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H11" s="14">
         <v>2000</v>
@@ -2670,7 +2632,9 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
+      <c r="AE11" s="4">
+        <v>2080</v>
+      </c>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -2692,11 +2656,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2734,7 +2698,9 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="4">
+        <v>1040</v>
+      </c>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -2819,11 +2785,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H14" s="14">
         <v>5000</v>
@@ -2867,7 +2833,9 @@
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="AF14" s="4">
+        <v>5200</v>
+      </c>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -3196,11 +3164,11 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H20" s="14">
         <v>0</v>
@@ -3233,7 +3201,9 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="AE20" s="4">
+        <v>1040</v>
+      </c>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -3255,11 +3225,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H21" s="14">
         <v>5000</v>
@@ -3292,7 +3262,9 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
+      <c r="AE21" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
@@ -3446,11 +3418,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H24" s="14">
         <v>5000</v>
@@ -3485,7 +3457,9 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="AE24" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -4312,11 +4286,11 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
@@ -4345,7 +4319,9 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
+      <c r="AE38" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
@@ -4740,11 +4716,11 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H45" s="14">
         <v>3000</v>
@@ -4782,7 +4758,9 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
+      <c r="AF45" s="4">
+        <v>3120</v>
+      </c>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
@@ -5053,11 +5031,11 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H50" s="14">
         <v>2000</v>
@@ -5089,7 +5067,9 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
+      <c r="AF50" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
@@ -5245,11 +5225,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>13520</v>
+        <v>15600</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5300,8 +5280,12 @@
       <c r="AD53" s="4">
         <v>1040</v>
       </c>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
+      <c r="AE53" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
@@ -5322,11 +5306,11 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H54" s="14">
         <v>2000</v>
@@ -5360,7 +5344,9 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
+      <c r="AF54" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
@@ -5763,11 +5749,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H61" s="14">
         <v>0</v>
@@ -5803,7 +5789,9 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
+      <c r="AE61" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
@@ -6006,11 +5994,11 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
@@ -6053,7 +6041,9 @@
         <v>5200</v>
       </c>
       <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
+      <c r="AE65" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
       <c r="AH65" s="4"/>
@@ -6542,11 +6532,11 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H73" s="14">
         <v>0</v>
@@ -6576,7 +6566,9 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="AF73" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
@@ -6757,16 +6749,19 @@
       <c r="C77" s="3">
         <v>683879115</v>
       </c>
+      <c r="D77" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E77" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H77" s="14">
         <v>0</v>
@@ -6797,7 +6792,9 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
+      <c r="AE77" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
       <c r="AH77" s="4"/>
@@ -6816,15 +6813,15 @@
         <v>61</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H78" s="14">
         <v>0</v>
@@ -6853,7 +6850,9 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
+      <c r="AE78" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
       <c r="AH78" s="4"/>
@@ -6869,7 +6868,7 @@
       </c>
       <c r="B79" s="15"/>
       <c r="E79" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="6"/>
@@ -6927,7 +6926,7 @@
         <v>61</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
@@ -6988,10 +6987,10 @@
       </c>
       <c r="B81" s="15"/>
       <c r="D81" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="6"/>
@@ -7048,7 +7047,7 @@
       </c>
       <c r="B82" s="15"/>
       <c r="D82" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>110</v>
@@ -7219,7 +7218,7 @@
         <v>683909556</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>113</v>
@@ -7475,7 +7474,7 @@
         <v>88</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>118</v>
@@ -7531,16 +7530,19 @@
       <c r="A91" s="3">
         <v>89</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E91" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="7"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H91" s="14">
         <v>0</v>
@@ -7569,7 +7571,9 @@
       <c r="AD91" s="4">
         <v>5200</v>
       </c>
-      <c r="AE91" s="4"/>
+      <c r="AE91" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -206,6 +206,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ56" authorId="0">
       <text>
         <r>
@@ -275,12 +298,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>S.No.</t>
   </si>
@@ -660,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -682,9 +728,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,14 +829,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,14 +850,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -735,54 +858,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,42 +873,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -888,7 +934,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +1000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,13 +1048,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,145 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,39 +1125,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1139,6 +1152,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1150,6 +1172,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,23 +1225,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,130 +1248,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1743,11 +1789,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AB71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AB33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB74" sqref="AB74"/>
+      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1891,23 +1937,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1200500</v>
+        <v>1229500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1124760</v>
+        <v>1154920</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1200500</v>
+        <v>1229500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1124760</v>
+        <v>1154920</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2007,7 +2053,7 @@
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="1"/>
-        <v>17680</v>
+        <v>47840</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="1"/>
@@ -2528,11 +2574,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -2570,7 +2616,9 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="AF10" s="4">
+        <v>5200</v>
+      </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -2920,11 +2968,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H16" s="14">
         <v>500</v>
@@ -2956,7 +3004,9 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
+      <c r="AF16" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
@@ -3042,11 +3092,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H18" s="14">
         <v>5000</v>
@@ -3080,7 +3130,9 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="AF18" s="4">
+        <v>5200</v>
+      </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
@@ -4035,11 +4087,11 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H34" s="14">
         <v>1000</v>
@@ -4073,7 +4125,9 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
+      <c r="AF34" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
@@ -4094,11 +4148,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -4142,7 +4196,9 @@
         <v>3120</v>
       </c>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
+      <c r="AF35" s="4">
+        <v>3120</v>
+      </c>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
@@ -4163,11 +4219,11 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
@@ -4199,7 +4255,9 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
+      <c r="AF36" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
@@ -4651,11 +4709,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H44" s="14">
         <v>3000</v>
@@ -4695,7 +4753,9 @@
       </c>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
+      <c r="AF44" s="4">
+        <v>3120</v>
+      </c>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
@@ -4966,11 +5026,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
@@ -5010,7 +5070,9 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
+      <c r="AF49" s="4">
+        <v>3120</v>
+      </c>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
@@ -5145,11 +5207,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>16640</v>
       </c>
       <c r="H52" s="14">
         <v>3000</v>
@@ -5203,7 +5265,9 @@
         <v>1040</v>
       </c>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
+      <c r="AF52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
@@ -5225,11 +5289,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>16640</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5284,7 +5348,7 @@
         <v>1040</v>
       </c>
       <c r="AF53" s="4">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
@@ -6253,11 +6317,11 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="5"/>
-        <v>13520</v>
+        <v>14560</v>
       </c>
       <c r="H69" s="14">
         <v>1500</v>
@@ -6301,7 +6365,9 @@
       <c r="AE69" s="4">
         <v>1040</v>
       </c>
-      <c r="AF69" s="4"/>
+      <c r="AF69" s="4">
+        <v>1040</v>
+      </c>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
@@ -6391,11 +6457,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H71" s="14">
         <v>2000</v>
@@ -6441,7 +6507,9 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
+      <c r="AF71" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG71" s="4"/>
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
@@ -6532,11 +6600,11 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H73" s="14">
         <v>0</v>
@@ -6567,7 +6635,7 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
@@ -7216,9 +7284,6 @@
       <c r="B85" s="15"/>
       <c r="C85" s="3">
         <v>683909556</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>113</v>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -705,9 +705,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -729,8 +729,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,16 +766,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,21 +781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -789,9 +789,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,54 +835,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,11 +858,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -934,13 +934,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,19 +994,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,133 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,6 +1082,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1128,35 +1128,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,11 +1154,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,11 +1176,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,127 +1251,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1789,11 +1789,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AB33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1937,23 +1937,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1229500</v>
+        <v>1274500</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1154920</v>
+        <v>1201720</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1229500</v>
+        <v>1274500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1154920</v>
+        <v>1201720</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="1"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>61000</v>
+        <v>63000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>53040</v>
+        <v>55120</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2430,7 +2430,9 @@
       <c r="AF7" s="4">
         <v>2080</v>
       </c>
-      <c r="AG7" s="4"/>
+      <c r="AG7" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -2770,11 +2772,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -2813,7 +2815,9 @@
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="AG13" s="4">
+        <v>5200</v>
+      </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -2833,11 +2837,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="H14" s="14">
         <v>5000</v>
@@ -2884,7 +2888,9 @@
       <c r="AF14" s="4">
         <v>5200</v>
       </c>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="4">
+        <v>5200</v>
+      </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -2907,11 +2913,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -2948,7 +2954,9 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+      <c r="AG15" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
@@ -3840,11 +3848,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H30" s="14">
         <v>5000</v>
@@ -3889,7 +3897,9 @@
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
+      <c r="AG30" s="4">
+        <v>5200</v>
+      </c>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
@@ -4026,11 +4036,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -4067,7 +4077,9 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
+      <c r="AG33" s="4">
+        <v>1040</v>
+      </c>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
@@ -4278,11 +4290,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H37" s="14">
         <v>3000</v>
@@ -4321,7 +4333,9 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
+      <c r="AG37" s="4">
+        <v>3120</v>
+      </c>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -4528,11 +4542,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H41" s="14">
         <v>3000</v>
@@ -4579,7 +4593,9 @@
       </c>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
+      <c r="AG41" s="4">
+        <v>3120</v>
+      </c>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -4961,11 +4977,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -5006,7 +5022,9 @@
       </c>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
+      <c r="AG48" s="4">
+        <v>3120</v>
+      </c>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
@@ -5431,11 +5449,11 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="5"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H55" s="14">
         <v>0</v>
@@ -5476,7 +5494,9 @@
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
+      <c r="AG55" s="4">
+        <v>5200</v>
+      </c>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
@@ -5496,11 +5516,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
@@ -5535,7 +5555,9 @@
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
+      <c r="AG56" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
@@ -5682,11 +5704,11 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H59" s="14">
         <v>1000</v>
@@ -5733,7 +5755,9 @@
       </c>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
+      <c r="AG59" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
@@ -5813,11 +5837,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H61" s="14">
         <v>0</v>
@@ -5857,7 +5881,9 @@
         <v>2080</v>
       </c>
       <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
+      <c r="AG61" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
@@ -6388,11 +6414,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="6"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H70" s="14">
         <v>0</v>
@@ -6437,7 +6463,9 @@
       </c>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
-      <c r="AG70" s="4"/>
+      <c r="AG70" s="4">
+        <v>3120</v>
+      </c>
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
@@ -6600,11 +6628,11 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H73" s="14">
         <v>0</v>
@@ -6637,7 +6665,9 @@
       <c r="AF73" s="4">
         <v>2080</v>
       </c>
-      <c r="AG73" s="4"/>
+      <c r="AG73" s="4">
+        <v>1040</v>
+      </c>
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
@@ -6998,11 +7028,11 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="7"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -7041,7 +7071,9 @@
       </c>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
+      <c r="AG80" s="4">
+        <v>1040</v>
+      </c>
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ7" authorId="0">
+    <comment ref="AH29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,8 +178,8 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-2080-Auto
-2080-Auto</t>
+1040-Manual
+5200-Auto</t>
         </r>
       </text>
     </comment>
@@ -226,29 +226,6 @@
           <t xml:space="preserve">
 1040-Auto
 1040-Auto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ56" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Vijay:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-2080-Manual
-2080-Auto</t>
         </r>
       </text>
     </comment>
@@ -707,9 +684,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -728,14 +705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -744,38 +713,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,7 +736,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,6 +777,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,39 +833,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,19 +849,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -934,13 +911,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,25 +953,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,91 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,25 +1073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,15 +1102,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1155,8 +1123,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,21 +1153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1205,8 +1167,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,10 +1207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,134 +1225,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,6 +1387,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,14 +1416,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1789,11 +1769,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AF28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1833,129 +1813,129 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="19">
         <v>43831</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="19">
         <v>43832</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="19">
         <v>43833</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="19">
         <v>43834</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="19">
         <v>43835</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="19">
         <v>43836</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="19">
         <v>43837</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="19">
         <v>43838</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="19">
         <v>43839</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="19">
         <v>43840</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="19">
         <v>43841</v>
       </c>
-      <c r="T1" s="18">
+      <c r="T1" s="19">
         <v>43842</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="19">
         <v>43843</v>
       </c>
-      <c r="V1" s="18">
+      <c r="V1" s="19">
         <v>43844</v>
       </c>
-      <c r="W1" s="18">
+      <c r="W1" s="19">
         <v>43845</v>
       </c>
-      <c r="X1" s="18">
+      <c r="X1" s="19">
         <v>43846</v>
       </c>
-      <c r="Y1" s="18">
+      <c r="Y1" s="19">
         <v>43847</v>
       </c>
-      <c r="Z1" s="18">
+      <c r="Z1" s="19">
         <v>43848</v>
       </c>
-      <c r="AA1" s="18">
+      <c r="AA1" s="19">
         <v>43849</v>
       </c>
-      <c r="AB1" s="18">
+      <c r="AB1" s="19">
         <v>43850</v>
       </c>
-      <c r="AC1" s="18">
+      <c r="AC1" s="19">
         <v>43851</v>
       </c>
-      <c r="AD1" s="18">
+      <c r="AD1" s="19">
         <v>43852</v>
       </c>
-      <c r="AE1" s="18">
+      <c r="AE1" s="19">
         <v>43853</v>
       </c>
-      <c r="AF1" s="18">
+      <c r="AF1" s="19">
         <v>43854</v>
       </c>
-      <c r="AG1" s="18">
+      <c r="AG1" s="19">
         <v>43855</v>
       </c>
-      <c r="AH1" s="18">
+      <c r="AH1" s="19">
         <v>43856</v>
       </c>
-      <c r="AI1" s="18">
+      <c r="AI1" s="19">
         <v>43857</v>
       </c>
-      <c r="AJ1" s="18">
+      <c r="AJ1" s="19">
         <v>43858</v>
       </c>
-      <c r="AK1" s="18">
+      <c r="AK1" s="19">
         <v>43859</v>
       </c>
-      <c r="AL1" s="18">
+      <c r="AL1" s="19">
         <v>43860</v>
       </c>
-      <c r="AM1" s="18">
+      <c r="AM1" s="19">
         <v>43861</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:39">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1274500</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10">
+        <v>1306500</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
         <f>SUM(G3:G120)</f>
-        <v>1201720</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>1235000</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1274500</v>
-      </c>
-      <c r="G2" s="10">
+        <v>1306500</v>
+      </c>
+      <c r="G2" s="11">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1201720</v>
-      </c>
-      <c r="H2" s="12">
+        <v>1235000</v>
+      </c>
+      <c r="H2" s="13">
         <f>SUM(H3:H120)</f>
         <v>119000</v>
       </c>
@@ -2061,7 +2041,7 @@
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33280</v>
       </c>
       <c r="AI2" s="2">
         <f t="shared" si="1"/>
@@ -2091,7 +2071,7 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1">
@@ -2102,7 +2082,7 @@
         <f t="shared" si="0"/>
         <v>9360</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>3000</v>
       </c>
       <c r="I3" s="4"/>
@@ -2123,7 +2103,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="19">
+      <c r="Y3" s="20">
         <v>3120</v>
       </c>
       <c r="Z3" s="4"/>
@@ -2150,7 +2130,7 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -2161,7 +2141,7 @@
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
@@ -2174,7 +2154,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="19">
+      <c r="S4" s="20">
         <v>1560</v>
       </c>
       <c r="T4" s="4"/>
@@ -2212,18 +2192,18 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>11440</v>
-      </c>
-      <c r="H5" s="14">
+        <v>12480</v>
+      </c>
+      <c r="H5" s="15">
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -2271,7 +2251,9 @@
         <v>1040</v>
       </c>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
@@ -2288,7 +2270,7 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1">
@@ -2299,7 +2281,7 @@
         <f t="shared" si="0"/>
         <v>20800</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>3000</v>
       </c>
       <c r="I6" s="4"/>
@@ -2352,18 +2334,18 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>63000</v>
+        <v>65000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>55120</v>
-      </c>
-      <c r="H7" s="14">
+        <v>57200</v>
+      </c>
+      <c r="H7" s="15">
         <v>10000</v>
       </c>
       <c r="I7" s="4">
@@ -2433,7 +2415,9 @@
       <c r="AG7" s="4">
         <v>2080</v>
       </c>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
@@ -2450,7 +2434,7 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1">
@@ -2461,7 +2445,7 @@
         <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
@@ -2509,7 +2493,7 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1">
@@ -2520,7 +2504,7 @@
         <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
@@ -2571,7 +2555,7 @@
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1">
@@ -2582,7 +2566,7 @@
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
@@ -2636,18 +2620,18 @@
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>12480</v>
-      </c>
-      <c r="H11" s="14">
+        <v>14560</v>
+      </c>
+      <c r="H11" s="15">
         <v>2000</v>
       </c>
       <c r="I11" s="4"/>
@@ -2687,7 +2671,9 @@
       </c>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
+      <c r="AH11" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
@@ -2701,7 +2687,7 @@
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="1">
@@ -2712,7 +2698,7 @@
         <f t="shared" si="0"/>
         <v>7280</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
@@ -2767,7 +2753,7 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1">
@@ -2778,7 +2764,7 @@
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
@@ -2832,7 +2818,7 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="1">
@@ -2843,7 +2829,7 @@
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>5000</v>
       </c>
       <c r="I14" s="4"/>
@@ -2908,7 +2894,7 @@
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1">
@@ -2919,7 +2905,7 @@
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
@@ -2971,7 +2957,7 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1">
@@ -2982,12 +2968,12 @@
         <f t="shared" si="0"/>
         <v>3120</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <v>500</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="19">
+      <c r="K16" s="20">
         <v>1040</v>
       </c>
       <c r="L16" s="4"/>
@@ -3030,18 +3016,18 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
-        <v>18720</v>
-      </c>
-      <c r="H17" s="14">
+        <v>21840</v>
+      </c>
+      <c r="H17" s="15">
         <v>0</v>
       </c>
       <c r="I17" s="4">
@@ -3081,7 +3067,9 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
+      <c r="AH17" s="4">
+        <v>3120</v>
+      </c>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -3095,7 +3083,7 @@
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="1">
@@ -3106,7 +3094,7 @@
         <f t="shared" si="3"/>
         <v>20800</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <v>5000</v>
       </c>
       <c r="I18" s="4"/>
@@ -3156,18 +3144,18 @@
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="H19" s="14">
+        <v>12480</v>
+      </c>
+      <c r="H19" s="15">
         <v>0</v>
       </c>
       <c r="I19" s="4"/>
@@ -3192,10 +3180,10 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="19">
-        <v>2080</v>
-      </c>
-      <c r="AB19" s="19">
+      <c r="AA19" s="20">
+        <v>2080</v>
+      </c>
+      <c r="AB19" s="20">
         <v>2080</v>
       </c>
       <c r="AC19" s="4"/>
@@ -3205,7 +3193,9 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
+      <c r="AH19" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
@@ -3219,18 +3209,18 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
-      </c>
-      <c r="H20" s="14">
+        <v>7280</v>
+      </c>
+      <c r="H20" s="15">
         <v>0</v>
       </c>
       <c r="I20" s="4">
@@ -3266,7 +3256,9 @@
       </c>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
+      <c r="AH20" s="4">
+        <v>1040</v>
+      </c>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
@@ -3280,7 +3272,7 @@
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="1">
@@ -3291,7 +3283,7 @@
         <f t="shared" si="3"/>
         <v>20800</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>5000</v>
       </c>
       <c r="I21" s="4"/>
@@ -3341,7 +3333,7 @@
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="1">
@@ -3352,7 +3344,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="15">
         <v>0</v>
       </c>
       <c r="I22" s="4">
@@ -3410,7 +3402,7 @@
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="1">
@@ -3421,7 +3413,7 @@
         <f t="shared" si="3"/>
         <v>15600</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="15">
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
@@ -3473,7 +3465,7 @@
       <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="1">
@@ -3484,7 +3476,7 @@
         <f t="shared" si="3"/>
         <v>26000</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>5000</v>
       </c>
       <c r="I24" s="4"/>
@@ -3536,18 +3528,18 @@
       <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>21840</v>
-      </c>
-      <c r="H25" s="14">
+        <v>24960</v>
+      </c>
+      <c r="H25" s="15">
         <v>3000</v>
       </c>
       <c r="I25" s="4"/>
@@ -3589,7 +3581,9 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
+      <c r="AH25" s="4">
+        <v>3120</v>
+      </c>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
@@ -3603,7 +3597,7 @@
       <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="1">
@@ -3614,7 +3608,7 @@
         <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="15">
         <v>500</v>
       </c>
       <c r="I26" s="4">
@@ -3666,7 +3660,7 @@
       <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="1">
@@ -3677,7 +3671,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="15">
         <v>0</v>
       </c>
       <c r="I27" s="4">
@@ -3725,7 +3719,7 @@
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="1">
@@ -3736,7 +3730,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="15">
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
@@ -3784,18 +3778,18 @@
       <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
-      </c>
-      <c r="H29" s="14">
+        <v>21840</v>
+      </c>
+      <c r="H29" s="15">
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
@@ -3829,7 +3823,9 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
+      <c r="AH29" s="20">
+        <v>6240</v>
+      </c>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
@@ -3843,7 +3839,7 @@
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="1">
@@ -3854,7 +3850,7 @@
         <f t="shared" si="3"/>
         <v>46800</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="15">
         <v>5000</v>
       </c>
       <c r="I30" s="4">
@@ -3914,7 +3910,7 @@
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="1">
@@ -3925,7 +3921,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="15">
         <v>0</v>
       </c>
       <c r="I31" s="4"/>
@@ -3975,7 +3971,7 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="1">
@@ -3986,7 +3982,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="15">
         <v>1000</v>
       </c>
       <c r="I32" s="4"/>
@@ -4031,7 +4027,7 @@
       <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="1">
@@ -4042,7 +4038,7 @@
         <f t="shared" si="3"/>
         <v>5200</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="15">
         <v>0</v>
       </c>
       <c r="I33" s="4"/>
@@ -4094,7 +4090,7 @@
       <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="1">
@@ -4105,7 +4101,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="15">
         <v>1000</v>
       </c>
       <c r="I34" s="4"/>
@@ -4155,7 +4151,7 @@
       <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="1">
@@ -4166,7 +4162,7 @@
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="15">
         <v>0</v>
       </c>
       <c r="I35" s="4"/>
@@ -4226,7 +4222,7 @@
       <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="1">
@@ -4237,7 +4233,7 @@
         <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
         <v>3120</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="15">
         <v>0</v>
       </c>
       <c r="I36" s="4"/>
@@ -4285,7 +4281,7 @@
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="14" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="1">
@@ -4296,14 +4292,14 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="15">
         <v>3000</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="19">
+      <c r="M37" s="20">
         <v>3120</v>
       </c>
       <c r="N37" s="4"/>
@@ -4353,7 +4349,7 @@
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="1">
@@ -4364,7 +4360,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="15">
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
@@ -4380,7 +4376,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="19">
+      <c r="V38" s="20">
         <v>2080</v>
       </c>
       <c r="W38" s="4"/>
@@ -4391,7 +4387,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AE38" s="19">
+      <c r="AE38" s="20">
         <v>2080</v>
       </c>
       <c r="AF38" s="4"/>
@@ -4410,7 +4406,7 @@
       <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="1">
@@ -4421,7 +4417,7 @@
         <f t="shared" si="5"/>
         <v>14560</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>0</v>
       </c>
       <c r="I39" s="4"/>
@@ -4477,7 +4473,7 @@
       <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="1">
@@ -4488,7 +4484,7 @@
         <f>SUM(J40:AM40)</f>
         <v>8320</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="15">
         <v>0</v>
       </c>
       <c r="J40" s="4">
@@ -4537,7 +4533,7 @@
       <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="1">
@@ -4548,7 +4544,7 @@
         <f t="shared" si="5"/>
         <v>31200</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="15">
         <v>3000</v>
       </c>
       <c r="I41" s="4">
@@ -4610,7 +4606,7 @@
       <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="1">
@@ -4621,7 +4617,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="15">
         <v>0</v>
       </c>
       <c r="I42" s="4">
@@ -4667,7 +4663,7 @@
       <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="1">
@@ -4678,7 +4674,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="15">
         <v>0</v>
       </c>
       <c r="I43" s="4"/>
@@ -4720,7 +4716,7 @@
       <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="1">
@@ -4731,7 +4727,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="15">
         <v>3000</v>
       </c>
       <c r="I44" s="4"/>
@@ -4787,7 +4783,7 @@
       <c r="D45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="1">
@@ -4798,7 +4794,7 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="15">
         <v>3000</v>
       </c>
       <c r="I45" s="4"/>
@@ -4852,7 +4848,7 @@
       <c r="D46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="1">
@@ -4863,7 +4859,7 @@
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="15">
         <v>0</v>
       </c>
       <c r="I46" s="4"/>
@@ -4915,7 +4911,7 @@
       <c r="D47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F47" s="1">
@@ -4926,7 +4922,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="15">
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
@@ -4972,7 +4968,7 @@
       <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="1">
@@ -4983,7 +4979,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="15">
         <v>3000</v>
       </c>
       <c r="I48" s="4">
@@ -5039,7 +5035,7 @@
       <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="1">
@@ -5050,7 +5046,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="15">
         <v>3000</v>
       </c>
       <c r="I49" s="4"/>
@@ -5106,7 +5102,7 @@
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F50" s="1">
@@ -5117,7 +5113,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="15">
         <v>2000</v>
       </c>
       <c r="I50" s="4"/>
@@ -5165,7 +5161,7 @@
       <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="1">
@@ -5176,7 +5172,7 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="15">
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
@@ -5220,7 +5216,7 @@
       <c r="D52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F52" s="1">
@@ -5231,7 +5227,7 @@
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="15">
         <v>3000</v>
       </c>
       <c r="I52" s="4">
@@ -5298,11 +5294,11 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="D53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="1">
@@ -5313,7 +5309,7 @@
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="15">
         <v>1000</v>
       </c>
       <c r="I53" s="4"/>
@@ -5383,7 +5379,7 @@
       <c r="D54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F54" s="1">
@@ -5394,7 +5390,7 @@
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="15">
         <v>2000</v>
       </c>
       <c r="I54" s="4"/>
@@ -5444,7 +5440,7 @@
       <c r="D55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F55" s="1">
@@ -5455,7 +5451,7 @@
         <f t="shared" si="5"/>
         <v>36400</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="15">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
@@ -5511,7 +5507,7 @@
       <c r="D56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="1">
@@ -5522,7 +5518,7 @@
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="15">
         <v>0</v>
       </c>
       <c r="I56" s="4"/>
@@ -5569,11 +5565,11 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="D57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F57" s="1">
@@ -5584,7 +5580,7 @@
         <f t="shared" si="5"/>
         <v>31200</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="15">
         <v>5000</v>
       </c>
       <c r="I57" s="4"/>
@@ -5635,13 +5631,13 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="1">
@@ -5652,13 +5648,13 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="15">
         <v>0</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="19">
+      <c r="L58" s="20">
         <v>5200</v>
       </c>
       <c r="M58" s="4"/>
@@ -5695,11 +5691,11 @@
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F59" s="1">
@@ -5710,7 +5706,7 @@
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="15">
         <v>1000</v>
       </c>
       <c r="I59" s="4">
@@ -5769,11 +5765,11 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="D60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F60" s="1">
@@ -5784,7 +5780,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="15">
         <v>2000</v>
       </c>
       <c r="I60" s="4"/>
@@ -5832,7 +5828,7 @@
       <c r="D61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="14" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="1">
@@ -5843,7 +5839,7 @@
         <f t="shared" si="5"/>
         <v>14560</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="15">
         <v>0</v>
       </c>
       <c r="I61" s="4"/>
@@ -5877,7 +5873,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
-      <c r="AE61" s="19">
+      <c r="AE61" s="20">
         <v>2080</v>
       </c>
       <c r="AF61" s="4"/>
@@ -5898,7 +5894,7 @@
       <c r="D62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="14" t="s">
         <v>85</v>
       </c>
       <c r="F62" s="1">
@@ -5909,7 +5905,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="15">
         <v>0</v>
       </c>
       <c r="I62" s="4"/>
@@ -5961,7 +5957,7 @@
       <c r="D63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="14" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="1">
@@ -5972,7 +5968,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="15">
         <v>0</v>
       </c>
       <c r="I63" s="4"/>
@@ -6020,7 +6016,7 @@
       <c r="D64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="14" t="s">
         <v>87</v>
       </c>
       <c r="F64" s="1">
@@ -6031,7 +6027,7 @@
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="15">
         <v>0</v>
       </c>
       <c r="I64" s="4"/>
@@ -6079,18 +6075,18 @@
       <c r="D65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="14" t="s">
         <v>88</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
-        <v>46800</v>
-      </c>
-      <c r="H65" s="14">
+        <v>52000</v>
+      </c>
+      <c r="H65" s="15">
         <v>0</v>
       </c>
       <c r="I65" s="4">
@@ -6136,7 +6132,9 @@
       </c>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
+      <c r="AH65" s="4">
+        <v>5200</v>
+      </c>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
@@ -6150,18 +6148,18 @@
       <c r="D66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H66" s="14">
+        <v>24960</v>
+      </c>
+      <c r="H66" s="15">
         <v>3000</v>
       </c>
       <c r="I66" s="4"/>
@@ -6202,7 +6200,9 @@
       </c>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
+      <c r="AH66" s="4">
+        <v>3120</v>
+      </c>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
@@ -6213,22 +6213,22 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="D67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H67" s="14">
+        <v>14560</v>
+      </c>
+      <c r="H67" s="15">
         <v>2000</v>
       </c>
       <c r="I67" s="4">
@@ -6268,7 +6268,9 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
+      <c r="AH67" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
@@ -6279,11 +6281,11 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="D68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F68" s="1">
@@ -6294,7 +6296,7 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="15">
         <v>500</v>
       </c>
       <c r="I68" s="4"/>
@@ -6338,7 +6340,7 @@
       <c r="D69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="14" t="s">
         <v>93</v>
       </c>
       <c r="F69" s="1">
@@ -6349,7 +6351,7 @@
         <f t="shared" si="5"/>
         <v>14560</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="15">
         <v>1500</v>
       </c>
       <c r="I69" s="4">
@@ -6409,7 +6411,7 @@
       <c r="D70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="1">
@@ -6420,7 +6422,7 @@
         <f t="shared" si="5"/>
         <v>28080</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="15">
         <v>0</v>
       </c>
       <c r="I70" s="4"/>
@@ -6480,18 +6482,18 @@
       <c r="D71" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="6"/>
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="5"/>
-        <v>20800</v>
-      </c>
-      <c r="H71" s="14">
+        <v>22880</v>
+      </c>
+      <c r="H71" s="15">
         <v>2000</v>
       </c>
       <c r="I71" s="4"/>
@@ -6539,7 +6541,9 @@
         <v>2080</v>
       </c>
       <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
+      <c r="AH71" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4"/>
@@ -6550,8 +6554,8 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="16"/>
+      <c r="E72" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="1">
@@ -6562,40 +6566,40 @@
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="15">
         <v>27000</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="M72" s="23">
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="M72" s="24">
         <v>4160</v>
       </c>
-      <c r="N72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="T72" s="22">
+      <c r="N72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23">
+        <v>2080</v>
+      </c>
+      <c r="T72" s="23">
         <v>2080</v>
       </c>
       <c r="U72" s="4">
         <v>2080</v>
       </c>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4">
@@ -6619,11 +6623,11 @@
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="D73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F73" s="1">
@@ -6634,7 +6638,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="15">
         <v>0</v>
       </c>
       <c r="I73" s="4"/>
@@ -6643,7 +6647,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="19">
+      <c r="O73" s="20">
         <v>3120</v>
       </c>
       <c r="P73" s="4"/>
@@ -6679,8 +6683,8 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="E74" s="16" t="s">
+      <c r="B74" s="16"/>
+      <c r="E74" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="1">
@@ -6691,7 +6695,7 @@
         <f t="shared" ref="G69:G95" si="7">SUM(I74:AM74)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="15">
         <v>0</v>
       </c>
       <c r="I74" s="4"/>
@@ -6730,11 +6734,11 @@
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="D75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="17" t="s">
         <v>101</v>
       </c>
       <c r="F75" s="1">
@@ -6745,14 +6749,14 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="15">
         <v>0</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="19">
+      <c r="M75" s="20">
         <v>1040</v>
       </c>
       <c r="N75" s="4">
@@ -6792,8 +6796,8 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="E76" s="16" t="s">
+      <c r="B76" s="16"/>
+      <c r="E76" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="1">
@@ -6804,21 +6808,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H76" s="14">
-        <v>0</v>
-      </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -6843,14 +6847,14 @@
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3">
         <v>683879115</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F77" s="1">
@@ -6861,7 +6865,7 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="15">
         <v>0</v>
       </c>
       <c r="I77" s="4"/>
@@ -6890,7 +6894,7 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
-      <c r="AE77" s="19">
+      <c r="AE77" s="20">
         <v>2080</v>
       </c>
       <c r="AF77" s="4"/>
@@ -6906,11 +6910,11 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="D78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F78" s="1">
@@ -6921,7 +6925,7 @@
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="15">
         <v>0</v>
       </c>
       <c r="I78" s="4"/>
@@ -6931,7 +6935,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="19">
+      <c r="P78" s="20">
         <v>2080</v>
       </c>
       <c r="Q78" s="4"/>
@@ -6948,7 +6952,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
-      <c r="AE78" s="19">
+      <c r="AE78" s="20">
         <v>2080</v>
       </c>
       <c r="AF78" s="4"/>
@@ -6964,8 +6968,8 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="E79" s="16" t="s">
+      <c r="B79" s="16"/>
+      <c r="E79" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F79" s="1">
@@ -6976,7 +6980,7 @@
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="15">
         <v>0</v>
       </c>
       <c r="I79" s="4"/>
@@ -7019,11 +7023,11 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="D80" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="1">
@@ -7034,7 +7038,7 @@
         <f t="shared" si="7"/>
         <v>7280</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="15">
         <v>0</v>
       </c>
       <c r="I80" s="4"/>
@@ -7049,7 +7053,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-      <c r="U80" s="19">
+      <c r="U80" s="20">
         <v>2080</v>
       </c>
       <c r="V80" s="4"/>
@@ -7085,11 +7089,11 @@
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="D81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="17" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="1">
@@ -7100,31 +7104,31 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H81" s="14">
-        <v>0</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="22">
-        <v>2080</v>
-      </c>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="22">
-        <v>2080</v>
-      </c>
-      <c r="X81" s="24"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="23">
+        <v>2080</v>
+      </c>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="23">
+        <v>2080</v>
+      </c>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4">
         <v>2080</v>
@@ -7145,11 +7149,11 @@
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="D82" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="17" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="1">
@@ -7160,7 +7164,7 @@
         <f t="shared" si="7"/>
         <v>31200</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="15">
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -7211,8 +7215,8 @@
       <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="E83" s="16" t="s">
+      <c r="B83" s="16"/>
+      <c r="E83" s="17" t="s">
         <v>111</v>
       </c>
       <c r="F83" s="1">
@@ -7223,7 +7227,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="15">
         <v>0</v>
       </c>
       <c r="I83" s="4"/>
@@ -7262,8 +7266,8 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="E84" s="16" t="s">
+      <c r="B84" s="16"/>
+      <c r="E84" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F84" s="1">
@@ -7274,20 +7278,20 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H84" s="14">
-        <v>0</v>
-      </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -7313,11 +7317,11 @@
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="3">
         <v>683909556</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="17" t="s">
         <v>113</v>
       </c>
       <c r="F85" s="1">
@@ -7328,28 +7332,28 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H85" s="14">
-        <v>0</v>
-      </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7367,8 +7371,8 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="E86" s="16" t="s">
+      <c r="B86" s="16"/>
+      <c r="E86" s="17" t="s">
         <v>114</v>
       </c>
       <c r="F86" s="1">
@@ -7379,25 +7383,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>0</v>
-      </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
@@ -7418,7 +7422,7 @@
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="14" t="s">
         <v>115</v>
       </c>
       <c r="F87" s="1">
@@ -7429,7 +7433,7 @@
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="15">
         <v>0</v>
       </c>
       <c r="I87" s="4"/>
@@ -7470,7 +7474,7 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="14" t="s">
         <v>116</v>
       </c>
       <c r="F88" s="1">
@@ -7481,7 +7485,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="15">
         <v>0</v>
       </c>
       <c r="I88" s="4"/>
@@ -7520,7 +7524,7 @@
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="14" t="s">
         <v>117</v>
       </c>
       <c r="F89" s="1">
@@ -7531,7 +7535,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="15">
         <v>0</v>
       </c>
       <c r="I89" s="4"/>
@@ -7573,7 +7577,7 @@
       <c r="D90" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="14" t="s">
         <v>118</v>
       </c>
       <c r="F90" s="1">
@@ -7584,7 +7588,7 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="15">
         <v>0</v>
       </c>
       <c r="I90" s="4"/>
@@ -7630,7 +7634,7 @@
       <c r="D91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F91" s="1">
@@ -7641,7 +7645,7 @@
         <f t="shared" si="7"/>
         <v>10400</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="15">
         <v>0</v>
       </c>
       <c r="I91" s="4"/>
@@ -7687,7 +7691,7 @@
       <c r="C92" s="3">
         <v>683909558</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="14" t="s">
         <v>120</v>
       </c>
       <c r="F92" s="1">
@@ -7698,7 +7702,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="15">
         <v>0</v>
       </c>
       <c r="I92" s="4"/>
@@ -7737,7 +7741,7 @@
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F93" s="1">
@@ -7748,7 +7752,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="15">
         <v>0</v>
       </c>
       <c r="I93" s="4"/>
@@ -7787,7 +7791,7 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F94" s="1">
@@ -7798,7 +7802,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="15">
         <v>0</v>
       </c>
       <c r="I94" s="4"/>
@@ -7861,13 +7865,13 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="19">
+      <c r="M95" s="20">
         <v>2080</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="19">
+      <c r="Q95" s="20">
         <v>2080</v>
       </c>
       <c r="R95" s="4"/>
@@ -7877,7 +7881,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="19">
+      <c r="Y95" s="20">
         <v>1040</v>
       </c>
       <c r="Z95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -682,11 +682,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -706,36 +706,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -750,7 +720,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,23 +782,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +797,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -825,14 +820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -841,7 +828,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -911,7 +911,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,133 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,13 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,13 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,6 +1102,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1122,39 +1146,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,8 +1158,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,18 +1193,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,134 +1225,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,9 +1385,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1769,11 +1766,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AF28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AF47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="AG50" sqref="AG50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1813,129 +1810,129 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <v>43831</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <v>43832</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>43833</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>43834</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>43835</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <v>43836</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="18">
         <v>43837</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="18">
         <v>43838</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="18">
         <v>43839</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="18">
         <v>43840</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="18">
         <v>43841</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="18">
         <v>43842</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="18">
         <v>43843</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="18">
         <v>43844</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="18">
         <v>43845</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="18">
         <v>43846</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="18">
         <v>43847</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="18">
         <v>43848</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="18">
         <v>43849</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="18">
         <v>43850</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="18">
         <v>43851</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="18">
         <v>43852</v>
       </c>
-      <c r="AE1" s="19">
+      <c r="AE1" s="18">
         <v>43853</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="18">
         <v>43854</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="18">
         <v>43855</v>
       </c>
-      <c r="AH1" s="19">
+      <c r="AH1" s="18">
         <v>43856</v>
       </c>
-      <c r="AI1" s="19">
+      <c r="AI1" s="18">
         <v>43857</v>
       </c>
-      <c r="AJ1" s="19">
+      <c r="AJ1" s="18">
         <v>43858</v>
       </c>
-      <c r="AK1" s="19">
+      <c r="AK1" s="18">
         <v>43859</v>
       </c>
-      <c r="AL1" s="19">
+      <c r="AL1" s="18">
         <v>43860</v>
       </c>
-      <c r="AM1" s="19">
+      <c r="AM1" s="18">
         <v>43861</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:39">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1306500</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11">
+        <v>1326500</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1235000</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>1255800</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1306500</v>
-      </c>
-      <c r="G2" s="11">
+        <v>1326500</v>
+      </c>
+      <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1235000</v>
-      </c>
-      <c r="H2" s="13">
+        <v>1255800</v>
+      </c>
+      <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
         <v>119000</v>
       </c>
@@ -2045,7 +2042,7 @@
       </c>
       <c r="AI2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="AJ2" s="2">
         <f t="shared" si="1"/>
@@ -2071,7 +2068,7 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1">
@@ -2082,7 +2079,7 @@
         <f t="shared" si="0"/>
         <v>9360</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>3000</v>
       </c>
       <c r="I3" s="4"/>
@@ -2103,7 +2100,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="20">
+      <c r="Y3" s="19">
         <v>3120</v>
       </c>
       <c r="Z3" s="4"/>
@@ -2130,7 +2127,7 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -2141,7 +2138,7 @@
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
@@ -2154,7 +2151,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="20">
+      <c r="S4" s="19">
         <v>1560</v>
       </c>
       <c r="T4" s="4"/>
@@ -2192,18 +2189,18 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>12480</v>
-      </c>
-      <c r="H5" s="15">
+        <v>13520</v>
+      </c>
+      <c r="H5" s="14">
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -2254,7 +2251,9 @@
       <c r="AH5" s="4">
         <v>1040</v>
       </c>
-      <c r="AI5" s="4"/>
+      <c r="AI5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
@@ -2270,7 +2269,7 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1">
@@ -2281,7 +2280,7 @@
         <f t="shared" si="0"/>
         <v>20800</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>3000</v>
       </c>
       <c r="I6" s="4"/>
@@ -2334,7 +2333,7 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1">
@@ -2345,7 +2344,7 @@
         <f t="shared" si="0"/>
         <v>57200</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>10000</v>
       </c>
       <c r="I7" s="4">
@@ -2434,7 +2433,7 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1">
@@ -2445,7 +2444,7 @@
         <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
@@ -2493,7 +2492,7 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1">
@@ -2504,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
@@ -2555,7 +2554,7 @@
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1">
@@ -2566,7 +2565,7 @@
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
@@ -2620,7 +2619,7 @@
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1">
@@ -2631,7 +2630,7 @@
         <f t="shared" si="0"/>
         <v>14560</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>2000</v>
       </c>
       <c r="I11" s="4"/>
@@ -2687,7 +2686,7 @@
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="1">
@@ -2698,7 +2697,7 @@
         <f t="shared" si="0"/>
         <v>7280</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
@@ -2753,7 +2752,7 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1">
@@ -2764,7 +2763,7 @@
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
@@ -2818,7 +2817,7 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="1">
@@ -2829,7 +2828,7 @@
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>5000</v>
       </c>
       <c r="I14" s="4"/>
@@ -2894,7 +2893,7 @@
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1">
@@ -2905,7 +2904,7 @@
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
@@ -2957,7 +2956,7 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1">
@@ -2968,12 +2967,12 @@
         <f t="shared" si="0"/>
         <v>3120</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>500</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>1040</v>
       </c>
       <c r="L16" s="4"/>
@@ -3016,7 +3015,7 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1">
@@ -3027,7 +3026,7 @@
         <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
         <v>21840</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>0</v>
       </c>
       <c r="I17" s="4">
@@ -3083,7 +3082,7 @@
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="1">
@@ -3094,7 +3093,7 @@
         <f t="shared" si="3"/>
         <v>20800</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>5000</v>
       </c>
       <c r="I18" s="4"/>
@@ -3144,7 +3143,7 @@
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="1">
@@ -3155,7 +3154,7 @@
         <f t="shared" si="3"/>
         <v>12480</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
       <c r="I19" s="4"/>
@@ -3180,10 +3179,10 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="20">
-        <v>2080</v>
-      </c>
-      <c r="AB19" s="20">
+      <c r="AA19" s="19">
+        <v>2080</v>
+      </c>
+      <c r="AB19" s="19">
         <v>2080</v>
       </c>
       <c r="AC19" s="4"/>
@@ -3209,7 +3208,7 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="1">
@@ -3220,7 +3219,7 @@
         <f t="shared" si="3"/>
         <v>7280</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>0</v>
       </c>
       <c r="I20" s="4">
@@ -3272,7 +3271,7 @@
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="1">
@@ -3283,7 +3282,7 @@
         <f t="shared" si="3"/>
         <v>20800</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>5000</v>
       </c>
       <c r="I21" s="4"/>
@@ -3333,7 +3332,7 @@
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="1">
@@ -3344,7 +3343,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>0</v>
       </c>
       <c r="I22" s="4">
@@ -3402,7 +3401,7 @@
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="1">
@@ -3413,7 +3412,7 @@
         <f t="shared" si="3"/>
         <v>15600</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
@@ -3465,18 +3464,18 @@
       <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>26000</v>
-      </c>
-      <c r="H24" s="15">
+        <v>31200</v>
+      </c>
+      <c r="H24" s="14">
         <v>5000</v>
       </c>
       <c r="I24" s="4"/>
@@ -3515,7 +3514,9 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
+      <c r="AI24" s="4">
+        <v>5200</v>
+      </c>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
@@ -3528,7 +3529,7 @@
       <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="1">
@@ -3539,7 +3540,7 @@
         <f t="shared" si="3"/>
         <v>24960</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>3000</v>
       </c>
       <c r="I25" s="4"/>
@@ -3597,18 +3598,18 @@
       <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
-      </c>
-      <c r="H26" s="15">
+        <v>12480</v>
+      </c>
+      <c r="H26" s="14">
         <v>500</v>
       </c>
       <c r="I26" s="4">
@@ -3647,7 +3648,9 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="AI26" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
@@ -3660,7 +3663,7 @@
       <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="1">
@@ -3671,7 +3674,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>0</v>
       </c>
       <c r="I27" s="4">
@@ -3719,7 +3722,7 @@
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="1">
@@ -3730,7 +3733,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
@@ -3778,7 +3781,7 @@
       <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="1">
@@ -3789,7 +3792,7 @@
         <f t="shared" si="3"/>
         <v>21840</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
@@ -3823,7 +3826,7 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="20">
+      <c r="AH29" s="19">
         <v>6240</v>
       </c>
       <c r="AI29" s="4"/>
@@ -3839,7 +3842,7 @@
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="1">
@@ -3850,7 +3853,7 @@
         <f t="shared" si="3"/>
         <v>46800</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>5000</v>
       </c>
       <c r="I30" s="4">
@@ -3910,7 +3913,7 @@
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="1">
@@ -3921,7 +3924,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>0</v>
       </c>
       <c r="I31" s="4"/>
@@ -3971,7 +3974,7 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="1">
@@ -3982,7 +3985,7 @@
         <f t="shared" si="3"/>
         <v>6240</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>1000</v>
       </c>
       <c r="I32" s="4"/>
@@ -4027,7 +4030,7 @@
       <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="1">
@@ -4038,7 +4041,7 @@
         <f t="shared" si="3"/>
         <v>5200</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>0</v>
       </c>
       <c r="I33" s="4"/>
@@ -4090,7 +4093,7 @@
       <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="1">
@@ -4101,7 +4104,7 @@
         <f t="shared" si="3"/>
         <v>8320</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>1000</v>
       </c>
       <c r="I34" s="4"/>
@@ -4151,7 +4154,7 @@
       <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="1">
@@ -4162,7 +4165,7 @@
         <f t="shared" si="3"/>
         <v>28080</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>0</v>
       </c>
       <c r="I35" s="4"/>
@@ -4222,7 +4225,7 @@
       <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="1">
@@ -4233,7 +4236,7 @@
         <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
         <v>3120</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="4"/>
@@ -4281,7 +4284,7 @@
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="1">
@@ -4292,14 +4295,14 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>3000</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>3120</v>
       </c>
       <c r="N37" s="4"/>
@@ -4349,7 +4352,7 @@
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="1">
@@ -4360,7 +4363,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
@@ -4376,7 +4379,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="20">
+      <c r="V38" s="19">
         <v>2080</v>
       </c>
       <c r="W38" s="4"/>
@@ -4387,7 +4390,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AE38" s="20">
+      <c r="AE38" s="19">
         <v>2080</v>
       </c>
       <c r="AF38" s="4"/>
@@ -4406,18 +4409,18 @@
       <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
-      </c>
-      <c r="H39" s="15">
+        <v>16640</v>
+      </c>
+      <c r="H39" s="14">
         <v>0</v>
       </c>
       <c r="I39" s="4"/>
@@ -4460,7 +4463,9 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
+      <c r="AI39" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
@@ -4473,7 +4478,7 @@
       <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="1">
@@ -4484,7 +4489,7 @@
         <f>SUM(J40:AM40)</f>
         <v>8320</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="J40" s="4">
@@ -4533,7 +4538,7 @@
       <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="1">
@@ -4544,7 +4549,7 @@
         <f t="shared" si="5"/>
         <v>31200</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>3000</v>
       </c>
       <c r="I41" s="4">
@@ -4606,7 +4611,7 @@
       <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="1">
@@ -4617,7 +4622,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>0</v>
       </c>
       <c r="I42" s="4">
@@ -4663,7 +4668,7 @@
       <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="1">
@@ -4674,7 +4679,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>0</v>
       </c>
       <c r="I43" s="4"/>
@@ -4716,7 +4721,7 @@
       <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="1">
@@ -4727,7 +4732,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>3000</v>
       </c>
       <c r="I44" s="4"/>
@@ -4783,18 +4788,18 @@
       <c r="D45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H45" s="15">
+        <v>21840</v>
+      </c>
+      <c r="H45" s="14">
         <v>3000</v>
       </c>
       <c r="I45" s="4"/>
@@ -4835,7 +4840,9 @@
       </c>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
+      <c r="AI45" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
@@ -4848,7 +4855,7 @@
       <c r="D46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="1">
@@ -4859,7 +4866,7 @@
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>0</v>
       </c>
       <c r="I46" s="4"/>
@@ -4911,7 +4918,7 @@
       <c r="D47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F47" s="1">
@@ -4922,7 +4929,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
@@ -4968,7 +4975,7 @@
       <c r="D48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="1">
@@ -4979,7 +4986,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>3000</v>
       </c>
       <c r="I48" s="4">
@@ -5035,18 +5042,18 @@
       <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H49" s="15">
+        <v>24960</v>
+      </c>
+      <c r="H49" s="14">
         <v>3000</v>
       </c>
       <c r="I49" s="4"/>
@@ -5089,7 +5096,9 @@
       </c>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
+      <c r="AI49" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
@@ -5102,7 +5111,7 @@
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F50" s="1">
@@ -5113,7 +5122,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>2000</v>
       </c>
       <c r="I50" s="4"/>
@@ -5161,7 +5170,7 @@
       <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="1">
@@ -5172,7 +5181,7 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>0</v>
       </c>
       <c r="I51" s="4"/>
@@ -5216,18 +5225,18 @@
       <c r="D52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>16640</v>
-      </c>
-      <c r="H52" s="15">
+        <v>17680</v>
+      </c>
+      <c r="H52" s="14">
         <v>3000</v>
       </c>
       <c r="I52" s="4">
@@ -5284,7 +5293,9 @@
       </c>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
+      <c r="AI52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
@@ -5294,11 +5305,11 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="D53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="1">
@@ -5309,7 +5320,7 @@
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>1000</v>
       </c>
       <c r="I53" s="4"/>
@@ -5379,18 +5390,18 @@
       <c r="D54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="13" t="s">
         <v>72</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="5"/>
-        <v>8320</v>
-      </c>
-      <c r="H54" s="15">
+        <v>10400</v>
+      </c>
+      <c r="H54" s="14">
         <v>2000</v>
       </c>
       <c r="I54" s="4"/>
@@ -5427,7 +5438,9 @@
       </c>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
-      <c r="AI54" s="4"/>
+      <c r="AI54" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
       <c r="AL54" s="4"/>
@@ -5440,7 +5453,7 @@
       <c r="D55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F55" s="1">
@@ -5451,7 +5464,7 @@
         <f t="shared" si="5"/>
         <v>36400</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
@@ -5507,7 +5520,7 @@
       <c r="D56" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="1">
@@ -5518,7 +5531,7 @@
         <f t="shared" si="5"/>
         <v>8320</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>0</v>
       </c>
       <c r="I56" s="4"/>
@@ -5565,11 +5578,11 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
       <c r="D57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F57" s="1">
@@ -5580,7 +5593,7 @@
         <f t="shared" si="5"/>
         <v>31200</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>5000</v>
       </c>
       <c r="I57" s="4"/>
@@ -5631,13 +5644,13 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="1">
@@ -5648,13 +5661,13 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>0</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>5200</v>
       </c>
       <c r="M58" s="4"/>
@@ -5691,11 +5704,11 @@
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
       <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F59" s="1">
@@ -5706,7 +5719,7 @@
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="14">
         <v>1000</v>
       </c>
       <c r="I59" s="4">
@@ -5765,11 +5778,11 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
       <c r="D60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F60" s="1">
@@ -5780,7 +5793,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="14">
         <v>2000</v>
       </c>
       <c r="I60" s="4"/>
@@ -5828,7 +5841,7 @@
       <c r="D61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="1">
@@ -5839,7 +5852,7 @@
         <f t="shared" si="5"/>
         <v>14560</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="14">
         <v>0</v>
       </c>
       <c r="I61" s="4"/>
@@ -5873,7 +5886,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
-      <c r="AE61" s="20">
+      <c r="AE61" s="19">
         <v>2080</v>
       </c>
       <c r="AF61" s="4"/>
@@ -5894,7 +5907,7 @@
       <c r="D62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F62" s="1">
@@ -5905,7 +5918,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="4"/>
@@ -5957,7 +5970,7 @@
       <c r="D63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="1">
@@ -5968,7 +5981,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="4"/>
@@ -6016,7 +6029,7 @@
       <c r="D64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F64" s="1">
@@ -6027,7 +6040,7 @@
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="14">
         <v>0</v>
       </c>
       <c r="I64" s="4"/>
@@ -6075,7 +6088,7 @@
       <c r="D65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F65" s="1">
@@ -6086,7 +6099,7 @@
         <f t="shared" si="5"/>
         <v>52000</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="4">
@@ -6148,7 +6161,7 @@
       <c r="D66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="1">
@@ -6159,7 +6172,7 @@
         <f t="shared" si="5"/>
         <v>24960</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="14">
         <v>3000</v>
       </c>
       <c r="I66" s="4"/>
@@ -6213,11 +6226,11 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
       <c r="D67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F67" s="1">
@@ -6228,7 +6241,7 @@
         <f t="shared" si="5"/>
         <v>14560</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>2000</v>
       </c>
       <c r="I67" s="4">
@@ -6281,11 +6294,11 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
       <c r="D68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F68" s="1">
@@ -6296,7 +6309,7 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>500</v>
       </c>
       <c r="I68" s="4"/>
@@ -6340,18 +6353,18 @@
       <c r="D69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
-      </c>
-      <c r="H69" s="15">
+        <v>15600</v>
+      </c>
+      <c r="H69" s="14">
         <v>1500</v>
       </c>
       <c r="I69" s="4">
@@ -6398,7 +6411,9 @@
       </c>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
-      <c r="AI69" s="4"/>
+      <c r="AI69" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
@@ -6411,7 +6426,7 @@
       <c r="D70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="1">
@@ -6422,7 +6437,7 @@
         <f t="shared" si="5"/>
         <v>28080</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="14">
         <v>0</v>
       </c>
       <c r="I70" s="4"/>
@@ -6482,7 +6497,7 @@
       <c r="D71" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="1">
@@ -6493,7 +6508,7 @@
         <f t="shared" si="5"/>
         <v>22880</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="14">
         <v>2000</v>
       </c>
       <c r="I71" s="4"/>
@@ -6554,8 +6569,8 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="E72" s="17" t="s">
+      <c r="B72" s="15"/>
+      <c r="E72" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="1">
@@ -6566,40 +6581,40 @@
         <f t="shared" si="5"/>
         <v>20800</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="14">
         <v>27000</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="M72" s="24">
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="M72" s="23">
         <v>4160</v>
       </c>
-      <c r="N72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="R72" s="23"/>
-      <c r="S72" s="23">
-        <v>2080</v>
-      </c>
-      <c r="T72" s="23">
+      <c r="N72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22">
+        <v>2080</v>
+      </c>
+      <c r="T72" s="22">
         <v>2080</v>
       </c>
       <c r="U72" s="4">
         <v>2080</v>
       </c>
-      <c r="V72" s="25"/>
-      <c r="W72" s="25"/>
-      <c r="X72" s="25"/>
-      <c r="Y72" s="25"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4">
@@ -6623,11 +6638,11 @@
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
       <c r="D73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F73" s="1">
@@ -6638,7 +6653,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <v>0</v>
       </c>
       <c r="I73" s="4"/>
@@ -6647,7 +6662,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="20">
+      <c r="O73" s="19">
         <v>3120</v>
       </c>
       <c r="P73" s="4"/>
@@ -6683,8 +6698,8 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="E74" s="17" t="s">
+      <c r="B74" s="15"/>
+      <c r="E74" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="1">
@@ -6695,7 +6710,7 @@
         <f t="shared" ref="G69:G95" si="7">SUM(I74:AM74)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="14">
         <v>0</v>
       </c>
       <c r="I74" s="4"/>
@@ -6734,11 +6749,11 @@
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
       <c r="D75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F75" s="1">
@@ -6749,14 +6764,14 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="14">
         <v>0</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>1040</v>
       </c>
       <c r="N75" s="4">
@@ -6796,8 +6811,8 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="E76" s="17" t="s">
+      <c r="B76" s="15"/>
+      <c r="E76" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="1">
@@ -6808,21 +6823,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
+      <c r="H76" s="14">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -6847,14 +6862,14 @@
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="3">
         <v>683879115</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F77" s="1">
@@ -6865,7 +6880,7 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="14">
         <v>0</v>
       </c>
       <c r="I77" s="4"/>
@@ -6894,7 +6909,7 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
-      <c r="AE77" s="20">
+      <c r="AE77" s="19">
         <v>2080</v>
       </c>
       <c r="AF77" s="4"/>
@@ -6910,11 +6925,11 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
       <c r="D78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F78" s="1">
@@ -6925,7 +6940,7 @@
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="14">
         <v>0</v>
       </c>
       <c r="I78" s="4"/>
@@ -6935,7 +6950,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="20">
+      <c r="P78" s="19">
         <v>2080</v>
       </c>
       <c r="Q78" s="4"/>
@@ -6952,7 +6967,7 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
-      <c r="AE78" s="20">
+      <c r="AE78" s="19">
         <v>2080</v>
       </c>
       <c r="AF78" s="4"/>
@@ -6968,8 +6983,8 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="E79" s="17" t="s">
+      <c r="B79" s="15"/>
+      <c r="E79" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F79" s="1">
@@ -6980,7 +6995,7 @@
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="14">
         <v>0</v>
       </c>
       <c r="I79" s="4"/>
@@ -7023,11 +7038,11 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
       <c r="D80" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="1">
@@ -7038,7 +7053,7 @@
         <f t="shared" si="7"/>
         <v>7280</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="14">
         <v>0</v>
       </c>
       <c r="I80" s="4"/>
@@ -7053,7 +7068,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-      <c r="U80" s="20">
+      <c r="U80" s="19">
         <v>2080</v>
       </c>
       <c r="V80" s="4"/>
@@ -7089,11 +7104,11 @@
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
       <c r="D81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="1">
@@ -7104,31 +7119,31 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="23">
-        <v>2080</v>
-      </c>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="25"/>
-      <c r="V81" s="25"/>
-      <c r="W81" s="23">
-        <v>2080</v>
-      </c>
-      <c r="X81" s="25"/>
-      <c r="Y81" s="25"/>
-      <c r="Z81" s="25"/>
+      <c r="H81" s="14">
+        <v>0</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="22">
+        <v>2080</v>
+      </c>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="22">
+        <v>2080</v>
+      </c>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4">
         <v>2080</v>
@@ -7149,11 +7164,11 @@
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
       <c r="D82" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="1">
@@ -7164,7 +7179,7 @@
         <f t="shared" si="7"/>
         <v>31200</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="14">
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -7215,8 +7230,8 @@
       <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="E83" s="17" t="s">
+      <c r="B83" s="15"/>
+      <c r="E83" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F83" s="1">
@@ -7227,7 +7242,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="14">
         <v>0</v>
       </c>
       <c r="I83" s="4"/>
@@ -7266,8 +7281,8 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="E84" s="17" t="s">
+      <c r="B84" s="15"/>
+      <c r="E84" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F84" s="1">
@@ -7278,20 +7293,20 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -7317,11 +7332,11 @@
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="3">
         <v>683909556</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F85" s="1">
@@ -7332,28 +7347,28 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="25"/>
-      <c r="V85" s="25"/>
-      <c r="W85" s="25"/>
-      <c r="X85" s="25"/>
-      <c r="Y85" s="25"/>
-      <c r="Z85" s="25"/>
-      <c r="AA85" s="25"/>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="24"/>
+      <c r="U85" s="24"/>
+      <c r="V85" s="24"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="24"/>
+      <c r="AA85" s="24"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7371,8 +7386,8 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="E86" s="17" t="s">
+      <c r="B86" s="15"/>
+      <c r="E86" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F86" s="1">
@@ -7383,25 +7398,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="25"/>
-      <c r="V86" s="25"/>
-      <c r="W86" s="25"/>
-      <c r="X86" s="25"/>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
@@ -7422,7 +7437,7 @@
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="13" t="s">
         <v>115</v>
       </c>
       <c r="F87" s="1">
@@ -7433,7 +7448,7 @@
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="14">
         <v>0</v>
       </c>
       <c r="I87" s="4"/>
@@ -7474,7 +7489,7 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="13" t="s">
         <v>116</v>
       </c>
       <c r="F88" s="1">
@@ -7485,7 +7500,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>0</v>
       </c>
       <c r="I88" s="4"/>
@@ -7524,7 +7539,7 @@
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="13" t="s">
         <v>117</v>
       </c>
       <c r="F89" s="1">
@@ -7535,7 +7550,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="14">
         <v>0</v>
       </c>
       <c r="I89" s="4"/>
@@ -7577,7 +7592,7 @@
       <c r="D90" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="13" t="s">
         <v>118</v>
       </c>
       <c r="F90" s="1">
@@ -7588,7 +7603,7 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="14">
         <v>0</v>
       </c>
       <c r="I90" s="4"/>
@@ -7634,7 +7649,7 @@
       <c r="D91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F91" s="1">
@@ -7645,7 +7660,7 @@
         <f t="shared" si="7"/>
         <v>10400</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="14">
         <v>0</v>
       </c>
       <c r="I91" s="4"/>
@@ -7691,7 +7706,7 @@
       <c r="C92" s="3">
         <v>683909558</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F92" s="1">
@@ -7702,7 +7717,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="14">
         <v>0</v>
       </c>
       <c r="I92" s="4"/>
@@ -7741,7 +7756,7 @@
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F93" s="1">
@@ -7752,7 +7767,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="14">
         <v>0</v>
       </c>
       <c r="I93" s="4"/>
@@ -7791,7 +7806,7 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F94" s="1">
@@ -7802,7 +7817,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="14">
         <v>0</v>
       </c>
       <c r="I94" s="4"/>
@@ -7865,13 +7880,13 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="20">
+      <c r="M95" s="19">
         <v>2080</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="20">
+      <c r="Q95" s="19">
         <v>2080</v>
       </c>
       <c r="R95" s="4"/>
@@ -7881,7 +7896,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="20">
+      <c r="Y95" s="19">
         <v>1040</v>
       </c>
       <c r="Z95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -160,6 +160,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AH29" authorId="0">
       <text>
         <r>
@@ -683,10 +729,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -705,6 +751,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -713,7 +767,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,40 +789,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,9 +811,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,9 +834,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,36 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,7 +957,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,55 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,73 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,37 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,26 +1151,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,35 +1177,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,8 +1217,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,13 +1253,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,130 +1271,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1766,11 +1812,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AF47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG50" sqref="AG50"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1914,23 +1960,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1326500</v>
+        <v>1451500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1255800</v>
+        <v>1385800</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1326500</v>
+        <v>1451500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1255800</v>
+        <v>1385800</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2042,15 +2088,15 @@
       </c>
       <c r="AI2" s="2">
         <f t="shared" si="1"/>
-        <v>20800</v>
+        <v>58240</v>
       </c>
       <c r="AJ2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="AK2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35360</v>
       </c>
       <c r="AL2" s="2">
         <f t="shared" si="1"/>
@@ -2132,11 +2178,11 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>4680</v>
+        <v>5720</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -2175,7 +2221,9 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
+      <c r="AK4" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
     </row>
@@ -2338,11 +2386,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>65000</v>
+        <v>73000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>57200</v>
+        <v>65520</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2417,9 +2465,13 @@
       <c r="AH7" s="4">
         <v>2080</v>
       </c>
-      <c r="AI7" s="4"/>
+      <c r="AI7" s="4">
+        <v>4160</v>
+      </c>
       <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
+      <c r="AK7" s="4">
+        <v>4160</v>
+      </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
     </row>
@@ -2559,11 +2611,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -2607,7 +2659,9 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
+      <c r="AJ10" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
@@ -2691,11 +2745,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2739,7 +2793,9 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
+      <c r="AI12" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
@@ -2757,11 +2813,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -2806,7 +2862,9 @@
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
+      <c r="AK13" s="4">
+        <v>5200</v>
+      </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
     </row>
@@ -2822,11 +2880,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>52000</v>
+        <v>57200</v>
       </c>
       <c r="H14" s="14">
         <v>5000</v>
@@ -2877,7 +2935,9 @@
         <v>5200</v>
       </c>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="AI14" s="4">
+        <v>5200</v>
+      </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
@@ -2898,11 +2958,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>14560</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -2944,8 +3004,12 @@
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
+      <c r="AJ15" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>2080</v>
+      </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
     </row>
@@ -2961,11 +3025,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H16" s="14">
         <v>500</v>
@@ -3003,7 +3067,9 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="AJ16" s="4">
+        <v>1040</v>
+      </c>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -3148,11 +3214,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -3195,7 +3261,9 @@
       <c r="AH19" s="4">
         <v>2080</v>
       </c>
-      <c r="AI19" s="4"/>
+      <c r="AI19" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
@@ -3276,11 +3344,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H21" s="14">
         <v>5000</v>
@@ -3320,7 +3388,9 @@
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
+      <c r="AJ21" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
@@ -3337,11 +3407,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="H22" s="14">
         <v>0</v>
@@ -3388,7 +3458,9 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="AI22" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
@@ -3406,11 +3478,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -3453,7 +3525,9 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
+      <c r="AK23" s="4">
+        <v>3120</v>
+      </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
     </row>
@@ -3534,11 +3608,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H25" s="14">
         <v>3000</v>
@@ -3585,8 +3659,9 @@
       <c r="AH25" s="4">
         <v>3120</v>
       </c>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
+      <c r="AI25" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
@@ -3847,11 +3922,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="H30" s="14">
         <v>5000</v>
@@ -3901,7 +3976,9 @@
       </c>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
+      <c r="AJ30" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
@@ -3918,11 +3995,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H31" s="14">
         <v>0</v>
@@ -3962,7 +4039,9 @@
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
+      <c r="AJ31" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
@@ -3979,11 +4058,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -4019,7 +4098,9 @@
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
+      <c r="AK32" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
     </row>
@@ -4035,11 +4116,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -4082,7 +4163,9 @@
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
+      <c r="AK33" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
     </row>
@@ -4159,11 +4242,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>28080</v>
+        <v>34320</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -4212,9 +4295,12 @@
       </c>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
+      <c r="AI35" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>3120</v>
+      </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
     </row>
@@ -4230,11 +4316,11 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
@@ -4273,7 +4359,9 @@
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
+      <c r="AK36" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
     </row>
@@ -4289,11 +4377,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H37" s="14">
         <v>3000</v>
@@ -4336,7 +4424,9 @@
         <v>3120</v>
       </c>
       <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
+      <c r="AI37" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
@@ -4483,11 +4573,11 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G40" s="1">
         <f>SUM(J40:AM40)</f>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H40" s="14">
         <v>0</v>
@@ -4526,7 +4616,9 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
+      <c r="AJ40" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
@@ -4543,11 +4635,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>31200</v>
+        <v>34320</v>
       </c>
       <c r="H41" s="14">
         <v>3000</v>
@@ -4599,7 +4691,9 @@
       </c>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
+      <c r="AJ41" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
@@ -4616,11 +4710,11 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H42" s="14">
         <v>0</v>
@@ -4657,7 +4751,9 @@
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
+      <c r="AK42" s="4">
+        <v>2080</v>
+      </c>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
     </row>
@@ -4726,11 +4822,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H44" s="14">
         <v>3000</v>
@@ -4776,7 +4872,9 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
+      <c r="AJ44" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
@@ -4860,11 +4958,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4905,7 +5003,9 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
+      <c r="AI46" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
@@ -4980,11 +5080,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -5030,7 +5130,9 @@
       </c>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
+      <c r="AJ48" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
@@ -5314,11 +5416,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>17680</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5377,7 +5479,9 @@
       </c>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
+      <c r="AI53" s="4">
+        <v>1040</v>
+      </c>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
@@ -5458,11 +5562,11 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="5"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H55" s="14">
         <v>0</v>
@@ -5509,7 +5613,9 @@
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
+      <c r="AK55" s="4">
+        <v>5200</v>
+      </c>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
     </row>
@@ -5587,11 +5693,11 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="5"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H57" s="14">
         <v>5000</v>
@@ -5634,7 +5740,9 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
+      <c r="AI57" s="4">
+        <v>5200</v>
+      </c>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
@@ -5846,11 +5954,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H61" s="14">
         <v>0</v>
@@ -5896,7 +6004,9 @@
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
+      <c r="AK61" s="4">
+        <v>2080</v>
+      </c>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
     </row>
@@ -5912,11 +6022,11 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
@@ -5958,7 +6068,9 @@
       <c r="AG62" s="4"/>
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
+      <c r="AJ62" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
@@ -6093,11 +6205,11 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="5"/>
-        <v>52000</v>
+        <v>57200</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
@@ -6149,7 +6261,9 @@
         <v>5200</v>
       </c>
       <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
+      <c r="AJ65" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
       <c r="AM65" s="4"/>
@@ -6166,11 +6280,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H66" s="14">
         <v>3000</v>
@@ -6218,7 +6332,9 @@
       </c>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
+      <c r="AK66" s="4">
+        <v>3120</v>
+      </c>
       <c r="AL66" s="4"/>
       <c r="AM66" s="4"/>
     </row>
@@ -6235,11 +6351,11 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H67" s="14">
         <v>2000</v>
@@ -6285,7 +6401,9 @@
         <v>2080</v>
       </c>
       <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
+      <c r="AJ67" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
@@ -6358,11 +6476,11 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>16640</v>
       </c>
       <c r="H69" s="14">
         <v>1500</v>
@@ -6415,7 +6533,9 @@
         <v>1040</v>
       </c>
       <c r="AJ69" s="4"/>
-      <c r="AK69" s="4"/>
+      <c r="AK69" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL69" s="4"/>
       <c r="AM69" s="4"/>
     </row>
@@ -6431,11 +6551,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="6"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="5"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H70" s="14">
         <v>0</v>
@@ -6485,7 +6605,9 @@
       </c>
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
-      <c r="AJ70" s="4"/>
+      <c r="AJ70" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
@@ -6575,11 +6697,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="6"/>
-        <v>47000</v>
+        <v>49000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="5"/>
-        <v>20800</v>
+        <v>22880</v>
       </c>
       <c r="H72" s="14">
         <v>27000</v>
@@ -6629,7 +6751,9 @@
       <c r="AG72" s="4"/>
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
-      <c r="AJ72" s="4"/>
+      <c r="AJ72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4"/>
@@ -6989,11 +7113,11 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>7280</v>
       </c>
       <c r="H79" s="14">
         <v>0</v>
@@ -7028,7 +7152,9 @@
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
-      <c r="AI79" s="4"/>
+      <c r="AI79" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
@@ -7173,11 +7299,11 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="7"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
@@ -7221,7 +7347,9 @@
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
-      <c r="AJ82" s="4"/>
+      <c r="AJ82" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
       <c r="AM82" s="4"/>
@@ -7654,11 +7782,11 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="7"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H91" s="14">
         <v>0</v>
@@ -7694,7 +7822,9 @@
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
-      <c r="AJ91" s="4"/>
+      <c r="AJ91" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK91" s="4"/>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4"/>
@@ -7867,11 +7997,11 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="7"/>
-        <v>7280</v>
+        <v>9360</v>
       </c>
       <c r="H95" s="5">
         <v>0</v>
@@ -7910,7 +8040,9 @@
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
-      <c r="AI95" s="4"/>
+      <c r="AI95" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
       <c r="AL95" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="January-2021" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>S.No.</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>SONU PHONEX(661752239)</t>
+  </si>
+  <si>
+    <t>Amit Amir Bigha</t>
   </si>
   <si>
     <t>BHUMIKA ELECTRONICS(660320662)</t>
@@ -729,9 +732,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -751,6 +754,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -761,35 +779,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,16 +800,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,6 +819,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,9 +853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,15 +868,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,13 +960,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,37 +1074,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,121 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,15 +1151,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1200,16 +1194,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,16 +1238,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,13 +1256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,40 +1274,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1313,88 +1316,88 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,16 +1451,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,11 +1815,11 @@
   <dimension ref="A1:AS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AI27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1960,23 +1963,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F120)</f>
-        <v>1451500</v>
+        <v>1461500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G120)</f>
-        <v>1385800</v>
+        <v>1396200</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1451500</v>
+        <v>1461500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1385800</v>
+        <v>1396200</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H120)</f>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="AL2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="AM2" s="2">
         <f t="shared" si="1"/>
@@ -2386,11 +2389,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>73000</v>
+        <v>75000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>65520</v>
+        <v>67600</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2472,7 +2475,9 @@
       <c r="AK7" s="4">
         <v>4160</v>
       </c>
-      <c r="AL7" s="4"/>
+      <c r="AL7" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM7" s="4"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:39">
@@ -2678,11 +2683,11 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H11" s="14">
         <v>2000</v>
@@ -2730,7 +2735,9 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
+      <c r="AL11" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM11" s="4"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:39">
@@ -3281,11 +3288,11 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H20" s="14">
         <v>0</v>
@@ -3329,7 +3336,9 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
+      <c r="AL20" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM20" s="4"/>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:39">
@@ -4761,19 +4770,22 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
+      <c r="B43" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H43" s="14">
         <v>0</v>
@@ -4807,7 +4819,9 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
+      <c r="AL43" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM43" s="4"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:39">
@@ -4818,7 +4832,7 @@
         <v>47</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
@@ -4884,10 +4898,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
@@ -4951,10 +4965,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
@@ -5016,10 +5030,10 @@
         <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="4"/>
@@ -5073,10 +5087,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
@@ -5142,10 +5156,10 @@
         <v>47</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
@@ -5211,10 +5225,10 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
@@ -5270,10 +5284,10 @@
         <v>49</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="4"/>
@@ -5325,18 +5339,18 @@
         <v>50</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>17680</v>
+        <v>18720</v>
       </c>
       <c r="H52" s="14">
         <v>3000</v>
@@ -5400,27 +5414,29 @@
       </c>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
+      <c r="AL52" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM52" s="4"/>
     </row>
     <row r="53" s="3" customFormat="1" spans="1:39">
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="D53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>17680</v>
+        <v>18720</v>
       </c>
       <c r="H53" s="14">
         <v>1000</v>
@@ -5484,7 +5500,9 @@
       </c>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
+      <c r="AL53" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM53" s="4"/>
     </row>
     <row r="54" s="3" customFormat="1" spans="1:39">
@@ -5492,10 +5510,10 @@
         <v>52</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="4"/>
@@ -5555,10 +5573,10 @@
         <v>53</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
@@ -5624,10 +5642,10 @@
         <v>54</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
@@ -5684,12 +5702,12 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="D57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="16" t="s">
         <v>76</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
@@ -5752,14 +5770,14 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>77</v>
+      <c r="C58" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="4"/>
@@ -5812,12 +5830,12 @@
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="D59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="16" t="s">
         <v>80</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
@@ -5886,12 +5904,12 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="D60" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="16" t="s">
         <v>82</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
@@ -5947,10 +5965,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
@@ -6015,10 +6033,10 @@
         <v>60</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
@@ -6080,10 +6098,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="4"/>
@@ -6139,10 +6157,10 @@
         <v>62</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="4"/>
@@ -6198,10 +6216,10 @@
         <v>63</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
@@ -6273,10 +6291,10 @@
         <v>64</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
@@ -6342,12 +6360,12 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="D67" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
@@ -6412,12 +6430,12 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="D68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="6"/>
@@ -6469,10 +6487,10 @@
         <v>67</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="6"/>
@@ -6544,10 +6562,10 @@
         <v>68</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="6"/>
@@ -6617,10 +6635,10 @@
         <v>69</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="6"/>
@@ -6691,9 +6709,9 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="E72" s="16" t="s">
-        <v>96</v>
+      <c r="B72" s="16"/>
+      <c r="E72" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="6"/>
@@ -6762,12 +6780,12 @@
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="D73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" s="16" t="s">
         <v>98</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="6"/>
@@ -6822,9 +6840,9 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="E74" s="16" t="s">
-        <v>99</v>
+      <c r="B74" s="16"/>
+      <c r="E74" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="6"/>
@@ -6873,12 +6891,12 @@
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="D75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="6"/>
@@ -6935,9 +6953,9 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="E76" s="16" t="s">
-        <v>102</v>
+      <c r="B76" s="16"/>
+      <c r="E76" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="6"/>
@@ -6986,15 +7004,15 @@
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3">
         <v>683879115</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="6"/>
@@ -7049,12 +7067,12 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="D78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="6"/>
@@ -7107,9 +7125,9 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="E79" s="16" t="s">
-        <v>106</v>
+      <c r="B79" s="16"/>
+      <c r="E79" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="6"/>
@@ -7164,12 +7182,12 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="D80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="6"/>
@@ -7230,20 +7248,20 @@
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="D81" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="16" t="s">
         <v>109</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="7"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -7283,19 +7301,21 @@
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
-      <c r="AL81" s="4"/>
+      <c r="AL81" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM81" s="4"/>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:39">
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="D82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="6"/>
@@ -7358,9 +7378,9 @@
       <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="E83" s="16" t="s">
-        <v>111</v>
+      <c r="B83" s="16"/>
+      <c r="E83" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="6"/>
@@ -7409,9 +7429,9 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="E84" s="16" t="s">
-        <v>112</v>
+      <c r="B84" s="16"/>
+      <c r="E84" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="6"/>
@@ -7460,12 +7480,12 @@
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="3">
         <v>683909556</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>113</v>
+      <c r="E85" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="6"/>
@@ -7514,9 +7534,9 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="E86" s="16" t="s">
-        <v>114</v>
+      <c r="B86" s="16"/>
+      <c r="E86" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="6"/>
@@ -7566,7 +7586,7 @@
         <v>85</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="6"/>
@@ -7618,7 +7638,7 @@
         <v>86</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="6"/>
@@ -7668,7 +7688,7 @@
         <v>87</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="6"/>
@@ -7718,10 +7738,10 @@
         <v>88</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="6"/>
@@ -7775,10 +7795,10 @@
         <v>89</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="6"/>
@@ -7837,7 +7857,7 @@
         <v>683909558</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="6"/>
@@ -7887,7 +7907,7 @@
         <v>91</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="6"/>
@@ -7937,7 +7957,7 @@
         <v>92</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="6"/>
@@ -7990,10 +8010,10 @@
         <v>685671039</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="6"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -10,7 +10,7 @@
     <sheet name="January-2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'January-2021'!$A$1:$AM$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'January-2021'!$A$1:$AM$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -206,6 +206,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AH29" authorId="0">
       <text>
         <r>
@@ -229,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC53" authorId="0">
+    <comment ref="AC54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF53" authorId="0">
+    <comment ref="AF54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y69" authorId="0">
+    <comment ref="Y70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M72" authorId="0">
+    <comment ref="M73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF73" authorId="0">
+    <comment ref="AF74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>S.No.</t>
   </si>
@@ -562,6 +585,9 @@
   </si>
   <si>
     <t>DIVYANKA MOBILE CENTER(660315660)</t>
+  </si>
+  <si>
+    <t>Anant Mobile Gallery-(662173660)</t>
   </si>
   <si>
     <t>Neha Phonex(660614432)</t>
@@ -731,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -754,6 +780,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -761,9 +810,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,8 +849,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,6 +876,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,7 +897,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,85 +917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,13 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1004,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +1046,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1094,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,103 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,6 +1177,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1172,82 +1272,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,10 +1282,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,130 +1300,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,14 +1488,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1812,14 +1838,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS108"/>
+  <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AI27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AK62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1962,43 +1988,43 @@
     <row r="2" s="2" customFormat="1" spans="1:39">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
-        <f>SUM(F3:F120)</f>
-        <v>1461500</v>
+        <f>SUM(F3:F121)</f>
+        <v>1515500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
-        <f>SUM(G3:G120)</f>
-        <v>1396200</v>
+        <f>SUM(G3:G121)</f>
+        <v>1452360</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1461500</v>
+        <v>1515500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1396200</v>
+        <v>1452360</v>
       </c>
       <c r="H2" s="12">
-        <f>SUM(H3:H120)</f>
+        <f>SUM(H3:H121)</f>
         <v>119000</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(I3:I120)</f>
+        <f>SUM(I3:I121)</f>
         <v>48880</v>
       </c>
       <c r="J2" s="2">
-        <f>SUM(J3:J120)</f>
+        <f>SUM(J3:J121)</f>
         <v>52000</v>
       </c>
       <c r="K2" s="2">
-        <f>SUM(K3:K120)</f>
+        <f>SUM(K3:K121)</f>
         <v>29120</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:AM2" si="1">SUM(L3:L120)</f>
+        <f t="shared" ref="L2:AM2" si="1">SUM(L3:L121)</f>
         <v>46800</v>
       </c>
       <c r="M2" s="2">
@@ -2103,11 +2129,11 @@
       </c>
       <c r="AL2" s="2">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>42640</v>
       </c>
       <c r="AM2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23920</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:39">
@@ -2122,11 +2148,11 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="2">G3/1.04+H3</f>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H3" s="14">
         <v>3000</v>
@@ -2167,7 +2193,9 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="AM3" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:39">
       <c r="A4" s="3">
@@ -2245,11 +2273,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>13520</v>
+        <v>14560</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -2307,7 +2335,9 @@
       </c>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM5" s="4"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:39">
@@ -2325,11 +2355,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H6" s="14">
         <v>3000</v>
@@ -2371,7 +2401,9 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
+      <c r="AL6" s="4">
+        <v>5200</v>
+      </c>
       <c r="AM6" s="4"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:39">
@@ -2389,11 +2421,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>77000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>67600</v>
+        <v>69680</v>
       </c>
       <c r="H7" s="14">
         <v>10000</v>
@@ -2476,7 +2508,7 @@
         <v>4160</v>
       </c>
       <c r="AL7" s="4">
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="AM7" s="4"/>
     </row>
@@ -2554,11 +2586,11 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -2599,7 +2631,9 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+      <c r="AM9" s="4">
+        <v>2080</v>
+      </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:39">
       <c r="A10" s="3">
@@ -2616,11 +2650,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -2668,7 +2702,9 @@
         <v>5200</v>
       </c>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
+      <c r="AL10" s="4">
+        <v>5200</v>
+      </c>
       <c r="AM10" s="4"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:39">
@@ -3032,11 +3068,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H16" s="14">
         <v>500</v>
@@ -3078,7 +3114,9 @@
         <v>1040</v>
       </c>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
+      <c r="AL16" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM16" s="4"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:39">
@@ -3096,7 +3134,7 @@
         <v>21000</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G35" si="3">SUM(I17:AM17)</f>
+        <f t="shared" ref="G17:G39" si="3">SUM(I17:AM17)</f>
         <v>21840</v>
       </c>
       <c r="H17" s="14">
@@ -3416,11 +3454,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>10400</v>
       </c>
       <c r="H22" s="14">
         <v>0</v>
@@ -3472,7 +3510,9 @@
       </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
+      <c r="AL22" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM22" s="4"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:39">
@@ -3687,11 +3727,11 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H26" s="14">
         <v>500</v>
@@ -3737,7 +3777,9 @@
       </c>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
+      <c r="AL26" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM26" s="4"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:39">
@@ -3811,11 +3853,11 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H28" s="14">
         <v>0</v>
@@ -3855,7 +3897,9 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
+      <c r="AL28" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM28" s="4"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:39">
@@ -4067,11 +4111,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -4110,7 +4154,9 @@
       <c r="AK32" s="4">
         <v>1040</v>
       </c>
-      <c r="AL32" s="4"/>
+      <c r="AL32" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM32" s="4"/>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:39">
@@ -4190,11 +4236,11 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H34" s="14">
         <v>1000</v>
@@ -4236,7 +4282,9 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
+      <c r="AL34" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM34" s="4"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:39">
@@ -4250,7 +4298,7 @@
         <v>51</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ref="F35:F66" si="4">G35/1.04+H35</f>
+        <f t="shared" ref="F35:F67" si="4">G35/1.04+H35</f>
         <v>33000</v>
       </c>
       <c r="G35" s="1">
@@ -4328,7 +4376,7 @@
         <v>4000</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" ref="G36:G73" si="5">SUM(I36:AM36)</f>
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
       <c r="H36" s="14">
@@ -4389,7 +4437,7 @@
         <v>24000</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21840</v>
       </c>
       <c r="H37" s="14">
@@ -4456,11 +4504,11 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="5"/>
-        <v>4160</v>
+        <f t="shared" si="3"/>
+        <v>6240</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
@@ -4499,7 +4547,9 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
+      <c r="AM38" s="4">
+        <v>2080</v>
+      </c>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:39">
       <c r="A39" s="3">
@@ -4516,7 +4566,7 @@
         <v>16000</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16640</v>
       </c>
       <c r="H39" s="14">
@@ -4647,7 +4697,7 @@
         <v>36000</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
         <v>34320</v>
       </c>
       <c r="H41" s="14">
@@ -4905,11 +4955,11 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H45" s="14">
         <v>3000</v>
@@ -4958,7 +5008,9 @@
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
+      <c r="AM45" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:39">
       <c r="A46" s="3">
@@ -5094,11 +5146,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -5149,7 +5201,9 @@
       </c>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
+      <c r="AM48" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:39">
       <c r="A49" s="3">
@@ -5163,11 +5217,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
@@ -5218,7 +5272,9 @@
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
+      <c r="AM49" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="50" s="3" customFormat="1" spans="1:39">
       <c r="A50" s="3">
@@ -5419,153 +5475,115 @@
       </c>
       <c r="AM52" s="4"/>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:39">
+    <row r="53" s="3" customFormat="1" spans="1:38">
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="16"/>
       <c r="D53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>2080</v>
       </c>
       <c r="H53" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="V53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AA53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AB53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AC53" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AD53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AE53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AF53" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AM53" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="19">
+        <v>2080</v>
+      </c>
     </row>
     <row r="54" s="3" customFormat="1" spans="1:39">
       <c r="A54" s="3">
         <v>52</v>
       </c>
+      <c r="B54" s="16"/>
       <c r="D54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="5"/>
-        <v>10400</v>
+        <f t="shared" ref="G54:G74" si="6">SUM(I54:AM54)</f>
+        <v>18720</v>
       </c>
       <c r="H54" s="14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4">
-        <v>2080</v>
-      </c>
-      <c r="M54" s="4"/>
+      <c r="K54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4">
+        <v>1040</v>
+      </c>
       <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
+      <c r="O54" s="4">
+        <v>1040</v>
+      </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4">
-        <v>2080</v>
-      </c>
+      <c r="R54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="S54" s="4"/>
       <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
+      <c r="U54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="V54" s="4">
+        <v>1040</v>
+      </c>
       <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4">
-        <v>2080</v>
-      </c>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
+      <c r="X54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>1040</v>
+      </c>
       <c r="AF54" s="4">
         <v>2080</v>
       </c>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4">
-        <v>2080</v>
+        <v>1040</v>
       </c>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
+      <c r="AL54" s="4">
+        <v>1040</v>
+      </c>
       <c r="AM54" s="4"/>
     </row>
     <row r="55" s="3" customFormat="1" spans="1:39">
@@ -5573,67 +5591,61 @@
         <v>53</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="5"/>
-        <v>41600</v>
+        <f t="shared" si="6"/>
+        <v>10400</v>
       </c>
       <c r="H55" s="14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="L55" s="4">
+        <v>2080</v>
+      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4">
-        <v>5200</v>
-      </c>
-      <c r="S55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4">
+        <v>2080</v>
+      </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="Y55" s="4">
+        <v>2080</v>
+      </c>
+      <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
-      <c r="AC55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AF55" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
+      <c r="AI55" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ55" s="4"/>
-      <c r="AK55" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
     </row>
@@ -5642,59 +5654,67 @@
         <v>54</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="5"/>
-        <v>8320</v>
+        <f t="shared" si="6"/>
+        <v>41600</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4">
+        <v>5200</v>
+      </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4">
-        <v>2080</v>
-      </c>
+      <c r="M56" s="4">
+        <v>5200</v>
+      </c>
+      <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="R56" s="4">
+        <v>5200</v>
+      </c>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4">
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
+      <c r="Z56" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AC56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4">
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
+      <c r="AK56" s="4">
+        <v>5200</v>
+      </c>
       <c r="AL56" s="4"/>
       <c r="AM56" s="4"/>
     </row>
@@ -5702,65 +5722,58 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="16"/>
       <c r="D57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="5"/>
-        <v>36400</v>
+        <f t="shared" si="6"/>
+        <v>8320</v>
       </c>
       <c r="H57" s="14">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="4">
-        <v>5200</v>
-      </c>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4">
-        <v>5200</v>
+        <v>2080</v>
       </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="4">
-        <v>5200</v>
-      </c>
+      <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4">
-        <v>5200</v>
+        <v>2080</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="4">
-        <v>5200</v>
-      </c>
+      <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AB57" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
+      <c r="AG57" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH57" s="4"/>
-      <c r="AI57" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
@@ -5770,129 +5783,125 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="16"/>
+      <c r="D58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="5"/>
-        <v>10400</v>
+        <f t="shared" si="6"/>
+        <v>41600</v>
       </c>
       <c r="H58" s="14">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4">
+        <v>5200</v>
+      </c>
       <c r="K58" s="4"/>
-      <c r="L58" s="19">
-        <v>5200</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="N58" s="4">
+        <v>5200</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
+      <c r="S58" s="4">
+        <v>5200</v>
+      </c>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
+      <c r="V58" s="4">
+        <v>5200</v>
+      </c>
       <c r="W58" s="4"/>
-      <c r="X58" s="4">
-        <v>5200</v>
-      </c>
+      <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
+      <c r="Z58" s="4">
+        <v>5200</v>
+      </c>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
+      <c r="AC58" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
+      <c r="AI58" s="4">
+        <v>5200</v>
+      </c>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
+      <c r="AM58" s="4">
+        <v>5200</v>
+      </c>
     </row>
     <row r="59" s="3" customFormat="1" spans="1:39">
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="C59" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="5"/>
-        <v>20800</v>
+        <f t="shared" si="6"/>
+        <v>10400</v>
       </c>
       <c r="H59" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="4">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="19">
+        <v>5200</v>
+      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="X59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4">
+        <v>5200</v>
+      </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
-      <c r="AA59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
-      <c r="AC59" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AD59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
-      <c r="AG59" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AG59" s="4"/>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
@@ -5906,35 +5915,43 @@
       </c>
       <c r="B60" s="16"/>
       <c r="D60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="5"/>
-        <v>6240</v>
+        <f t="shared" si="6"/>
+        <v>22880</v>
       </c>
       <c r="H60" s="14">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2080</v>
+      </c>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4">
+        <v>2080</v>
+      </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="4">
+        <v>2080</v>
+      </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="4">
-        <v>2080</v>
-      </c>
-      <c r="P60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
+      <c r="S60" s="4">
+        <v>2080</v>
+      </c>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -5944,48 +5961,55 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
+      <c r="AA60" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AC60" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
+      <c r="AG60" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
+      <c r="AL60" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM60" s="4"/>
     </row>
     <row r="61" s="3" customFormat="1" spans="1:39">
       <c r="A61" s="3">
         <v>59</v>
       </c>
+      <c r="B61" s="16"/>
       <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="5"/>
-        <v>16640</v>
+        <f t="shared" si="6"/>
+        <v>6240</v>
       </c>
       <c r="H61" s="14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <v>2080</v>
-      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -5994,9 +6018,8 @@
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="4">
-        <v>2080</v>
-      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -6004,27 +6027,21 @@
         <v>2080</v>
       </c>
       <c r="X61" s="4"/>
-      <c r="Y61" s="4">
-        <v>2080</v>
-      </c>
+      <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
-      <c r="AE61" s="19">
+      <c r="AE61" s="4">
         <v>2080</v>
       </c>
       <c r="AF61" s="4"/>
-      <c r="AG61" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
-      <c r="AK61" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4"/>
     </row>
@@ -6033,63 +6050,66 @@
         <v>60</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="5"/>
-        <v>12480</v>
+        <f t="shared" si="6"/>
+        <v>16640</v>
       </c>
       <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="K62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4">
+        <v>2080</v>
+      </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4">
+        <v>2080</v>
+      </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4">
+      <c r="R62" s="4">
         <v>2080</v>
       </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="W62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4">
+        <v>2080</v>
+      </c>
       <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
+      <c r="Y62" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-      <c r="AB62" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
+      <c r="AE62" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
+      <c r="AG62" s="4">
+        <v>2080</v>
+      </c>
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
-      <c r="AJ62" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AK62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4">
+        <v>2080</v>
+      </c>
       <c r="AL62" s="4"/>
       <c r="AM62" s="4"/>
     </row>
@@ -6098,56 +6118,62 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="5"/>
-        <v>6240</v>
+        <f t="shared" si="6"/>
+        <v>12480</v>
       </c>
       <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="4">
+        <v>2080</v>
+      </c>
       <c r="K63" s="4"/>
-      <c r="L63" s="4">
-        <v>2080</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="N63" s="4">
+        <v>2080</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4">
-        <v>2080</v>
-      </c>
+      <c r="S63" s="4">
+        <v>2080</v>
+      </c>
+      <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="V63" s="4">
+        <v>2080</v>
+      </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
+      <c r="AB63" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
+      <c r="AJ63" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
       <c r="AM63" s="4"/>
@@ -6157,18 +6183,18 @@
         <v>62</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="5"/>
-        <v>3120</v>
+        <f t="shared" si="6"/>
+        <v>6240</v>
       </c>
       <c r="H64" s="14">
         <v>0</v>
@@ -6176,31 +6202,31 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="L64" s="4">
+        <v>2080</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4">
-        <v>1040</v>
-      </c>
+      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
+      <c r="T64" s="4">
+        <v>2080</v>
+      </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="4">
-        <v>1040</v>
-      </c>
+      <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
-      <c r="AC64" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AD64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
@@ -6216,72 +6242,56 @@
         <v>63</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>55000</v>
+        <v>3000</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="5"/>
-        <v>57200</v>
+        <f t="shared" si="6"/>
+        <v>3120</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
       </c>
-      <c r="I65" s="4">
-        <v>5200</v>
-      </c>
-      <c r="J65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="O65" s="4">
+        <v>1040</v>
+      </c>
+      <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="4">
-        <v>5200</v>
-      </c>
-      <c r="W65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4">
+        <v>1040</v>
+      </c>
       <c r="X65" s="4"/>
-      <c r="Y65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4">
-        <v>5200</v>
+        <v>1040</v>
       </c>
       <c r="AD65" s="4"/>
-      <c r="AE65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
-      <c r="AH65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
-      <c r="AJ65" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
       <c r="AM65" s="4"/>
@@ -6291,68 +6301,73 @@
         <v>64</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="5"/>
-        <v>28080</v>
+        <f t="shared" si="6"/>
+        <v>57200</v>
       </c>
       <c r="H66" s="14">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>5200</v>
+      </c>
       <c r="J66" s="4">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="O66" s="4">
-        <v>3120</v>
-      </c>
-      <c r="P66" s="4"/>
+      <c r="M66" s="4">
+        <v>5200</v>
+      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4">
-        <v>3120</v>
-      </c>
+      <c r="Y66" s="4">
+        <v>5200</v>
+      </c>
+      <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-      <c r="AB66" s="4">
-        <v>3120</v>
-      </c>
-      <c r="AC66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
       <c r="AH66" s="4">
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4">
-        <v>3120</v>
-      </c>
+      <c r="AJ66" s="4">
+        <v>5200</v>
+      </c>
+      <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
       <c r="AM66" s="4"/>
     </row>
@@ -6360,69 +6375,69 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="16"/>
       <c r="D67" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F95" si="6">G67/1.04+H67</f>
-        <v>18000</v>
+        <f t="shared" si="4"/>
+        <v>30000</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="5"/>
-        <v>16640</v>
+        <f t="shared" si="6"/>
+        <v>28080</v>
       </c>
       <c r="H67" s="14">
-        <v>2000</v>
-      </c>
-      <c r="I67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="J67" s="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
+        <v>3120</v>
+      </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O67" s="4"/>
+      <c r="O67" s="4">
+        <v>3120</v>
+      </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="Z67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
+        <v>3120</v>
+      </c>
       <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AB67" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
+      <c r="AE67" s="4">
+        <v>3120</v>
+      </c>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="AI67" s="4"/>
-      <c r="AJ67" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AK67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4">
+        <v>3120</v>
+      </c>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
     </row>
@@ -6432,36 +6447,44 @@
       </c>
       <c r="B68" s="16"/>
       <c r="D68" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F68" s="1">
+        <f t="shared" ref="F68:F96" si="7">G68/1.04+H68</f>
+        <v>18000</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="6"/>
-        <v>2500</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>16640</v>
       </c>
       <c r="H68" s="14">
-        <v>500</v>
-      </c>
-      <c r="I68" s="4"/>
+        <v>2000</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2080</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+      <c r="N68" s="4">
+        <v>2080</v>
+      </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
+      <c r="R68" s="4">
+        <v>2080</v>
+      </c>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="V68" s="4">
+        <v>2080</v>
+      </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4">
@@ -6470,14 +6493,20 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
+      <c r="AC68" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
+      <c r="AH68" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI68" s="4"/>
-      <c r="AJ68" s="4"/>
+      <c r="AJ68" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
       <c r="AM68" s="4"/>
@@ -6486,48 +6515,39 @@
       <c r="A69" s="3">
         <v>67</v>
       </c>
+      <c r="B69" s="16"/>
       <c r="D69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="F69" s="1">
+        <f t="shared" si="7"/>
+        <v>4500</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="6"/>
-        <v>17500</v>
-      </c>
-      <c r="G69" s="1">
-        <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>4160</v>
       </c>
       <c r="H69" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I69" s="4">
-        <v>3120</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="4">
-        <v>3120</v>
-      </c>
+      <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
-      <c r="U69" s="4">
-        <v>1040</v>
-      </c>
-      <c r="V69" s="4">
-        <v>1040</v>
-      </c>
-      <c r="W69" s="4">
-        <v>1040</v>
-      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4">
         <v>2080</v>
@@ -6536,52 +6556,44 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AE69" s="4">
-        <v>1040</v>
-      </c>
-      <c r="AF69" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="4"/>
-      <c r="AI69" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
-      <c r="AK69" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
-      <c r="AM69" s="4"/>
+      <c r="AM69" s="4">
+        <v>2080</v>
+      </c>
     </row>
     <row r="70" s="3" customFormat="1" spans="1:39">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F70" s="1">
+        <f t="shared" si="7"/>
+        <v>17500</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>30000</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="5"/>
-        <v>31200</v>
+        <v>16640</v>
       </c>
       <c r="H70" s="14">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4">
-        <v>3120</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3120</v>
+      </c>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6589,44 +6601,46 @@
         <v>3120</v>
       </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="4">
-        <v>3120</v>
-      </c>
+      <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="4">
-        <v>3120</v>
-      </c>
+      <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4">
-        <v>3120</v>
-      </c>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4">
-        <v>3120</v>
-      </c>
-      <c r="Y70" s="4"/>
+        <v>1040</v>
+      </c>
+      <c r="V70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="W70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4">
+        <v>2080</v>
+      </c>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4">
-        <v>3120</v>
-      </c>
+      <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4">
-        <v>3120</v>
-      </c>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-      <c r="AG70" s="4">
-        <v>3120</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AF70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AG70" s="4"/>
       <c r="AH70" s="4"/>
-      <c r="AI70" s="4"/>
-      <c r="AJ70" s="4">
-        <v>3120</v>
-      </c>
-      <c r="AK70" s="4"/>
+      <c r="AI70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4">
+        <v>1040</v>
+      </c>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
     </row>
@@ -6635,145 +6649,151 @@
         <v>69</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>96</v>
       </c>
       <c r="F71" s="1">
+        <f t="shared" si="7"/>
+        <v>33000</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="5"/>
-        <v>22880</v>
+        <v>34320</v>
       </c>
       <c r="H71" s="14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4">
-        <v>2080</v>
-      </c>
+      <c r="S71" s="4">
+        <v>3120</v>
+      </c>
+      <c r="T71" s="4"/>
       <c r="U71" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="V71" s="4"/>
-      <c r="W71" s="4">
-        <v>2080</v>
-      </c>
+      <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AB71" s="4">
-        <v>2080</v>
-      </c>
+        <v>3120</v>
+      </c>
+      <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
+      <c r="AD71" s="4">
+        <v>3120</v>
+      </c>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
+      <c r="AJ71" s="4">
+        <v>3120</v>
+      </c>
       <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
+      <c r="AL71" s="19">
+        <v>3120</v>
+      </c>
       <c r="AM71" s="4"/>
     </row>
     <row r="72" s="3" customFormat="1" spans="1:39">
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="E72" s="17" t="s">
+      <c r="D72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F72" s="1">
+        <f t="shared" si="7"/>
+        <v>26000</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="6"/>
-        <v>49000</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="5"/>
-        <v>22880</v>
+        <v>24960</v>
       </c>
       <c r="H72" s="14">
-        <v>27000</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="M72" s="23">
-        <v>4160</v>
-      </c>
-      <c r="N72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22">
-        <v>2080</v>
-      </c>
-      <c r="T72" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4">
         <v>2080</v>
       </c>
       <c r="U72" s="4">
         <v>2080</v>
       </c>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="X72" s="4">
+        <v>2080</v>
+      </c>
+      <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
+      <c r="AA72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AB72" s="4">
         <v>2080</v>
       </c>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
+      <c r="AF72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
+      <c r="AH72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AI72" s="4"/>
-      <c r="AJ72" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AJ72" s="4"/>
       <c r="AK72" s="4"/>
-      <c r="AL72" s="4"/>
+      <c r="AL72" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM72" s="4"/>
     </row>
     <row r="73" s="3" customFormat="1" spans="1:39">
@@ -6781,57 +6801,68 @@
         <v>71</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="F73" s="1">
+        <f t="shared" si="7"/>
+        <v>49000</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="6"/>
-        <v>6000</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>22880</v>
       </c>
       <c r="H73" s="14">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="19">
-        <v>3120</v>
-      </c>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
+        <v>27000</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22">
+        <v>2080</v>
+      </c>
+      <c r="M73" s="23">
+        <v>4160</v>
+      </c>
+      <c r="N73" s="22">
+        <v>2080</v>
+      </c>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22">
+        <v>2080</v>
+      </c>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22">
+        <v>2080</v>
+      </c>
+      <c r="T73" s="22">
+        <v>2080</v>
+      </c>
+      <c r="U73" s="4">
+        <v>2080</v>
+      </c>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
+      <c r="AB73" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
+      <c r="AD73" s="4">
+        <v>2080</v>
+      </c>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="4">
-        <v>2080</v>
-      </c>
-      <c r="AG73" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
+      <c r="AJ73" s="4">
+        <v>2080</v>
+      </c>
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
@@ -6841,16 +6872,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="16"/>
+      <c r="D74" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E74" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="1">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" ref="G69:G95" si="7">SUM(I74:AM74)</f>
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
@@ -6861,7 +6895,9 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
+      <c r="O74" s="19">
+        <v>3120</v>
+      </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -6878,8 +6914,12 @@
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
+      <c r="AF74" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>1040</v>
+      </c>
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
@@ -6892,19 +6932,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="16"/>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="F75" s="1">
-        <f t="shared" si="6"/>
-        <v>6000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="7"/>
-        <v>6240</v>
+        <f t="shared" ref="G70:G96" si="8">SUM(I75:AM75)</f>
+        <v>0</v>
       </c>
       <c r="H75" s="14">
         <v>0</v>
@@ -6913,16 +6950,10 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="19">
-        <v>1040</v>
-      </c>
-      <c r="N75" s="4">
-        <v>1040</v>
-      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="4">
-        <v>2080</v>
-      </c>
+      <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
@@ -6935,9 +6966,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
-      <c r="AC75" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
@@ -6954,32 +6983,41 @@
         <v>74</v>
       </c>
       <c r="B76" s="16"/>
+      <c r="D76" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E76" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6000</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6240</v>
       </c>
       <c r="H76" s="14">
         <v>0</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="19">
+        <v>1040</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1040</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4">
+        <v>2080</v>
+      </c>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -6988,7 +7026,9 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
+      <c r="AC76" s="4">
+        <v>2080</v>
+      </c>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
@@ -7005,55 +7045,43 @@
         <v>75</v>
       </c>
       <c r="B77" s="16"/>
-      <c r="C77" s="3">
-        <v>683879115</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="F77" s="1">
-        <f t="shared" si="6"/>
-        <v>6000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="7"/>
-        <v>6240</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H77" s="14">
         <v>0</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4">
-        <v>2080</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="4">
-        <v>2080</v>
-      </c>
+      <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
-      <c r="AE77" s="19">
-        <v>2080</v>
-      </c>
+      <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
       <c r="AH77" s="4"/>
@@ -7068,19 +7096,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="16"/>
+      <c r="C78" s="3">
+        <v>683879115</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>6000</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="7"/>
-        <v>4160</v>
+        <f t="shared" si="8"/>
+        <v>6240</v>
       </c>
       <c r="H78" s="14">
         <v>0</v>
@@ -7090,11 +7121,11 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="N78" s="4">
+        <v>2080</v>
+      </c>
       <c r="O78" s="4"/>
-      <c r="P78" s="19">
-        <v>2080</v>
-      </c>
+      <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
@@ -7102,7 +7133,9 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
+      <c r="X78" s="4">
+        <v>2080</v>
+      </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
@@ -7126,16 +7159,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="16"/>
+      <c r="D79" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E79" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="6"/>
-        <v>7000</v>
+        <f t="shared" si="7"/>
+        <v>4000</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="7"/>
-        <v>7280</v>
+        <f t="shared" si="8"/>
+        <v>4160</v>
       </c>
       <c r="H79" s="14">
         <v>0</v>
@@ -7147,32 +7183,30 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="P79" s="19">
+        <v>2080</v>
+      </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="4">
-        <v>1040</v>
-      </c>
+      <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-      <c r="AB79" s="4">
-        <v>3120</v>
-      </c>
+      <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
+      <c r="AE79" s="19">
+        <v>2080</v>
+      </c>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
       <c r="AH79" s="4"/>
-      <c r="AI79" s="4">
-        <v>3120</v>
-      </c>
+      <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
@@ -7184,17 +7218,17 @@
       </c>
       <c r="B80" s="16"/>
       <c r="D80" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>108</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7280</v>
       </c>
       <c r="H80" s="14">
@@ -7212,33 +7246,27 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-      <c r="U80" s="19">
-        <v>2080</v>
-      </c>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4">
-        <v>1040</v>
-      </c>
-      <c r="X80" s="4">
-        <v>1040</v>
-      </c>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4">
+        <v>1040</v>
+      </c>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4">
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
-      <c r="AG80" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
-      <c r="AI80" s="4"/>
+      <c r="AI80" s="4">
+        <v>3120</v>
+      </c>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
@@ -7250,60 +7278,64 @@
       </c>
       <c r="B81" s="16"/>
       <c r="D81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="F81" s="1">
-        <f t="shared" si="6"/>
-        <v>8000</v>
+        <f t="shared" si="7"/>
+        <v>7000</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="7"/>
-        <v>8320</v>
+        <f t="shared" si="8"/>
+        <v>7280</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
       </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="22">
-        <v>2080</v>
-      </c>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="22">
-        <v>2080</v>
-      </c>
-      <c r="X81" s="24"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="19">
+        <v>2080</v>
+      </c>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4">
+        <v>1040</v>
+      </c>
+      <c r="X81" s="4">
+        <v>1040</v>
+      </c>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4">
-        <v>2080</v>
+        <v>1040</v>
       </c>
       <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
+      <c r="AD81" s="4">
+        <v>1040</v>
+      </c>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
+      <c r="AG81" s="4">
+        <v>1040</v>
+      </c>
       <c r="AH81" s="4"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
-      <c r="AL81" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:39">
@@ -7312,66 +7344,60 @@
       </c>
       <c r="B82" s="16"/>
       <c r="D82" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>111</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="6"/>
-        <v>35000</v>
+        <f t="shared" si="7"/>
+        <v>8000</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="7"/>
-        <v>36400</v>
+        <f t="shared" si="8"/>
+        <v>8320</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
       </c>
-      <c r="I82" s="4">
-        <v>5200</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4">
-        <v>5200</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4">
-        <v>5200</v>
-      </c>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4">
-        <v>5200</v>
-      </c>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4">
-        <v>5200</v>
-      </c>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="22">
+        <v>2080</v>
+      </c>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="22">
+        <v>2080</v>
+      </c>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AB82" s="4">
+        <v>2080</v>
+      </c>
+      <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
-      <c r="AJ82" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
-      <c r="AL82" s="4"/>
+      <c r="AL82" s="4">
+        <v>2080</v>
+      </c>
       <c r="AM82" s="4"/>
     </row>
     <row r="83" s="3" customFormat="1" spans="1:39">
@@ -7379,48 +7405,65 @@
         <v>81</v>
       </c>
       <c r="B83" s="16"/>
+      <c r="D83" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E83" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>35000</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>36400</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
       </c>
-      <c r="I83" s="4"/>
+      <c r="I83" s="4">
+        <v>5200</v>
+      </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="L83" s="4">
+        <v>5200</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
+      <c r="P83" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
+      <c r="T83" s="4">
+        <v>5200</v>
+      </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
+      <c r="X83" s="4">
+        <v>5200</v>
+      </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
+      <c r="AC83" s="4">
+        <v>5200</v>
+      </c>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
       <c r="AH83" s="4"/>
       <c r="AI83" s="4"/>
-      <c r="AJ83" s="4"/>
+      <c r="AJ83" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK83" s="4"/>
       <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
@@ -7434,27 +7477,27 @@
         <v>113</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="G84" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="H84" s="14">
         <v>0</v>
       </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -7481,18 +7524,15 @@
         <v>83</v>
       </c>
       <c r="B85" s="16"/>
-      <c r="C85" s="3">
-        <v>683909556</v>
-      </c>
       <c r="E85" s="17" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H85" s="14">
@@ -7509,14 +7549,14 @@
       <c r="Q85" s="24"/>
       <c r="R85" s="24"/>
       <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
@@ -7535,15 +7575,18 @@
         <v>84</v>
       </c>
       <c r="B86" s="16"/>
+      <c r="C86" s="3">
+        <v>683909556</v>
+      </c>
       <c r="E86" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H86" s="14">
@@ -7565,9 +7608,9 @@
       <c r="V86" s="24"/>
       <c r="W86" s="24"/>
       <c r="X86" s="24"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="24"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -7585,38 +7628,37 @@
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="B87" s="16"/>
+      <c r="E87" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="7"/>
-        <v>1040</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H87" s="14">
         <v>0</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4">
-        <v>1040</v>
-      </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
@@ -7641,12 +7683,12 @@
         <v>117</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1000</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1040</v>
       </c>
       <c r="H88" s="14">
         <v>0</v>
@@ -7654,7 +7696,9 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="4">
+        <v>1040</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -7691,11 +7735,11 @@
         <v>118</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H89" s="14">
@@ -7737,19 +7781,16 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E90" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="6"/>
-        <v>6000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="7"/>
-        <v>6240</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H90" s="14">
         <v>0</v>
@@ -7772,14 +7813,10 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="4">
-        <v>1040</v>
-      </c>
+      <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
-      <c r="AD90" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
@@ -7795,18 +7832,18 @@
         <v>89</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="6"/>
-        <v>15000</v>
+        <f t="shared" si="7"/>
+        <v>6000</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="7"/>
-        <v>15600</v>
+        <f t="shared" si="8"/>
+        <v>6240</v>
       </c>
       <c r="H91" s="14">
         <v>0</v>
@@ -7829,22 +7866,20 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
+      <c r="AA91" s="4">
+        <v>1040</v>
+      </c>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
       <c r="AD91" s="4">
         <v>5200</v>
       </c>
-      <c r="AE91" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
-      <c r="AJ91" s="4">
-        <v>5200</v>
-      </c>
+      <c r="AJ91" s="4"/>
       <c r="AK91" s="4"/>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4"/>
@@ -7853,19 +7888,19 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="3">
-        <v>683909558</v>
+      <c r="D92" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>15000</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>15600</v>
       </c>
       <c r="H92" s="14">
         <v>0</v>
@@ -7891,13 +7926,19 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
+      <c r="AD92" s="4">
+        <v>5200</v>
+      </c>
+      <c r="AE92" s="4">
+        <v>5200</v>
+      </c>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
       <c r="AH92" s="4"/>
       <c r="AI92" s="4"/>
-      <c r="AJ92" s="4"/>
+      <c r="AJ92" s="4">
+        <v>5200</v>
+      </c>
       <c r="AK92" s="4"/>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4"/>
@@ -7906,15 +7947,18 @@
       <c r="A93" s="3">
         <v>91</v>
       </c>
+      <c r="C93" s="3">
+        <v>683909558</v>
+      </c>
       <c r="E93" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H93" s="14">
@@ -7952,19 +7996,19 @@
       <c r="AL93" s="4"/>
       <c r="AM93" s="4"/>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" s="3" customFormat="1" spans="1:39">
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -8006,39 +8050,29 @@
       <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="3">
-        <v>685671039</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="6"/>
-        <v>9000</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="7"/>
-        <v>9360</v>
-      </c>
-      <c r="H95" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
         <v>0</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="19">
-        <v>2080</v>
-      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="19">
-        <v>2080</v>
-      </c>
+      <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
@@ -8046,38 +8080,59 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="19">
-        <v>1040</v>
-      </c>
+      <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
-      <c r="AB95" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
-      <c r="AI95" s="4">
-        <v>2080</v>
-      </c>
+      <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
       <c r="AL95" s="4"/>
       <c r="AM95" s="4"/>
     </row>
-    <row r="96" spans="9:39">
+    <row r="96" spans="1:39">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="C96" s="3">
+        <v>685671039</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="8"/>
+        <v>9360</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="M96" s="19">
+        <v>2080</v>
+      </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
+      <c r="Q96" s="19">
+        <v>2080</v>
+      </c>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
@@ -8085,17 +8140,23 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
+      <c r="Y96" s="19">
+        <v>1040</v>
+      </c>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
+      <c r="AB96" s="4">
+        <v>2080</v>
+      </c>
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
       <c r="AH96" s="4"/>
-      <c r="AI96" s="4"/>
+      <c r="AI96" s="4">
+        <v>2080</v>
+      </c>
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
       <c r="AL96" s="4"/>
@@ -8497,6 +8558,39 @@
       <c r="AL108" s="4"/>
       <c r="AM108" s="4"/>
     </row>
+    <row r="109" spans="9:39">
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
+      <c r="AG109" s="4"/>
+      <c r="AH109" s="4"/>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="4"/>
+      <c r="AK109" s="4"/>
+      <c r="AL109" s="4"/>
+      <c r="AM109" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -757,11 +757,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -777,6 +777,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,14 +804,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,6 +842,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -827,8 +881,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,63 +903,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,14 +918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,6 +986,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -998,7 +1034,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,49 +1136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,79 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,25 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,11 +1182,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1204,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1217,15 +1250,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,42 +1277,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,130 +1300,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,14 +1488,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1841,11 +1841,11 @@
   <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AK62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AL21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
+      <selection pane="bottomRight" activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1886,97 +1886,97 @@
         <v>7</v>
       </c>
       <c r="I1" s="18">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="J1" s="18">
-        <v>43832</v>
+        <v>44198</v>
       </c>
       <c r="K1" s="18">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="L1" s="18">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="M1" s="18">
-        <v>43835</v>
+        <v>44201</v>
       </c>
       <c r="N1" s="18">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="O1" s="18">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="P1" s="18">
-        <v>43838</v>
+        <v>44204</v>
       </c>
       <c r="Q1" s="18">
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="R1" s="18">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="S1" s="18">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="T1" s="18">
-        <v>43842</v>
+        <v>44208</v>
       </c>
       <c r="U1" s="18">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="V1" s="18">
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="W1" s="18">
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="X1" s="18">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="Y1" s="18">
-        <v>43847</v>
+        <v>44213</v>
       </c>
       <c r="Z1" s="18">
-        <v>43848</v>
+        <v>44214</v>
       </c>
       <c r="AA1" s="18">
-        <v>43849</v>
+        <v>44215</v>
       </c>
       <c r="AB1" s="18">
-        <v>43850</v>
+        <v>44216</v>
       </c>
       <c r="AC1" s="18">
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="AD1" s="18">
-        <v>43852</v>
+        <v>44218</v>
       </c>
       <c r="AE1" s="18">
-        <v>43853</v>
+        <v>44219</v>
       </c>
       <c r="AF1" s="18">
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="AG1" s="18">
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="AH1" s="18">
-        <v>43856</v>
+        <v>44222</v>
       </c>
       <c r="AI1" s="18">
-        <v>43857</v>
+        <v>44223</v>
       </c>
       <c r="AJ1" s="18">
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="AK1" s="18">
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="AL1" s="18">
-        <v>43860</v>
+        <v>44226</v>
       </c>
       <c r="AM1" s="18">
-        <v>43861</v>
+        <v>44227</v>
       </c>
       <c r="AN1" s="20"/>
       <c r="AO1" s="20"/>
@@ -1989,23 +1989,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>1515500</v>
+        <v>1547500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>1452360</v>
+        <v>1485640</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>1515500</v>
+        <v>1547500</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>1452360</v>
+        <v>1485640</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="AM2" s="2">
         <f t="shared" si="1"/>
-        <v>23920</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:39">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>15600</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -2338,7 +2338,9 @@
       <c r="AL5" s="4">
         <v>1040</v>
       </c>
-      <c r="AM5" s="4"/>
+      <c r="AM5" s="4">
+        <v>1040</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:39">
       <c r="A6" s="3">
@@ -2923,11 +2925,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>57200</v>
+        <v>62400</v>
       </c>
       <c r="H14" s="14">
         <v>5000</v>
@@ -2984,7 +2986,9 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
+      <c r="AM14" s="4">
+        <v>5200</v>
+      </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:39">
       <c r="A15" s="3">
@@ -3198,11 +3202,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H18" s="14">
         <v>5000</v>
@@ -3245,7 +3249,9 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AM18" s="4">
+        <v>5200</v>
+      </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:39">
       <c r="A19" s="3">
@@ -3657,11 +3663,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H25" s="14">
         <v>3000</v>
@@ -3713,7 +3719,9 @@
       </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:39">
       <c r="A26" s="3">
@@ -5661,11 +5669,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="6"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H56" s="14">
         <v>0</v>
@@ -5716,7 +5724,9 @@
         <v>5200</v>
       </c>
       <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
+      <c r="AM56" s="4">
+        <v>5200</v>
+      </c>
     </row>
     <row r="57" s="3" customFormat="1" spans="1:39">
       <c r="A57" s="3">
@@ -5998,11 +6008,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H61" s="14">
         <v>2000</v>
@@ -6043,7 +6053,9 @@
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
+      <c r="AM61" s="4">
+        <v>2080</v>
+      </c>
     </row>
     <row r="62" s="3" customFormat="1" spans="1:39">
       <c r="A62" s="3">
@@ -6308,11 +6320,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="6"/>
-        <v>57200</v>
+        <v>62400</v>
       </c>
       <c r="H66" s="14">
         <v>0</v>
@@ -6369,7 +6381,9 @@
       </c>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
+      <c r="AM66" s="4">
+        <v>5200</v>
+      </c>
     </row>
     <row r="67" s="3" customFormat="1" spans="1:39">
       <c r="A67" s="3">
@@ -6656,11 +6670,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="7"/>
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>34320</v>
+        <v>37440</v>
       </c>
       <c r="H71" s="14">
         <v>0</v>
@@ -6717,7 +6731,9 @@
       <c r="AL71" s="19">
         <v>3120</v>
       </c>
-      <c r="AM71" s="4"/>
+      <c r="AM71" s="4">
+        <v>3120</v>
+      </c>
     </row>
     <row r="72" s="3" customFormat="1" spans="1:39">
       <c r="A72" s="3">
@@ -7285,11 +7301,11 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="8"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -7336,7 +7352,9 @@
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
-      <c r="AM81" s="4"/>
+      <c r="AM81" s="4">
+        <v>1040</v>
+      </c>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:39">
       <c r="A82" s="3">
@@ -8111,11 +8129,11 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="8"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H96" s="5">
         <v>0</v>
@@ -8160,7 +8178,9 @@
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
       <c r="AL96" s="4"/>
-      <c r="AM96" s="4"/>
+      <c r="AM96" s="4">
+        <v>2080</v>
+      </c>
     </row>
     <row r="97" spans="9:39">
       <c r="I97" s="4"/>

--- a/Daily Orders/January-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/January-2021-RetailerWiseOrder.xlsx
@@ -757,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -787,24 +787,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,16 +817,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,19 +832,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,14 +849,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -897,28 +910,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,19 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,91 +1004,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,13 +1076,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,31 +1160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,16 +1190,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,28 +1228,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,9 +1269,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,130 +1300,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1841,11 +1841,11 @@
   <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AL21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL27" sqref="AL27"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
